--- a/data/backend/order-service_structure.xlsx
+++ b/data/backend/order-service_structure.xlsx
@@ -1087,75 +1087,75 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>status</t>
+  </si>
+  <si>
     <t>paymentMethod</t>
   </si>
   <si>
+    <t>locationId</t>
+  </si>
+  <si>
+    <t>paymentCost</t>
+  </si>
+  <si>
+    <t>clientId</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>deliveryLocationId</t>
+  </si>
+  <si>
+    <t>totalCost</t>
+  </si>
+  <si>
+    <t>orderEntriesIds</t>
+  </si>
+  <si>
+    <t>deliveryMethod</t>
+  </si>
+  <si>
     <t>deliveryCost</t>
   </si>
   <si>
-    <t>clientId</t>
-  </si>
-  <si>
-    <t>totalCost</t>
-  </si>
-  <si>
-    <t>deliveryLocationId</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>orderEntriesIds</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>deliveryMethod</t>
-  </si>
-  <si>
-    <t>locationId</t>
-  </si>
-  <si>
-    <t>paymentCost</t>
+    <t>orderEntries</t>
   </si>
   <si>
     <t>deliveryLocation</t>
   </si>
   <si>
+    <t>orderStatus</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>creationTimestamp</t>
+  </si>
+  <si>
     <t>location</t>
   </si>
   <si>
-    <t>orderEntries</t>
-  </si>
-  <si>
-    <t>creationTimestamp</t>
-  </si>
-  <si>
-    <t>orderStatus</t>
-  </si>
-  <si>
-    <t>client</t>
-  </si>
-  <si>
     <t>totalPrice</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
+    <t>emailAddress</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
     <t>orderIds</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>surname</t>
-  </si>
-  <si>
-    <t>emailAddress</t>
-  </si>
-  <si>
-    <t>phoneNumber</t>
-  </si>
-  <si>
     <t>orderRepository</t>
   </si>
   <si>
@@ -1168,49 +1168,52 @@
     <t>int[]</t>
   </si>
   <si>
+    <t>postCode</t>
+  </si>
+  <si>
     <t>country</t>
   </si>
   <si>
+    <t>deliveryOrdersIds</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>streetNumber</t>
+  </si>
+  <si>
     <t>flatNumber</t>
   </si>
   <si>
-    <t>streetNumber</t>
-  </si>
-  <si>
-    <t>deliveryOrdersIds</t>
-  </si>
-  <si>
     <t>city</t>
   </si>
   <si>
-    <t>postCode</t>
-  </si>
-  <si>
-    <t>street</t>
+    <t>ORDER_NOT_FOUND_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
+    <t>rsqlVisitor</t>
+  </si>
+  <si>
+    <t>org.andante.rsql.PersistentRSQLVisitor</t>
+  </si>
+  <si>
+    <t>kafkaOrderProducer</t>
+  </si>
+  <si>
+    <t>rsqlParser</t>
+  </si>
+  <si>
+    <t>cz.jirutka.rsql.parser.RSQLParser</t>
   </si>
   <si>
     <t>orderModelEntityMapper</t>
   </si>
   <si>
-    <t>ORDER_NOT_FOUND_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
-    <t>kafkaOrderProducer</t>
-  </si>
-  <si>
-    <t>rsqlVisitor</t>
-  </si>
-  <si>
-    <t>org.andante.rsql.PersistentRSQLVisitor</t>
-  </si>
-  <si>
     <t>ORDER_CONFLICT_EXCEPTION_MESSAGE</t>
   </si>
   <si>
-    <t>rsqlParser</t>
-  </si>
-  <si>
-    <t>cz.jirutka.rsql.parser.RSQLParser</t>
+    <t>productVariantId</t>
   </si>
   <si>
     <t>quantity</t>
@@ -1219,132 +1222,129 @@
     <t>orderOutput</t>
   </si>
   <si>
-    <t>productVariantId</t>
-  </si>
-  <si>
     <t>paymentService</t>
   </si>
   <si>
+    <t>productClient</t>
+  </si>
+  <si>
+    <t>ORDER_COMMUNICATION_MESSAGE</t>
+  </si>
+  <si>
     <t>orderDTOModelMapper</t>
   </si>
   <si>
-    <t>ORDER_COMMUNICATION_MESSAGE</t>
-  </si>
-  <si>
-    <t>productClient</t>
-  </si>
-  <si>
     <t>PRODUCT_VARIANT_NOT_FOUND_EXCEPTION_MESSAGE</t>
   </si>
   <si>
+    <t>ORDER_PLACED_TITLE</t>
+  </si>
+  <si>
+    <t>PDF_FILENAME</t>
+  </si>
+  <si>
+    <t>mailSender</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>org.springframework.core.io.Resource</t>
+  </si>
+  <si>
+    <t>ORDER_TEMPLATE</t>
+  </si>
+  <si>
+    <t>templateEngine</t>
+  </si>
+  <si>
+    <t>org.thymeleaf.TemplateEngine</t>
+  </si>
+  <si>
     <t>sender</t>
   </si>
   <si>
-    <t>templateEngine</t>
-  </si>
-  <si>
-    <t>org.thymeleaf.TemplateEngine</t>
-  </si>
-  <si>
-    <t>PDF_FILENAME</t>
-  </si>
-  <si>
-    <t>logo</t>
-  </si>
-  <si>
-    <t>org.springframework.core.io.Resource</t>
-  </si>
-  <si>
-    <t>ORDER_TEMPLATE</t>
-  </si>
-  <si>
-    <t>ORDER_PLACED_TITLE</t>
-  </si>
-  <si>
-    <t>mailSender</t>
-  </si>
-  <si>
     <t>orderEntryService</t>
   </si>
   <si>
+    <t>orderEntryDTOModelMapper</t>
+  </si>
+  <si>
+    <t>NULL_IDENTIFIER_ERROR_MESSAGE</t>
+  </si>
+  <si>
     <t>POSITIVE_IDENTIFIER_ERROR_MESSAGE</t>
   </si>
   <si>
-    <t>NULL_IDENTIFIER_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>orderEntryDTOModelMapper</t>
-  </si>
-  <si>
     <t>host</t>
   </si>
   <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>enableStartTLS</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
     <t>port</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
     <t>smtpAuth</t>
   </si>
   <si>
-    <t>enableStartTLS</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>orderId</t>
   </si>
   <si>
+    <t>userService</t>
+  </si>
+  <si>
     <t>userDTOModelMapper</t>
   </si>
   <si>
-    <t>userService</t>
-  </si>
-  <si>
     <t>STRIPE_SUCCEEDED_INTENT</t>
   </si>
   <si>
     <t>privateKey</t>
   </si>
   <si>
+    <t>orderService</t>
+  </si>
+  <si>
+    <t>ORDER_ID</t>
+  </si>
+  <si>
+    <t>STRIPE_HEADER</t>
+  </si>
+  <si>
     <t>webhookSecret</t>
   </si>
   <si>
-    <t>ORDER_ID</t>
-  </si>
-  <si>
-    <t>orderService</t>
-  </si>
-  <si>
-    <t>STRIPE_HEADER</t>
+    <t>userModelEntityMapper</t>
+  </si>
+  <si>
+    <t>clientRepository</t>
+  </si>
+  <si>
+    <t>USER_CONFLICT_EXCEPTION_MESSAGE</t>
   </si>
   <si>
     <t>USER_NOT_FOUND_EXCEPTION_MESSAGE</t>
   </si>
   <si>
-    <t>clientRepository</t>
-  </si>
-  <si>
-    <t>userModelEntityMapper</t>
-  </si>
-  <si>
-    <t>USER_CONFLICT_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
     <t>kafkaProductOrderEventTemplate</t>
   </si>
   <si>
+    <t>kafkaOrderEntryEventTemplate</t>
+  </si>
+  <si>
+    <t>SEPARATOR</t>
+  </si>
+  <si>
     <t>kafkaOrderEventTemplate</t>
   </si>
   <si>
-    <t>kafkaOrderEntryEventTemplate</t>
-  </si>
-  <si>
-    <t>SEPARATOR</t>
-  </si>
-  <si>
     <t>bootstrapServers</t>
   </si>
   <si>
@@ -1357,24 +1357,24 @@
     <t>deliveryOrders</t>
   </si>
   <si>
+    <t>ORDER_INTERNAL_PROBLEM_MESSAGE</t>
+  </si>
+  <si>
     <t>locationModelEntityMapper</t>
   </si>
   <si>
+    <t>orderEntryRepository</t>
+  </si>
+  <si>
+    <t>LOCATION_NOT_FOUND_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
     <t>CLIENT_NOT_FOUND_EXCEPTION_MESSAGE</t>
   </si>
   <si>
     <t>locationRepository</t>
   </si>
   <si>
-    <t>LOCATION_NOT_FOUND_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
-    <t>ORDER_INTERNAL_PROBLEM_MESSAGE</t>
-  </si>
-  <si>
-    <t>orderEntryRepository</t>
-  </si>
-  <si>
     <t>order</t>
   </si>
   <si>
@@ -1384,55 +1384,55 @@
     <t>LOCATION_CONFLICT_EXCEPTION_MESSAGE</t>
   </si>
   <si>
+    <t>PAGE_SIZE_NON_POSITIVE_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>EMAIL_NULL_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>ORDER_STATUS_NULL_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>PAGE_SIZE_NULL_ERROR_MESSAGE</t>
+  </si>
+  <si>
     <t>EMAIL_INVALID_ERROR_MESSAGE</t>
   </si>
   <si>
+    <t>ORDER_SORTING_ORDER_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>PAGE_NULL_ERROR_MESSAGE</t>
+  </si>
+  <si>
     <t>emailSender</t>
   </si>
   <si>
-    <t>EMAIL_NULL_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>PAGE_SIZE_NON_POSITIVE_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>PAGE_SIZE_NULL_ERROR_MESSAGE</t>
+    <t>IDENTIFIERS_ERROR_MESSAGE</t>
   </si>
   <si>
     <t>PAGE_NEGATIVE_ERROR_MESSAGE</t>
   </si>
   <si>
-    <t>ORDER_SORTING_ORDER_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>ORDER_STATUS_NULL_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>IDENTIFIERS_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>PAGE_NULL_ERROR_MESSAGE</t>
-  </si>
-  <si>
     <t>locationDTOModelMapper</t>
   </si>
   <si>
     <t>locationService</t>
   </si>
   <si>
+    <t>ORDER_ENTRIES_CONFLICT_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
+    <t>productOrderValidator</t>
+  </si>
+  <si>
+    <t>ORDER_ENTRY_CONFLICT_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
+    <t>orderEntryModelEntityMapper</t>
+  </si>
+  <si>
     <t>ORDER_ENTRY_NOT_FOUND_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
-    <t>ORDER_ENTRIES_CONFLICT_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
-    <t>ORDER_ENTRY_CONFLICT_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
-    <t>productOrderValidator</t>
-  </si>
-  <si>
-    <t>orderEntryModelEntityMapper</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -15620,7 +15620,7 @@
         <v>73</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -15634,7 +15634,7 @@
         <v>73</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -15662,7 +15662,7 @@
         <v>73</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>132</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
@@ -15690,7 +15690,7 @@
         <v>73</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -15704,7 +15704,7 @@
         <v>73</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
@@ -15718,7 +15718,7 @@
         <v>73</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>53</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10">
@@ -15732,7 +15732,7 @@
         <v>73</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
@@ -15746,7 +15746,7 @@
         <v>73</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
@@ -15774,7 +15774,7 @@
         <v>73</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>51</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
@@ -15782,13 +15782,13 @@
         <v>47</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
@@ -15796,13 +15796,13 @@
         <v>47</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>78</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
@@ -15810,13 +15810,13 @@
         <v>47</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17">
@@ -15824,13 +15824,13 @@
         <v>47</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
@@ -15838,13 +15838,13 @@
         <v>47</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>59</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
@@ -15852,13 +15852,13 @@
         <v>47</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
@@ -15866,13 +15866,13 @@
         <v>47</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21">
@@ -15886,7 +15886,7 @@
         <v>73</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
@@ -15894,13 +15894,13 @@
         <v>47</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23">
@@ -15908,13 +15908,13 @@
         <v>47</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24">
@@ -15922,13 +15922,13 @@
         <v>95</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>125</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25">
@@ -15936,13 +15936,13 @@
         <v>95</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26">
@@ -15950,13 +15950,13 @@
         <v>95</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27">
@@ -15964,13 +15964,13 @@
         <v>95</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
@@ -15992,13 +15992,13 @@
         <v>95</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
@@ -16006,13 +16006,13 @@
         <v>95</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31">
@@ -16020,13 +16020,13 @@
         <v>95</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>70</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32">
@@ -16034,13 +16034,13 @@
         <v>95</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>111</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33">
@@ -16048,13 +16048,13 @@
         <v>95</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34">
@@ -16062,13 +16062,13 @@
         <v>95</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35">
@@ -16076,13 +16076,13 @@
         <v>95</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>65</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36">
@@ -16096,7 +16096,7 @@
         <v>73</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
@@ -16118,13 +16118,13 @@
         <v>102</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39">
@@ -16132,13 +16132,13 @@
         <v>102</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40">
@@ -16166,7 +16166,7 @@
         <v>73</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42">
@@ -16174,7 +16174,7 @@
         <v>105</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>73</v>
@@ -16188,7 +16188,7 @@
         <v>105</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>73</v>
@@ -16202,7 +16202,7 @@
         <v>105</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>73</v>
@@ -16216,7 +16216,7 @@
         <v>105</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>73</v>
@@ -16230,13 +16230,13 @@
         <v>105</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47">
@@ -16250,7 +16250,7 @@
         <v>73</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
@@ -16272,13 +16272,13 @@
         <v>98</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50">
@@ -16286,13 +16286,13 @@
         <v>98</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51">
@@ -16300,13 +16300,13 @@
         <v>98</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52">
@@ -16314,13 +16314,13 @@
         <v>98</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53">
@@ -16328,13 +16328,13 @@
         <v>98</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54">
@@ -16342,13 +16342,13 @@
         <v>98</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55">
@@ -16356,7 +16356,7 @@
         <v>98</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>73</v>
@@ -16370,13 +16370,13 @@
         <v>98</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57">
@@ -16384,13 +16384,13 @@
         <v>98</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>125</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58">
@@ -16398,13 +16398,13 @@
         <v>98</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>59</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59">
@@ -16412,13 +16412,13 @@
         <v>98</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60">
@@ -16426,13 +16426,13 @@
         <v>98</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>59</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61">
@@ -16468,13 +16468,13 @@
         <v>144</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64">
@@ -16482,13 +16482,13 @@
         <v>144</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65">
@@ -16496,13 +16496,13 @@
         <v>144</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66">
@@ -16510,7 +16510,7 @@
         <v>144</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>73</v>
@@ -16524,7 +16524,7 @@
         <v>144</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>73</v>
@@ -16538,7 +16538,7 @@
         <v>144</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>73</v>
@@ -16552,13 +16552,13 @@
         <v>144</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70">
@@ -16566,13 +16566,13 @@
         <v>144</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
@@ -16586,7 +16586,7 @@
         <v>73</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>279</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72">
@@ -16594,13 +16594,13 @@
         <v>152</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>23</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73">
@@ -16608,13 +16608,13 @@
         <v>152</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>141</v>
+        <v>391</v>
       </c>
     </row>
     <row r="74">
@@ -16622,7 +16622,7 @@
         <v>152</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>73</v>
@@ -16636,13 +16636,13 @@
         <v>152</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="76">
@@ -16650,13 +16650,13 @@
         <v>152</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>23</v>
+        <v>279</v>
       </c>
     </row>
     <row r="77">
@@ -16664,13 +16664,13 @@
         <v>152</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>396</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78">
@@ -16684,7 +16684,7 @@
         <v>73</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>166</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79">
@@ -16692,7 +16692,7 @@
         <v>88</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>73</v>
@@ -16712,7 +16712,7 @@
         <v>73</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>98</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81">
@@ -16726,7 +16726,7 @@
         <v>73</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>53</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82">
@@ -16754,7 +16754,7 @@
         <v>73</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>311</v>
+        <v>277</v>
       </c>
     </row>
     <row r="84">
@@ -16782,7 +16782,7 @@
         <v>73</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>277</v>
+        <v>311</v>
       </c>
     </row>
     <row r="86">
@@ -16824,7 +16824,7 @@
         <v>73</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>407</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89">
@@ -16832,13 +16832,13 @@
         <v>184</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>23</v>
+        <v>188</v>
       </c>
     </row>
     <row r="90">
@@ -16846,13 +16846,13 @@
         <v>184</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="91">
@@ -16860,7 +16860,7 @@
         <v>184</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>73</v>
@@ -16874,13 +16874,13 @@
         <v>184</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>23</v>
+        <v>412</v>
       </c>
     </row>
     <row r="93">
@@ -16894,7 +16894,7 @@
         <v>73</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>188</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94">
@@ -16902,13 +16902,13 @@
         <v>335</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>84</v>
+        <v>245</v>
       </c>
     </row>
     <row r="95">
@@ -16916,13 +16916,13 @@
         <v>335</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96">
@@ -16930,13 +16930,13 @@
         <v>335</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>23</v>
+        <v>173</v>
       </c>
     </row>
     <row r="97">
@@ -16944,13 +16944,13 @@
         <v>335</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>173</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98">
@@ -16958,13 +16958,13 @@
         <v>335</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>245</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99">
@@ -16992,7 +16992,7 @@
         <v>73</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>166</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101">
@@ -17034,7 +17034,7 @@
         <v>73</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>23</v>
+        <v>166</v>
       </c>
     </row>
     <row r="104">
@@ -17056,13 +17056,13 @@
         <v>189</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>53</v>
+        <v>166</v>
       </c>
     </row>
     <row r="106">
@@ -17070,7 +17070,7 @@
         <v>189</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>424</v>
+        <v>397</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>73</v>
@@ -17084,7 +17084,7 @@
         <v>189</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>73</v>
@@ -17098,13 +17098,13 @@
         <v>189</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>397</v>
+        <v>424</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>166</v>
+        <v>53</v>
       </c>
     </row>
     <row r="109">
@@ -17132,7 +17132,7 @@
         <v>73</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>279</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111">
@@ -17140,13 +17140,13 @@
         <v>202</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>23</v>
+        <v>279</v>
       </c>
     </row>
     <row r="112">
@@ -17160,7 +17160,7 @@
         <v>73</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>212</v>
+        <v>193</v>
       </c>
     </row>
     <row r="113">
@@ -17182,7 +17182,7 @@
         <v>338</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>73</v>
@@ -17202,7 +17202,7 @@
         <v>73</v>
       </c>
       <c r="D115" t="s" s="0">
-        <v>193</v>
+        <v>212</v>
       </c>
     </row>
     <row r="116">
@@ -17244,7 +17244,7 @@
         <v>73</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>23</v>
+        <v>258</v>
       </c>
     </row>
     <row r="119">
@@ -17272,7 +17272,7 @@
         <v>73</v>
       </c>
       <c r="D120" t="s" s="0">
-        <v>258</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121">
@@ -17300,7 +17300,7 @@
         <v>73</v>
       </c>
       <c r="D122" t="s" s="0">
-        <v>23</v>
+        <v>297</v>
       </c>
     </row>
     <row r="123">
@@ -17328,7 +17328,7 @@
         <v>73</v>
       </c>
       <c r="D124" t="s" s="0">
-        <v>297</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125">
@@ -17350,13 +17350,13 @@
         <v>57</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D126" t="s" s="0">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="127">
@@ -17364,13 +17364,13 @@
         <v>57</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D127" t="s" s="0">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="128">
@@ -17378,13 +17378,13 @@
         <v>57</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D128" t="s" s="0">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="129">
@@ -17392,13 +17392,13 @@
         <v>57</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D129" t="s" s="0">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="130">
@@ -17406,7 +17406,7 @@
         <v>57</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>73</v>
@@ -17420,13 +17420,13 @@
         <v>57</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="132">
@@ -17434,13 +17434,13 @@
         <v>57</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="133">
@@ -17448,13 +17448,13 @@
         <v>57</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D133" t="s" s="0">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="134">
@@ -17462,13 +17462,13 @@
         <v>57</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="135">
@@ -17476,13 +17476,13 @@
         <v>57</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D135" t="s" s="0">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="136">
@@ -17490,13 +17490,13 @@
         <v>57</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D136" t="s" s="0">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="137">
@@ -17510,7 +17510,7 @@
         <v>73</v>
       </c>
       <c r="D137" t="s" s="0">
-        <v>166</v>
+        <v>53</v>
       </c>
     </row>
     <row r="138">
@@ -17518,7 +17518,7 @@
         <v>172</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>73</v>
@@ -17532,13 +17532,13 @@
         <v>172</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="C139" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D139" t="s" s="0">
-        <v>53</v>
+        <v>166</v>
       </c>
     </row>
     <row r="140">
@@ -17546,7 +17546,7 @@
         <v>172</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>73</v>
@@ -17560,13 +17560,13 @@
         <v>125</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D141" t="s" s="0">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="142">
@@ -17574,7 +17574,7 @@
         <v>125</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>73</v>
@@ -17594,7 +17594,7 @@
         <v>73</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
     <row r="144">
@@ -17602,7 +17602,7 @@
         <v>125</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>73</v>
@@ -17616,7 +17616,7 @@
         <v>125</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>73</v>
@@ -17630,13 +17630,13 @@
         <v>125</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="147">
@@ -17644,13 +17644,13 @@
         <v>125</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="148">
@@ -17658,7 +17658,7 @@
         <v>125</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>73</v>
@@ -17672,7 +17672,7 @@
         <v>125</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C149" t="s" s="0">
         <v>73</v>
@@ -17720,7 +17720,7 @@
         <v>73</v>
       </c>
       <c r="D152" t="s" s="0">
-        <v>263</v>
+        <v>23</v>
       </c>
     </row>
     <row r="153">
@@ -17734,7 +17734,7 @@
         <v>73</v>
       </c>
       <c r="D153" t="s" s="0">
-        <v>23</v>
+        <v>263</v>
       </c>
     </row>
     <row r="154">
@@ -17742,13 +17742,13 @@
         <v>252</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D154" t="s" s="0">
-        <v>23</v>
+        <v>277</v>
       </c>
     </row>
     <row r="155">
@@ -17756,13 +17756,13 @@
         <v>252</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D155" t="s" s="0">
-        <v>277</v>
+        <v>23</v>
       </c>
     </row>
     <row r="156">
@@ -17798,13 +17798,13 @@
         <v>270</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>443</v>
+        <v>387</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D158" t="s" s="0">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="159">
@@ -17812,7 +17812,7 @@
         <v>270</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C159" t="s" s="0">
         <v>73</v>
@@ -17826,7 +17826,7 @@
         <v>270</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>73</v>
@@ -17840,7 +17840,7 @@
         <v>270</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>73</v>
@@ -17854,7 +17854,7 @@
         <v>270</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>73</v>
@@ -17868,13 +17868,13 @@
         <v>270</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>444</v>
+        <v>385</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D163" t="s" s="0">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="164">
@@ -17882,13 +17882,13 @@
         <v>270</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>386</v>
+        <v>443</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D164" t="s" s="0">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
     <row r="165">
@@ -17896,13 +17896,13 @@
         <v>270</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>362</v>
+        <v>444</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D165" t="s" s="0">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="166">
@@ -17910,7 +17910,7 @@
         <v>270</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>73</v>
@@ -17924,13 +17924,13 @@
         <v>82</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>374</v>
+        <v>443</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D167" t="s" s="0">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
     <row r="168">
@@ -17938,13 +17938,13 @@
         <v>82</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D168" t="s" s="0">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="169">
@@ -17952,13 +17952,13 @@
         <v>82</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>443</v>
+        <v>374</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D169" t="s" s="0">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="170">
@@ -17966,13 +17966,13 @@
         <v>82</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D170" t="s" s="0">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="171">
@@ -17980,7 +17980,7 @@
         <v>82</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>73</v>
@@ -17994,7 +17994,7 @@
         <v>82</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>73</v>
@@ -18014,7 +18014,7 @@
         <v>73</v>
       </c>
       <c r="D173" t="s" s="0">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="174">
@@ -18022,13 +18022,13 @@
         <v>279</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>446</v>
+        <v>401</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D174" t="s" s="0">
-        <v>23</v>
+        <v>277</v>
       </c>
     </row>
     <row r="175">
@@ -18036,13 +18036,13 @@
         <v>279</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D175" t="s" s="0">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="176">
@@ -18050,13 +18050,13 @@
         <v>279</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C176" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D176" t="s" s="0">
-        <v>23</v>
+        <v>93</v>
       </c>
     </row>
     <row r="177">
@@ -18064,13 +18064,13 @@
         <v>279</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>402</v>
+        <v>434</v>
       </c>
       <c r="C177" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D177" t="s" s="0">
-        <v>23</v>
+        <v>215</v>
       </c>
     </row>
     <row r="178">
@@ -18078,13 +18078,13 @@
         <v>279</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>403</v>
+        <v>448</v>
       </c>
       <c r="C178" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D178" t="s" s="0">
-        <v>277</v>
+        <v>23</v>
       </c>
     </row>
     <row r="179">
@@ -18106,13 +18106,13 @@
         <v>279</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>450</v>
+        <v>402</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D180" t="s" s="0">
-        <v>93</v>
+        <v>23</v>
       </c>
     </row>
     <row r="181">
@@ -18120,13 +18120,13 @@
         <v>279</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="C181" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D181" t="s" s="0">
-        <v>215</v>
+        <v>139</v>
       </c>
     </row>
     <row r="182">
@@ -18134,13 +18134,13 @@
         <v>292</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>451</v>
+        <v>360</v>
       </c>
       <c r="C182" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D182" t="s" s="0">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="183">
@@ -18148,7 +18148,7 @@
         <v>292</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C183" t="s" s="0">
         <v>73</v>
@@ -18162,13 +18162,13 @@
         <v>292</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>362</v>
+        <v>451</v>
       </c>
       <c r="C184" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D184" t="s" s="0">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="185">
@@ -18176,7 +18176,7 @@
         <v>292</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C185" t="s" s="0">
         <v>73</v>
@@ -18204,13 +18204,13 @@
         <v>275</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="C187" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D187" t="s" s="0">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="188">
@@ -18218,13 +18218,13 @@
         <v>275</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>443</v>
+        <v>374</v>
       </c>
       <c r="C188" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D188" t="s" s="0">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="189">
@@ -18232,7 +18232,7 @@
         <v>275</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C189" t="s" s="0">
         <v>73</v>
@@ -18246,13 +18246,13 @@
         <v>275</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>362</v>
+        <v>443</v>
       </c>
       <c r="C190" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D190" t="s" s="0">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="191">
@@ -18260,7 +18260,7 @@
         <v>275</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C191" t="s" s="0">
         <v>73</v>
@@ -18274,7 +18274,7 @@
         <v>275</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C192" t="s" s="0">
         <v>73</v>
@@ -18288,13 +18288,13 @@
         <v>177</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>397</v>
+        <v>424</v>
       </c>
       <c r="C193" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D193" t="s" s="0">
-        <v>166</v>
+        <v>53</v>
       </c>
     </row>
     <row r="194">
@@ -18302,13 +18302,13 @@
         <v>177</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C194" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D194" t="s" s="0">
-        <v>53</v>
+        <v>166</v>
       </c>
     </row>
     <row r="195">
@@ -18316,7 +18316,7 @@
         <v>177</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>424</v>
+        <v>360</v>
       </c>
       <c r="C195" t="s" s="0">
         <v>73</v>
@@ -18330,7 +18330,7 @@
         <v>177</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="C196" t="s" s="0">
         <v>73</v>
@@ -18358,13 +18358,13 @@
         <v>51</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>386</v>
+        <v>444</v>
       </c>
       <c r="C198" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D198" t="s" s="0">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
     <row r="199">
@@ -18378,7 +18378,7 @@
         <v>73</v>
       </c>
       <c r="D199" t="s" s="0">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="200">
@@ -18386,13 +18386,13 @@
         <v>51</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>382</v>
+        <v>443</v>
       </c>
       <c r="C200" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D200" t="s" s="0">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
     <row r="201">
@@ -18414,13 +18414,13 @@
         <v>51</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="C202" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D202" t="s" s="0">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="203">
@@ -18428,13 +18428,13 @@
         <v>51</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>443</v>
+        <v>386</v>
       </c>
       <c r="C203" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D203" t="s" s="0">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="204">
@@ -18442,7 +18442,7 @@
         <v>51</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C204" t="s" s="0">
         <v>73</v>
@@ -18456,13 +18456,13 @@
         <v>51</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C205" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D205" t="s" s="0">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="206">
@@ -18470,13 +18470,13 @@
         <v>51</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>444</v>
+        <v>360</v>
       </c>
       <c r="C206" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D206" t="s" s="0">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="207">
@@ -18484,13 +18484,13 @@
         <v>305</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>447</v>
+        <v>393</v>
       </c>
       <c r="C207" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D207" t="s" s="0">
-        <v>139</v>
+        <v>394</v>
       </c>
     </row>
     <row r="208">
@@ -18498,13 +18498,13 @@
         <v>305</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>395</v>
+        <v>446</v>
       </c>
       <c r="C208" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D208" t="s" s="0">
-        <v>396</v>
+        <v>123</v>
       </c>
     </row>
     <row r="209">
@@ -18512,13 +18512,13 @@
         <v>305</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="C209" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D209" t="s" s="0">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="210">
@@ -18526,13 +18526,13 @@
         <v>305</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>453</v>
+        <v>390</v>
       </c>
       <c r="C210" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D210" t="s" s="0">
-        <v>23</v>
+        <v>391</v>
       </c>
     </row>
     <row r="211">
@@ -18540,13 +18540,13 @@
         <v>305</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C211" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D211" t="s" s="0">
-        <v>23</v>
+        <v>139</v>
       </c>
     </row>
     <row r="212">
@@ -18554,13 +18554,13 @@
         <v>305</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>392</v>
+        <v>448</v>
       </c>
       <c r="C212" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D212" t="s" s="0">
-        <v>393</v>
+        <v>23</v>
       </c>
     </row>
     <row r="213">
@@ -18568,13 +18568,13 @@
         <v>342</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>454</v>
+        <v>392</v>
       </c>
       <c r="C213" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D213" t="s" s="0">
-        <v>23</v>
+        <v>245</v>
       </c>
     </row>
     <row r="214">
@@ -18582,13 +18582,13 @@
         <v>342</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C214" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D214" t="s" s="0">
-        <v>184</v>
+        <v>23</v>
       </c>
     </row>
     <row r="215">
@@ -18596,13 +18596,13 @@
         <v>342</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>456</v>
+        <v>403</v>
       </c>
       <c r="C215" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D215" t="s" s="0">
-        <v>23</v>
+        <v>311</v>
       </c>
     </row>
     <row r="216">
@@ -18610,13 +18610,13 @@
         <v>342</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>391</v>
+        <v>455</v>
       </c>
       <c r="C216" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D216" t="s" s="0">
-        <v>245</v>
+        <v>23</v>
       </c>
     </row>
     <row r="217">
@@ -18624,13 +18624,13 @@
         <v>342</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>401</v>
+        <v>456</v>
       </c>
       <c r="C217" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D217" t="s" s="0">
-        <v>311</v>
+        <v>23</v>
       </c>
     </row>
     <row r="218">
@@ -18652,7 +18652,7 @@
         <v>342</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>416</v>
+        <v>458</v>
       </c>
       <c r="C219" t="s" s="0">
         <v>73</v>
@@ -18666,7 +18666,7 @@
         <v>342</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C220" t="s" s="0">
         <v>73</v>
@@ -18680,13 +18680,13 @@
         <v>342</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>431</v>
+        <v>460</v>
       </c>
       <c r="C221" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D221" t="s" s="0">
-        <v>258</v>
+        <v>23</v>
       </c>
     </row>
     <row r="222">
@@ -18694,13 +18694,13 @@
         <v>342</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C222" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D222" t="s" s="0">
-        <v>23</v>
+        <v>184</v>
       </c>
     </row>
     <row r="223">
@@ -18708,7 +18708,7 @@
         <v>342</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C223" t="s" s="0">
         <v>73</v>
@@ -18722,7 +18722,7 @@
         <v>342</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C224" t="s" s="0">
         <v>73</v>
@@ -18736,13 +18736,13 @@
         <v>342</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>461</v>
+        <v>429</v>
       </c>
       <c r="C225" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D225" t="s" s="0">
-        <v>23</v>
+        <v>258</v>
       </c>
     </row>
     <row r="226">
@@ -18750,7 +18750,7 @@
         <v>342</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>462</v>
+        <v>416</v>
       </c>
       <c r="C226" t="s" s="0">
         <v>73</v>
@@ -18792,13 +18792,13 @@
         <v>209</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>399</v>
+        <v>451</v>
       </c>
       <c r="C229" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D229" t="s" s="0">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="230">
@@ -18806,13 +18806,13 @@
         <v>209</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="C230" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D230" t="s" s="0">
-        <v>53</v>
+        <v>166</v>
       </c>
     </row>
     <row r="231">
@@ -18820,13 +18820,13 @@
         <v>209</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>451</v>
+        <v>397</v>
       </c>
       <c r="C231" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D231" t="s" s="0">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="232">
@@ -18834,13 +18834,13 @@
         <v>209</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>397</v>
+        <v>360</v>
       </c>
       <c r="C232" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D232" t="s" s="0">
-        <v>166</v>
+        <v>53</v>
       </c>
     </row>
     <row r="233">
@@ -18848,13 +18848,13 @@
         <v>29</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C233" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D233" t="s" s="0">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="234">
@@ -18862,13 +18862,13 @@
         <v>29</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C234" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D234" t="s" s="0">
-        <v>132</v>
+        <v>53</v>
       </c>
     </row>
     <row r="235">
@@ -18876,13 +18876,13 @@
         <v>29</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C235" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D235" t="s" s="0">
-        <v>65</v>
+        <v>132</v>
       </c>
     </row>
     <row r="236">
@@ -18890,13 +18890,13 @@
         <v>29</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C236" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D236" t="s" s="0">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="237">
@@ -18904,13 +18904,13 @@
         <v>29</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C237" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D237" t="s" s="0">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="238">
@@ -18924,7 +18924,7 @@
         <v>73</v>
       </c>
       <c r="D238" t="s" s="0">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="239">
@@ -18938,7 +18938,7 @@
         <v>73</v>
       </c>
       <c r="D239" t="s" s="0">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="240">
@@ -18946,13 +18946,13 @@
         <v>29</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C240" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D240" t="s" s="0">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="241">
@@ -18960,13 +18960,13 @@
         <v>29</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C241" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D241" t="s" s="0">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="242">
@@ -18988,13 +18988,13 @@
         <v>29</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C243" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D243" t="s" s="0">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="244">
@@ -19002,13 +19002,13 @@
         <v>348</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="C244" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D244" t="s" s="0">
-        <v>23</v>
+        <v>302</v>
       </c>
     </row>
     <row r="245">
@@ -19016,13 +19016,13 @@
         <v>348</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C245" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D245" t="s" s="0">
-        <v>302</v>
+        <v>317</v>
       </c>
     </row>
     <row r="246">
@@ -19030,13 +19030,13 @@
         <v>348</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>465</v>
+        <v>417</v>
       </c>
       <c r="C246" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D246" t="s" s="0">
-        <v>317</v>
+        <v>23</v>
       </c>
     </row>
     <row r="247">
@@ -19044,7 +19044,7 @@
         <v>348</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C247" t="s" s="0">
         <v>73</v>
@@ -19078,7 +19078,7 @@
         <v>73</v>
       </c>
       <c r="D249" t="s" s="0">
-        <v>23</v>
+        <v>252</v>
       </c>
     </row>
     <row r="250">
@@ -19100,13 +19100,13 @@
         <v>326</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="C251" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D251" t="s" s="0">
-        <v>93</v>
+        <v>202</v>
       </c>
     </row>
     <row r="252">
@@ -19114,13 +19114,13 @@
         <v>326</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>391</v>
+        <v>470</v>
       </c>
       <c r="C252" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D252" t="s" s="0">
-        <v>245</v>
+        <v>23</v>
       </c>
     </row>
     <row r="253">
@@ -19128,13 +19128,13 @@
         <v>326</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="C253" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D253" t="s" s="0">
-        <v>252</v>
+        <v>93</v>
       </c>
     </row>
     <row r="254">
@@ -19142,13 +19142,13 @@
         <v>326</v>
       </c>
       <c r="B254" t="s" s="0">
-        <v>470</v>
+        <v>392</v>
       </c>
       <c r="C254" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D254" t="s" s="0">
-        <v>202</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -29716,7 +29716,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>476</v>
@@ -29733,7 +29733,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>476</v>
@@ -29750,7 +29750,7 @@
         <v>20</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>476</v>
@@ -29767,7 +29767,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>476</v>
@@ -29784,7 +29784,7 @@
         <v>20</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>476</v>
@@ -29801,7 +29801,7 @@
         <v>20</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>476</v>
@@ -29818,7 +29818,7 @@
         <v>20</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>476</v>
@@ -29835,7 +29835,7 @@
         <v>20</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>476</v>
@@ -29852,7 +29852,7 @@
         <v>20</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>476</v>
@@ -29869,7 +29869,7 @@
         <v>20</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E11" t="s" s="0">
         <v>476</v>
@@ -29886,7 +29886,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E12" t="s" s="0">
         <v>476</v>
@@ -29903,7 +29903,7 @@
         <v>20</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E13" t="s" s="0">
         <v>476</v>
@@ -29920,7 +29920,7 @@
         <v>20</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="E14" t="s" s="0">
         <v>476</v>
@@ -29937,7 +29937,7 @@
         <v>20</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E15" t="s" s="0">
         <v>476</v>
@@ -29954,7 +29954,7 @@
         <v>20</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E16" t="s" s="0">
         <v>476</v>
@@ -29971,7 +29971,7 @@
         <v>20</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E17" t="s" s="0">
         <v>476</v>
@@ -30005,7 +30005,7 @@
         <v>20</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E19" t="s" s="0">
         <v>476</v>
@@ -30022,7 +30022,7 @@
         <v>20</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="E20" t="s" s="0">
         <v>476</v>
@@ -30039,7 +30039,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E21" t="s" s="0">
         <v>476</v>
@@ -30056,7 +30056,7 @@
         <v>20</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E22" t="s" s="0">
         <v>476</v>
@@ -30090,7 +30090,7 @@
         <v>20</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E24" t="s" s="0">
         <v>476</v>
@@ -30107,7 +30107,7 @@
         <v>20</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E25" t="s" s="0">
         <v>476</v>

--- a/data/backend/order-service_structure.xlsx
+++ b/data/backend/order-service_structure.xlsx
@@ -15,12 +15,14 @@
     <sheet name="interfaceToInterfaceRelations" r:id="rId9" sheetId="7"/>
     <sheet name="fieldClassRelations" r:id="rId10" sheetId="8"/>
     <sheet name="fieldInterfaceRelations" r:id="rId11" sheetId="9"/>
+    <sheet name="classNumberOfLines" r:id="rId12" sheetId="10"/>
+    <sheet name="methodNumberOfLines" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8230" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9692" uniqueCount="541">
   <si>
     <t>Class Name</t>
   </si>
@@ -1087,75 +1089,75 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>deliveryCost</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>locationId</t>
+  </si>
+  <si>
+    <t>orderEntriesIds</t>
+  </si>
+  <si>
+    <t>totalCost</t>
+  </si>
+  <si>
+    <t>paymentCost</t>
+  </si>
+  <si>
     <t>status</t>
   </si>
   <si>
     <t>paymentMethod</t>
   </si>
   <si>
-    <t>locationId</t>
-  </si>
-  <si>
-    <t>paymentCost</t>
+    <t>deliveryMethod</t>
   </si>
   <si>
     <t>clientId</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>deliveryLocationId</t>
   </si>
   <si>
-    <t>totalCost</t>
-  </si>
-  <si>
-    <t>orderEntriesIds</t>
-  </si>
-  <si>
-    <t>deliveryMethod</t>
-  </si>
-  <si>
-    <t>deliveryCost</t>
+    <t>orderStatus</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>creationTimestamp</t>
   </si>
   <si>
     <t>orderEntries</t>
   </si>
   <si>
+    <t>location</t>
+  </si>
+  <si>
     <t>deliveryLocation</t>
   </si>
   <si>
-    <t>orderStatus</t>
-  </si>
-  <si>
-    <t>client</t>
-  </si>
-  <si>
-    <t>creationTimestamp</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
     <t>totalPrice</t>
   </si>
   <si>
+    <t>orderIds</t>
+  </si>
+  <si>
+    <t>emailAddress</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
     <t>surname</t>
   </si>
   <si>
-    <t>emailAddress</t>
-  </si>
-  <si>
     <t>phoneNumber</t>
   </si>
   <si>
-    <t>orderIds</t>
-  </si>
-  <si>
     <t>orderRepository</t>
   </si>
   <si>
@@ -1168,132 +1170,132 @@
     <t>int[]</t>
   </si>
   <si>
+    <t>street</t>
+  </si>
+  <si>
     <t>postCode</t>
   </si>
   <si>
+    <t>deliveryOrdersIds</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
     <t>country</t>
   </si>
   <si>
-    <t>deliveryOrdersIds</t>
-  </si>
-  <si>
-    <t>street</t>
-  </si>
-  <si>
     <t>streetNumber</t>
   </si>
   <si>
     <t>flatNumber</t>
   </si>
   <si>
-    <t>city</t>
-  </si>
-  <si>
     <t>ORDER_NOT_FOUND_EXCEPTION_MESSAGE</t>
   </si>
   <si>
+    <t>ORDER_CONFLICT_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
+    <t>kafkaOrderProducer</t>
+  </si>
+  <si>
+    <t>rsqlParser</t>
+  </si>
+  <si>
+    <t>cz.jirutka.rsql.parser.RSQLParser</t>
+  </si>
+  <si>
+    <t>orderModelEntityMapper</t>
+  </si>
+  <si>
     <t>rsqlVisitor</t>
   </si>
   <si>
     <t>org.andante.rsql.PersistentRSQLVisitor</t>
   </si>
   <si>
-    <t>kafkaOrderProducer</t>
-  </si>
-  <si>
-    <t>rsqlParser</t>
-  </si>
-  <si>
-    <t>cz.jirutka.rsql.parser.RSQLParser</t>
-  </si>
-  <si>
-    <t>orderModelEntityMapper</t>
-  </si>
-  <si>
-    <t>ORDER_CONFLICT_EXCEPTION_MESSAGE</t>
+    <t>orderOutput</t>
+  </si>
+  <si>
+    <t>quantity</t>
   </si>
   <si>
     <t>productVariantId</t>
   </si>
   <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>orderOutput</t>
-  </si>
-  <si>
     <t>paymentService</t>
   </si>
   <si>
+    <t>orderDTOModelMapper</t>
+  </si>
+  <si>
+    <t>ORDER_COMMUNICATION_MESSAGE</t>
+  </si>
+  <si>
+    <t>PRODUCT_VARIANT_NOT_FOUND_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
     <t>productClient</t>
   </si>
   <si>
-    <t>ORDER_COMMUNICATION_MESSAGE</t>
-  </si>
-  <si>
-    <t>orderDTOModelMapper</t>
-  </si>
-  <si>
-    <t>PRODUCT_VARIANT_NOT_FOUND_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
     <t>ORDER_PLACED_TITLE</t>
   </si>
   <si>
+    <t>ORDER_TEMPLATE</t>
+  </si>
+  <si>
+    <t>sender</t>
+  </si>
+  <si>
     <t>PDF_FILENAME</t>
   </si>
   <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>org.springframework.core.io.Resource</t>
+  </si>
+  <si>
+    <t>templateEngine</t>
+  </si>
+  <si>
+    <t>org.thymeleaf.TemplateEngine</t>
+  </si>
+  <si>
     <t>mailSender</t>
   </si>
   <si>
-    <t>logo</t>
-  </si>
-  <si>
-    <t>org.springframework.core.io.Resource</t>
-  </si>
-  <si>
-    <t>ORDER_TEMPLATE</t>
-  </si>
-  <si>
-    <t>templateEngine</t>
-  </si>
-  <si>
-    <t>org.thymeleaf.TemplateEngine</t>
-  </si>
-  <si>
-    <t>sender</t>
+    <t>NULL_IDENTIFIER_ERROR_MESSAGE</t>
   </si>
   <si>
     <t>orderEntryService</t>
   </si>
   <si>
+    <t>POSITIVE_IDENTIFIER_ERROR_MESSAGE</t>
+  </si>
+  <si>
     <t>orderEntryDTOModelMapper</t>
   </si>
   <si>
-    <t>NULL_IDENTIFIER_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>POSITIVE_IDENTIFIER_ERROR_MESSAGE</t>
+    <t>port</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>smtpAuth</t>
+  </si>
+  <si>
+    <t>enableStartTLS</t>
+  </si>
+  <si>
+    <t>username</t>
   </si>
   <si>
     <t>host</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>enableStartTLS</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>port</t>
-  </si>
-  <si>
-    <t>smtpAuth</t>
-  </si>
-  <si>
     <t>orderId</t>
   </si>
   <si>
@@ -1303,36 +1305,36 @@
     <t>userDTOModelMapper</t>
   </si>
   <si>
+    <t>ORDER_ID</t>
+  </si>
+  <si>
     <t>STRIPE_SUCCEEDED_INTENT</t>
   </si>
   <si>
+    <t>orderService</t>
+  </si>
+  <si>
     <t>privateKey</t>
   </si>
   <si>
-    <t>orderService</t>
-  </si>
-  <si>
-    <t>ORDER_ID</t>
-  </si>
-  <si>
     <t>STRIPE_HEADER</t>
   </si>
   <si>
     <t>webhookSecret</t>
   </si>
   <si>
+    <t>USER_NOT_FOUND_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
+    <t>clientRepository</t>
+  </si>
+  <si>
+    <t>USER_CONFLICT_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
     <t>userModelEntityMapper</t>
   </si>
   <si>
-    <t>clientRepository</t>
-  </si>
-  <si>
-    <t>USER_CONFLICT_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
-    <t>USER_NOT_FOUND_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
     <t>kafkaProductOrderEventTemplate</t>
   </si>
   <si>
@@ -1351,30 +1353,30 @@
     <t>KB</t>
   </si>
   <si>
+    <t>deliveryOrders</t>
+  </si>
+  <si>
     <t>orders</t>
   </si>
   <si>
-    <t>deliveryOrders</t>
+    <t>orderEntryRepository</t>
+  </si>
+  <si>
+    <t>LOCATION_NOT_FOUND_EXCEPTION_MESSAGE</t>
   </si>
   <si>
     <t>ORDER_INTERNAL_PROBLEM_MESSAGE</t>
   </si>
   <si>
+    <t>CLIENT_NOT_FOUND_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
+    <t>locationRepository</t>
+  </si>
+  <si>
     <t>locationModelEntityMapper</t>
   </si>
   <si>
-    <t>orderEntryRepository</t>
-  </si>
-  <si>
-    <t>LOCATION_NOT_FOUND_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
-    <t>CLIENT_NOT_FOUND_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
-    <t>locationRepository</t>
-  </si>
-  <si>
     <t>order</t>
   </si>
   <si>
@@ -1384,57 +1386,57 @@
     <t>LOCATION_CONFLICT_EXCEPTION_MESSAGE</t>
   </si>
   <si>
+    <t>ORDER_STATUS_NULL_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>PAGE_NEGATIVE_ERROR_MESSAGE</t>
+  </si>
+  <si>
     <t>PAGE_SIZE_NON_POSITIVE_ERROR_MESSAGE</t>
   </si>
   <si>
+    <t>PAGE_NULL_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>PAGE_SIZE_NULL_ERROR_MESSAGE</t>
+  </si>
+  <si>
     <t>EMAIL_NULL_ERROR_MESSAGE</t>
   </si>
   <si>
-    <t>ORDER_STATUS_NULL_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>PAGE_SIZE_NULL_ERROR_MESSAGE</t>
+    <t>ORDER_SORTING_ORDER_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>IDENTIFIERS_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>emailSender</t>
   </si>
   <si>
     <t>EMAIL_INVALID_ERROR_MESSAGE</t>
   </si>
   <si>
-    <t>ORDER_SORTING_ORDER_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>PAGE_NULL_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>emailSender</t>
-  </si>
-  <si>
-    <t>IDENTIFIERS_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>PAGE_NEGATIVE_ERROR_MESSAGE</t>
-  </si>
-  <si>
     <t>locationDTOModelMapper</t>
   </si>
   <si>
     <t>locationService</t>
   </si>
   <si>
+    <t>productOrderValidator</t>
+  </si>
+  <si>
+    <t>orderEntryModelEntityMapper</t>
+  </si>
+  <si>
+    <t>ORDER_ENTRY_NOT_FOUND_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
+    <t>ORDER_ENTRY_CONFLICT_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
     <t>ORDER_ENTRIES_CONFLICT_EXCEPTION_MESSAGE</t>
   </si>
   <si>
-    <t>productOrderValidator</t>
-  </si>
-  <si>
-    <t>ORDER_ENTRY_CONFLICT_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
-    <t>orderEntryModelEntityMapper</t>
-  </si>
-  <si>
-    <t>ORDER_ENTRY_NOT_FOUND_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -1505,6 +1507,144 @@
   </si>
   <si>
     <t>Target Field Name</t>
+  </si>
+  <si>
+    <t>Number of Lines</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>382</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>27</t>
   </si>
 </sst>
 </file>
@@ -15210,6 +15350,5432 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>536</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C448"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B102" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B107" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B110" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B111" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C111" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B112" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C112" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B113" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="C113" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B114" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="C114" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B115" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C115" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B116" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C116" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B117" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C117" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B118" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C118" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B119" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="C119" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B120" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="C120" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B121" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="C121" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B122" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C122" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B123" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C123" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B124" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C124" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B125" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="C125" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B126" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="C126" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B127" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C127" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B128" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C128" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B129" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C129" t="s" s="0">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B130" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C130" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B131" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="C131" t="s" s="0">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B132" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C132" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B133" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="C133" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B134" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="C134" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B135" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C135" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B136" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="C136" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B137" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="C137" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B138" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="C138" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B139" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C139" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B140" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="C140" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B141" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C141" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B142" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C142" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B143" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C143" t="s" s="0">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B144" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="C144" t="s" s="0">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B145" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="C145" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B146" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="C146" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B147" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="C147" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B148" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C148" t="s" s="0">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B149" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="C149" t="s" s="0">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B150" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="C150" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B151" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="C151" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B152" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="C152" t="s" s="0">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="C153" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B154" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C154" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B155" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C155" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B156" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="C156" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B157" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="C157" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B158" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="C158" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B159" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C159" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B160" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="C160" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B161" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="C161" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B162" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="C162" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B163" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C163" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B164" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C164" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B165" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C165" t="s" s="0">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B166" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C166" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="B167" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="C167" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="B168" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="C168" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="B169" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="C169" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="B170" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="C170" t="s" s="0">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="B171" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="C171" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="B172" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="C172" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="B173" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="C173" t="s" s="0">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="C174" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="C175" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="B176" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="C176" t="s" s="0">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="B177" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C177" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="B178" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C178" t="s" s="0">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="B179" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="C179" t="s" s="0">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="B180" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C180" t="s" s="0">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="B181" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="C181" t="s" s="0">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="B182" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C182" t="s" s="0">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="B183" t="s" s="0">
+        <v>492</v>
+      </c>
+      <c r="C183" t="s" s="0">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="B184" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="C184" t="s" s="0">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B185" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="C185" t="s" s="0">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="B186" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C186" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="B187" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="C187" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="B188" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="C188" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="B189" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="C189" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C190" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C191" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="B192" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C192" t="s" s="0">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="B193" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="C193" t="s" s="0">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="C194" t="s" s="0">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C195" t="s" s="0">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="B196" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="C196" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B197" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="C197" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B198" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="C198" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B199" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="C199" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B200" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="C200" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B201" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="C201" t="s" s="0">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B202" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="C202" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="C203" t="s" s="0">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="C204" t="s" s="0">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B205" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C205" t="s" s="0">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B206" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="C206" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="B207" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="C207" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="B208" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="C208" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="B209" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="C209" t="s" s="0">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="B210" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="C210" t="s" s="0">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="B211" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="C211" t="s" s="0">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="B212" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C212" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B213" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="C213" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B214" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="C214" t="s" s="0">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B215" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="C215" t="s" s="0">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B216" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="C216" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="C217" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B218" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="C218" t="s" s="0">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="B219" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C219" t="s" s="0">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="B220" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="C220" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="B221" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="C221" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="B222" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C222" t="s" s="0">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B223" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C223" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B224" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C224" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B225" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="C225" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B226" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C226" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B227" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="C227" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B228" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="C228" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B229" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="C229" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B230" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C230" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B231" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C231" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B232" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C232" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B233" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C233" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B234" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C234" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B235" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C235" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B236" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C236" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B237" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="C237" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B238" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="C238" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B239" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="C239" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B240" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C240" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B241" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C241" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B242" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="C242" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B243" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C243" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B244" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C244" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B245" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C245" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B246" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="C246" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B247" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="C247" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B248" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="C248" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B249" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="C249" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B250" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="C250" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B251" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="C251" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B252" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="C252" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B253" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="C253" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B254" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C254" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B255" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="C255" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B256" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="C256" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B257" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="C257" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B258" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="C258" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B259" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="C259" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B260" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="C260" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B261" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="C261" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B262" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="C262" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B263" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C263" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B264" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C264" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B265" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C265" t="s" s="0">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B266" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C266" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="B267" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="C267" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="B268" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="C268" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="B269" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="C269" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="B270" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="C270" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="B271" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C271" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="B272" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C272" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B273" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="C273" t="s" s="0">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B274" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="C274" t="s" s="0">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B275" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="C275" t="s" s="0">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B276" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="C276" t="s" s="0">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B277" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C277" t="s" s="0">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B278" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="C278" t="s" s="0">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B279" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="C279" t="s" s="0">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B280" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="C280" t="s" s="0">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B281" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="C281" t="s" s="0">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B282" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C282" t="s" s="0">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B283" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="C283" t="s" s="0">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="B284" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="C284" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="B285" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="C285" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="B286" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="C286" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="B287" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="C287" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="B288" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="C288" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="B289" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="C289" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="B290" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="C290" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="B291" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C291" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="B292" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="C292" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="B293" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="C293" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="B294" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="C294" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="B295" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="C295" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="B296" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C296" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="B297" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="C297" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="B298" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="C298" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="B299" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="C299" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="B300" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C300" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="B301" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C301" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B302" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="C302" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B303" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C303" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B304" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C304" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B305" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="C305" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B306" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="C306" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B307" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="C307" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B308" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C308" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B309" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="C309" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B310" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C310" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B311" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="C311" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B312" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="C312" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B313" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="C313" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B314" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="C314" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B315" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="C315" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="B316" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="C316" t="s" s="0">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="B317" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="C317" t="s" s="0">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="B318" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="C318" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="B319" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="C319" t="s" s="0">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="B320" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="C320" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="B321" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="C321" t="s" s="0">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="B322" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="C322" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="B323" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="C323" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="B324" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="C324" t="s" s="0">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="B325" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="C325" t="s" s="0">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="B326" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="C326" t="s" s="0">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="B327" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C327" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="B328" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="C328" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="B329" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="C329" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="B330" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="C330" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="B331" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C331" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="B332" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C332" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="B333" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C333" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="B334" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="C334" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="B335" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="C335" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="B336" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="C336" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="B337" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C337" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="B338" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="C338" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="B339" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C339" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="B340" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C340" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B341" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C341" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B342" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C342" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B343" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="C343" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B344" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="C344" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B345" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="C345" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B346" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C346" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B347" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="C347" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B348" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="C348" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B349" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="C349" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B350" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C350" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B351" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C351" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B352" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C352" t="s" s="0">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B353" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C353" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="B354" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C354" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="B355" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="C355" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B356" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C356" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B357" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C357" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B358" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="C358" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B359" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="C359" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B360" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="C360" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B361" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="C361" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B362" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="C362" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B363" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="C363" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B364" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="C364" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B365" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="C365" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B366" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C366" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B367" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="C367" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B368" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="C368" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B369" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="C369" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B370" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="C370" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B371" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="C371" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B372" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="C372" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B373" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="C373" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B374" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="C374" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="B375" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="C375" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="B376" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="C376" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="B377" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C377" t="s" s="0">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="B378" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="C378" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="B379" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="C379" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="B380" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C380" t="s" s="0">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="B381" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="C381" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="B382" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="C382" t="s" s="0">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="B383" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="C383" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="B384" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="C384" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="B385" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C385" t="s" s="0">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="B386" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="C386" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="B387" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="C387" t="s" s="0">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="B388" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="C388" t="s" s="0">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="B389" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="C389" t="s" s="0">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="B390" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C390" t="s" s="0">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="B391" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="C391" t="s" s="0">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="B392" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="C392" t="s" s="0">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="B393" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="C393" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="B394" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="C394" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="B395" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C395" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="B396" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C396" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="B397" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="C397" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="B398" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="C398" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="B399" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="C399" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="B400" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C400" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="B401" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="C401" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="B402" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="C402" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="B403" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="C403" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="B404" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C404" t="s" s="0">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="B405" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="C405" t="s" s="0">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="B406" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="C406" t="s" s="0">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="B407" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C407" t="s" s="0">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="B408" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="C408" t="s" s="0">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B409" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C409" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B410" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C410" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B411" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C411" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B412" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C412" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B413" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C413" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B414" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="C414" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B415" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="C415" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B416" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="C416" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B417" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C417" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B418" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C418" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B419" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="C419" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B420" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="C420" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B421" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C421" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B422" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C422" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B423" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C423" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B424" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="C424" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B425" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="C425" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B426" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="C426" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B427" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="C427" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B428" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C428" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B429" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C429" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B430" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="C430" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B431" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="C431" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B432" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C432" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B433" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C433" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B434" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C434" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B435" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C435" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="B436" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="C436" t="s" s="0">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="B437" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="C437" t="s" s="0">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="B438" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="C438" t="s" s="0">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="B439" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C439" t="s" s="0">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="B440" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="C440" t="s" s="0">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="B441" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C441" t="s" s="0">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="B442" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C442" t="s" s="0">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="B443" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C443" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="B444" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C444" t="s" s="0">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="B445" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C445" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="B446" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C446" t="s" s="0">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="B447" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="C447" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="B448" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="C448" t="s" s="0">
+        <v>527</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D26"/>
@@ -15620,7 +21186,7 @@
         <v>73</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -15634,7 +21200,7 @@
         <v>73</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
@@ -15662,7 +21228,7 @@
         <v>73</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -15676,7 +21242,7 @@
         <v>73</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>53</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7">
@@ -15690,7 +21256,7 @@
         <v>73</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
@@ -15704,7 +21270,7 @@
         <v>73</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
@@ -15718,7 +21284,7 @@
         <v>73</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>132</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -15732,7 +21298,7 @@
         <v>73</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -15746,7 +21312,7 @@
         <v>73</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
@@ -15760,7 +21326,7 @@
         <v>73</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
@@ -15768,13 +21334,13 @@
         <v>47</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
@@ -15782,13 +21348,13 @@
         <v>47</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15">
@@ -15802,7 +21368,7 @@
         <v>73</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>51</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
@@ -15810,13 +21376,13 @@
         <v>47</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
@@ -15824,13 +21390,13 @@
         <v>47</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
@@ -15844,7 +21410,7 @@
         <v>73</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
@@ -15852,13 +21418,13 @@
         <v>47</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
@@ -15866,13 +21432,13 @@
         <v>47</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -15880,13 +21446,13 @@
         <v>47</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
@@ -15894,13 +21460,13 @@
         <v>47</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23">
@@ -15908,7 +21474,7 @@
         <v>47</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>73</v>
@@ -15922,13 +21488,13 @@
         <v>95</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>59</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25">
@@ -15936,13 +21502,13 @@
         <v>95</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26">
@@ -15950,13 +21516,13 @@
         <v>95</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>111</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
@@ -15964,13 +21530,13 @@
         <v>95</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28">
@@ -15978,7 +21544,7 @@
         <v>95</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>73</v>
@@ -15992,13 +21558,13 @@
         <v>95</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30">
@@ -16006,7 +21572,7 @@
         <v>95</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>73</v>
@@ -16020,13 +21586,13 @@
         <v>95</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>132</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32">
@@ -16034,13 +21600,13 @@
         <v>95</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>70</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33">
@@ -16048,13 +21614,13 @@
         <v>95</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
@@ -16062,13 +21628,13 @@
         <v>95</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>63</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35">
@@ -16076,13 +21642,13 @@
         <v>95</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>125</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36">
@@ -16096,7 +21662,7 @@
         <v>73</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
@@ -16118,13 +21684,13 @@
         <v>102</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39">
@@ -16132,13 +21698,13 @@
         <v>102</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40">
@@ -16166,7 +21732,7 @@
         <v>73</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42">
@@ -16174,13 +21740,13 @@
         <v>105</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43">
@@ -16188,13 +21754,13 @@
         <v>105</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44">
@@ -16202,7 +21768,7 @@
         <v>105</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>73</v>
@@ -16216,13 +21782,13 @@
         <v>105</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46">
@@ -16244,13 +21810,13 @@
         <v>105</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48">
@@ -16272,13 +21838,13 @@
         <v>98</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50">
@@ -16286,13 +21852,13 @@
         <v>98</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51">
@@ -16300,13 +21866,13 @@
         <v>98</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>78</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52">
@@ -16314,13 +21880,13 @@
         <v>98</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53">
@@ -16328,13 +21894,13 @@
         <v>98</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54">
@@ -16342,7 +21908,7 @@
         <v>98</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>73</v>
@@ -16356,13 +21922,13 @@
         <v>98</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>65</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56">
@@ -16370,13 +21936,13 @@
         <v>98</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57">
@@ -16384,13 +21950,13 @@
         <v>98</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>59</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58">
@@ -16398,7 +21964,7 @@
         <v>98</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>73</v>
@@ -16412,13 +21978,13 @@
         <v>98</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>111</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60">
@@ -16426,13 +21992,13 @@
         <v>98</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>125</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61">
@@ -16454,13 +22020,13 @@
         <v>144</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63">
@@ -16468,7 +22034,7 @@
         <v>144</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>73</v>
@@ -16482,13 +22048,13 @@
         <v>144</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65">
@@ -16496,13 +22062,13 @@
         <v>144</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66">
@@ -16510,13 +22076,13 @@
         <v>144</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67">
@@ -16524,13 +22090,13 @@
         <v>144</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68">
@@ -16558,7 +22124,7 @@
         <v>73</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70">
@@ -16572,7 +22138,7 @@
         <v>73</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71">
@@ -16614,7 +22180,7 @@
         <v>73</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>391</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74">
@@ -16622,7 +22188,7 @@
         <v>152</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>73</v>
@@ -16636,13 +22202,13 @@
         <v>152</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="76">
@@ -16650,7 +22216,7 @@
         <v>152</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>73</v>
@@ -16664,13 +22230,13 @@
         <v>152</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>23</v>
+        <v>396</v>
       </c>
     </row>
     <row r="78">
@@ -16684,7 +22250,7 @@
         <v>73</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>53</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79">
@@ -16692,7 +22258,7 @@
         <v>88</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>73</v>
@@ -16726,7 +22292,7 @@
         <v>73</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>98</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82">
@@ -16754,7 +22320,7 @@
         <v>73</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>277</v>
+        <v>311</v>
       </c>
     </row>
     <row r="84">
@@ -16782,7 +22348,7 @@
         <v>73</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>311</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86">
@@ -16796,7 +22362,7 @@
         <v>73</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>23</v>
+        <v>277</v>
       </c>
     </row>
     <row r="87">
@@ -16838,7 +22404,7 @@
         <v>73</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>188</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90">
@@ -16852,7 +22418,7 @@
         <v>73</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>409</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91">
@@ -16860,13 +22426,13 @@
         <v>184</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>23</v>
+        <v>410</v>
       </c>
     </row>
     <row r="92">
@@ -16894,7 +22460,7 @@
         <v>73</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>23</v>
+        <v>188</v>
       </c>
     </row>
     <row r="94">
@@ -16902,13 +22468,13 @@
         <v>335</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>245</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95">
@@ -16916,7 +22482,7 @@
         <v>335</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>73</v>
@@ -16930,13 +22496,13 @@
         <v>335</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>173</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97">
@@ -16944,13 +22510,13 @@
         <v>335</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>23</v>
+        <v>245</v>
       </c>
     </row>
     <row r="98">
@@ -16964,7 +22530,7 @@
         <v>73</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>23</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99">
@@ -16978,7 +22544,7 @@
         <v>73</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>23</v>
+        <v>166</v>
       </c>
     </row>
     <row r="100">
@@ -17034,7 +22600,7 @@
         <v>73</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>166</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104">
@@ -17070,7 +22636,7 @@
         <v>189</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>73</v>
@@ -17084,7 +22650,7 @@
         <v>189</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>360</v>
+        <v>424</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>73</v>
@@ -17098,7 +22664,7 @@
         <v>189</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>424</v>
+        <v>356</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>73</v>
@@ -17112,13 +22678,13 @@
         <v>202</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D109" t="s" s="0">
-        <v>141</v>
+        <v>279</v>
       </c>
     </row>
     <row r="110">
@@ -17126,13 +22692,13 @@
         <v>202</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>23</v>
+        <v>141</v>
       </c>
     </row>
     <row r="111">
@@ -17140,13 +22706,13 @@
         <v>202</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>279</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112">
@@ -17154,13 +22720,13 @@
         <v>338</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>193</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113">
@@ -17168,7 +22734,7 @@
         <v>338</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>73</v>
@@ -17182,13 +22748,13 @@
         <v>338</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>23</v>
+        <v>193</v>
       </c>
     </row>
     <row r="115">
@@ -17300,7 +22866,7 @@
         <v>73</v>
       </c>
       <c r="D122" t="s" s="0">
-        <v>297</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123">
@@ -17342,7 +22908,7 @@
         <v>73</v>
       </c>
       <c r="D125" t="s" s="0">
-        <v>23</v>
+        <v>297</v>
       </c>
     </row>
     <row r="126">
@@ -17350,13 +22916,13 @@
         <v>57</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D126" t="s" s="0">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="127">
@@ -17364,7 +22930,7 @@
         <v>57</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>73</v>
@@ -17384,7 +22950,7 @@
         <v>73</v>
       </c>
       <c r="D128" t="s" s="0">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="129">
@@ -17392,13 +22958,13 @@
         <v>57</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D129" t="s" s="0">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="130">
@@ -17406,13 +22972,13 @@
         <v>57</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D130" t="s" s="0">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="131">
@@ -17420,7 +22986,7 @@
         <v>57</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>73</v>
@@ -17434,13 +23000,13 @@
         <v>57</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="133">
@@ -17448,7 +23014,7 @@
         <v>57</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>73</v>
@@ -17462,13 +23028,13 @@
         <v>57</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="135">
@@ -17476,7 +23042,7 @@
         <v>57</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>73</v>
@@ -17496,7 +23062,7 @@
         <v>73</v>
       </c>
       <c r="D136" t="s" s="0">
-        <v>51</v>
+        <v>82</v>
       </c>
     </row>
     <row r="137">
@@ -17504,7 +23070,7 @@
         <v>172</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>397</v>
+        <v>356</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>73</v>
@@ -17518,13 +23084,13 @@
         <v>172</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D138" t="s" s="0">
-        <v>53</v>
+        <v>166</v>
       </c>
     </row>
     <row r="139">
@@ -17532,13 +23098,13 @@
         <v>172</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C139" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D139" t="s" s="0">
-        <v>166</v>
+        <v>98</v>
       </c>
     </row>
     <row r="140">
@@ -17552,7 +23118,7 @@
         <v>73</v>
       </c>
       <c r="D140" t="s" s="0">
-        <v>98</v>
+        <v>53</v>
       </c>
     </row>
     <row r="141">
@@ -17560,7 +23126,7 @@
         <v>125</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>73</v>
@@ -17574,13 +23140,13 @@
         <v>125</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
     <row r="143">
@@ -17588,13 +23154,13 @@
         <v>125</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="144">
@@ -17602,7 +23168,7 @@
         <v>125</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>73</v>
@@ -17616,13 +23182,13 @@
         <v>125</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
     <row r="146">
@@ -17630,7 +23196,7 @@
         <v>125</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>387</v>
+        <v>356</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>73</v>
@@ -17650,7 +23216,7 @@
         <v>73</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="148">
@@ -17658,13 +23224,13 @@
         <v>125</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D148" t="s" s="0">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149">
@@ -17672,13 +23238,13 @@
         <v>125</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C149" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D149" t="s" s="0">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="150">
@@ -17742,13 +23308,13 @@
         <v>252</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D154" t="s" s="0">
-        <v>277</v>
+        <v>23</v>
       </c>
     </row>
     <row r="155">
@@ -17756,13 +23322,13 @@
         <v>252</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D155" t="s" s="0">
-        <v>23</v>
+        <v>277</v>
       </c>
     </row>
     <row r="156">
@@ -17798,13 +23364,13 @@
         <v>270</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D158" t="s" s="0">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="159">
@@ -17812,7 +23378,7 @@
         <v>270</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C159" t="s" s="0">
         <v>73</v>
@@ -17826,13 +23392,13 @@
         <v>270</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D160" t="s" s="0">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="161">
@@ -17840,13 +23406,13 @@
         <v>270</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D161" t="s" s="0">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="162">
@@ -17854,13 +23420,13 @@
         <v>270</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D162" t="s" s="0">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="163">
@@ -17868,7 +23434,7 @@
         <v>270</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>73</v>
@@ -17910,7 +23476,7 @@
         <v>270</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>73</v>
@@ -17924,13 +23490,13 @@
         <v>82</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>443</v>
+        <v>356</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D167" t="s" s="0">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="168">
@@ -17938,13 +23504,13 @@
         <v>82</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D168" t="s" s="0">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="169">
@@ -17980,13 +23546,13 @@
         <v>82</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>376</v>
+        <v>444</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D171" t="s" s="0">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
     <row r="172">
@@ -17994,7 +23560,7 @@
         <v>82</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>73</v>
@@ -18014,7 +23580,7 @@
         <v>73</v>
       </c>
       <c r="D173" t="s" s="0">
-        <v>23</v>
+        <v>93</v>
       </c>
     </row>
     <row r="174">
@@ -18022,13 +23588,13 @@
         <v>279</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>401</v>
+        <v>434</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D174" t="s" s="0">
-        <v>277</v>
+        <v>215</v>
       </c>
     </row>
     <row r="175">
@@ -18042,7 +23608,7 @@
         <v>73</v>
       </c>
       <c r="D175" t="s" s="0">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="176">
@@ -18056,7 +23622,7 @@
         <v>73</v>
       </c>
       <c r="D176" t="s" s="0">
-        <v>93</v>
+        <v>23</v>
       </c>
     </row>
     <row r="177">
@@ -18064,13 +23630,13 @@
         <v>279</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="C177" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D177" t="s" s="0">
-        <v>215</v>
+        <v>23</v>
       </c>
     </row>
     <row r="178">
@@ -18078,7 +23644,7 @@
         <v>279</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>448</v>
+        <v>402</v>
       </c>
       <c r="C178" t="s" s="0">
         <v>73</v>
@@ -18092,13 +23658,13 @@
         <v>279</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>449</v>
+        <v>404</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D179" t="s" s="0">
-        <v>23</v>
+        <v>277</v>
       </c>
     </row>
     <row r="180">
@@ -18106,13 +23672,13 @@
         <v>279</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>402</v>
+        <v>449</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D180" t="s" s="0">
-        <v>23</v>
+        <v>139</v>
       </c>
     </row>
     <row r="181">
@@ -18126,7 +23692,7 @@
         <v>73</v>
       </c>
       <c r="D181" t="s" s="0">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="182">
@@ -18134,13 +23700,13 @@
         <v>292</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>360</v>
+        <v>451</v>
       </c>
       <c r="C182" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D182" t="s" s="0">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="183">
@@ -18148,13 +23714,13 @@
         <v>292</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C183" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D183" t="s" s="0">
-        <v>53</v>
+        <v>166</v>
       </c>
     </row>
     <row r="184">
@@ -18162,13 +23728,13 @@
         <v>292</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>451</v>
+        <v>356</v>
       </c>
       <c r="C184" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D184" t="s" s="0">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="185">
@@ -18176,13 +23742,13 @@
         <v>292</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C185" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D185" t="s" s="0">
-        <v>166</v>
+        <v>53</v>
       </c>
     </row>
     <row r="186">
@@ -18204,7 +23770,7 @@
         <v>275</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C187" t="s" s="0">
         <v>73</v>
@@ -18218,13 +23784,13 @@
         <v>275</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>374</v>
+        <v>444</v>
       </c>
       <c r="C188" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D188" t="s" s="0">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
     <row r="189">
@@ -18232,7 +23798,7 @@
         <v>275</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C189" t="s" s="0">
         <v>73</v>
@@ -18246,13 +23812,13 @@
         <v>275</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>443</v>
+        <v>375</v>
       </c>
       <c r="C190" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D190" t="s" s="0">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="191">
@@ -18260,7 +23826,7 @@
         <v>275</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C191" t="s" s="0">
         <v>73</v>
@@ -18274,7 +23840,7 @@
         <v>275</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C192" t="s" s="0">
         <v>73</v>
@@ -18288,7 +23854,7 @@
         <v>177</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="C193" t="s" s="0">
         <v>73</v>
@@ -18316,7 +23882,7 @@
         <v>177</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>360</v>
+        <v>424</v>
       </c>
       <c r="C195" t="s" s="0">
         <v>73</v>
@@ -18330,7 +23896,7 @@
         <v>177</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>397</v>
+        <v>356</v>
       </c>
       <c r="C196" t="s" s="0">
         <v>73</v>
@@ -18372,13 +23938,13 @@
         <v>51</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C199" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D199" t="s" s="0">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="200">
@@ -18386,13 +23952,13 @@
         <v>51</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>443</v>
+        <v>383</v>
       </c>
       <c r="C200" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D200" t="s" s="0">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="201">
@@ -18400,7 +23966,7 @@
         <v>51</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C201" t="s" s="0">
         <v>73</v>
@@ -18414,7 +23980,7 @@
         <v>51</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C202" t="s" s="0">
         <v>73</v>
@@ -18428,13 +23994,13 @@
         <v>51</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>386</v>
+        <v>356</v>
       </c>
       <c r="C203" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D203" t="s" s="0">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="204">
@@ -18442,7 +24008,7 @@
         <v>51</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C204" t="s" s="0">
         <v>73</v>
@@ -18456,13 +24022,13 @@
         <v>51</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C205" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D205" t="s" s="0">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="206">
@@ -18470,13 +24036,13 @@
         <v>51</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>360</v>
+        <v>443</v>
       </c>
       <c r="C206" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D206" t="s" s="0">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="207">
@@ -18484,13 +24050,13 @@
         <v>305</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>393</v>
+        <v>449</v>
       </c>
       <c r="C207" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D207" t="s" s="0">
-        <v>394</v>
+        <v>139</v>
       </c>
     </row>
     <row r="208">
@@ -18498,13 +24064,13 @@
         <v>305</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>446</v>
+        <v>392</v>
       </c>
       <c r="C208" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D208" t="s" s="0">
-        <v>123</v>
+        <v>393</v>
       </c>
     </row>
     <row r="209">
@@ -18512,13 +24078,13 @@
         <v>305</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>453</v>
+        <v>395</v>
       </c>
       <c r="C209" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D209" t="s" s="0">
-        <v>23</v>
+        <v>396</v>
       </c>
     </row>
     <row r="210">
@@ -18526,13 +24092,13 @@
         <v>305</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>390</v>
+        <v>453</v>
       </c>
       <c r="C210" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D210" t="s" s="0">
-        <v>391</v>
+        <v>23</v>
       </c>
     </row>
     <row r="211">
@@ -18540,13 +24106,13 @@
         <v>305</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C211" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D211" t="s" s="0">
-        <v>139</v>
+        <v>23</v>
       </c>
     </row>
     <row r="212">
@@ -18554,13 +24120,13 @@
         <v>305</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C212" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D212" t="s" s="0">
-        <v>23</v>
+        <v>123</v>
       </c>
     </row>
     <row r="213">
@@ -18568,7 +24134,7 @@
         <v>342</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C213" t="s" s="0">
         <v>73</v>
@@ -18582,7 +24148,7 @@
         <v>342</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="C214" t="s" s="0">
         <v>73</v>
@@ -18596,13 +24162,13 @@
         <v>342</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="C215" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D215" t="s" s="0">
-        <v>311</v>
+        <v>23</v>
       </c>
     </row>
     <row r="216">
@@ -18694,13 +24260,13 @@
         <v>342</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>461</v>
+        <v>429</v>
       </c>
       <c r="C222" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D222" t="s" s="0">
-        <v>184</v>
+        <v>258</v>
       </c>
     </row>
     <row r="223">
@@ -18708,7 +24274,7 @@
         <v>342</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>417</v>
+        <v>461</v>
       </c>
       <c r="C223" t="s" s="0">
         <v>73</v>
@@ -18722,13 +24288,13 @@
         <v>342</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>462</v>
+        <v>401</v>
       </c>
       <c r="C224" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D224" t="s" s="0">
-        <v>23</v>
+        <v>311</v>
       </c>
     </row>
     <row r="225">
@@ -18736,13 +24302,13 @@
         <v>342</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="C225" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D225" t="s" s="0">
-        <v>258</v>
+        <v>23</v>
       </c>
     </row>
     <row r="226">
@@ -18750,13 +24316,13 @@
         <v>342</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="C226" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D226" t="s" s="0">
-        <v>23</v>
+        <v>184</v>
       </c>
     </row>
     <row r="227">
@@ -18792,13 +24358,13 @@
         <v>209</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>451</v>
+        <v>398</v>
       </c>
       <c r="C229" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D229" t="s" s="0">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="230">
@@ -18806,13 +24372,13 @@
         <v>209</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>398</v>
+        <v>356</v>
       </c>
       <c r="C230" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D230" t="s" s="0">
-        <v>166</v>
+        <v>53</v>
       </c>
     </row>
     <row r="231">
@@ -18820,13 +24386,13 @@
         <v>209</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>397</v>
+        <v>451</v>
       </c>
       <c r="C231" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D231" t="s" s="0">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="232">
@@ -18834,7 +24400,7 @@
         <v>209</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="C232" t="s" s="0">
         <v>73</v>
@@ -18848,13 +24414,13 @@
         <v>29</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C233" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D233" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="234">
@@ -18862,13 +24428,13 @@
         <v>29</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C234" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D234" t="s" s="0">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="235">
@@ -18876,13 +24442,13 @@
         <v>29</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C235" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D235" t="s" s="0">
-        <v>132</v>
+        <v>59</v>
       </c>
     </row>
     <row r="236">
@@ -18890,13 +24456,13 @@
         <v>29</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C236" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D236" t="s" s="0">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="237">
@@ -18904,13 +24470,13 @@
         <v>29</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="C237" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D237" t="s" s="0">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="238">
@@ -18918,13 +24484,13 @@
         <v>29</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C238" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D238" t="s" s="0">
-        <v>70</v>
+        <v>132</v>
       </c>
     </row>
     <row r="239">
@@ -18932,7 +24498,7 @@
         <v>29</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C239" t="s" s="0">
         <v>73</v>
@@ -18946,13 +24512,13 @@
         <v>29</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C240" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D240" t="s" s="0">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="241">
@@ -18960,7 +24526,7 @@
         <v>29</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C241" t="s" s="0">
         <v>73</v>
@@ -18974,7 +24540,7 @@
         <v>29</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C242" t="s" s="0">
         <v>73</v>
@@ -18988,13 +24554,13 @@
         <v>29</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C243" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D243" t="s" s="0">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="244">
@@ -19002,13 +24568,13 @@
         <v>348</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C244" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D244" t="s" s="0">
-        <v>302</v>
+        <v>317</v>
       </c>
     </row>
     <row r="245">
@@ -19016,13 +24582,13 @@
         <v>348</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C245" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D245" t="s" s="0">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="246">
@@ -19030,7 +24596,7 @@
         <v>348</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C246" t="s" s="0">
         <v>73</v>
@@ -19064,7 +24630,7 @@
         <v>73</v>
       </c>
       <c r="D248" t="s" s="0">
-        <v>23</v>
+        <v>252</v>
       </c>
     </row>
     <row r="249">
@@ -19078,7 +24644,7 @@
         <v>73</v>
       </c>
       <c r="D249" t="s" s="0">
-        <v>252</v>
+        <v>202</v>
       </c>
     </row>
     <row r="250">
@@ -19086,13 +24652,13 @@
         <v>326</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="C250" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D250" t="s" s="0">
-        <v>23</v>
+        <v>93</v>
       </c>
     </row>
     <row r="251">
@@ -19100,13 +24666,13 @@
         <v>326</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C251" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D251" t="s" s="0">
-        <v>202</v>
+        <v>23</v>
       </c>
     </row>
     <row r="252">
@@ -19114,13 +24680,13 @@
         <v>326</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>470</v>
+        <v>391</v>
       </c>
       <c r="C252" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D252" t="s" s="0">
-        <v>23</v>
+        <v>245</v>
       </c>
     </row>
     <row r="253">
@@ -19128,13 +24694,13 @@
         <v>326</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="C253" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D253" t="s" s="0">
-        <v>93</v>
+        <v>23</v>
       </c>
     </row>
     <row r="254">
@@ -19142,13 +24708,13 @@
         <v>326</v>
       </c>
       <c r="B254" t="s" s="0">
-        <v>392</v>
+        <v>470</v>
       </c>
       <c r="C254" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D254" t="s" s="0">
-        <v>245</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -29716,7 +35282,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>476</v>
@@ -29733,7 +35299,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>476</v>
@@ -29750,7 +35316,7 @@
         <v>20</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>476</v>
@@ -29767,7 +35333,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>476</v>
@@ -29784,7 +35350,7 @@
         <v>20</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>476</v>
@@ -29801,7 +35367,7 @@
         <v>20</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>476</v>
@@ -29835,7 +35401,7 @@
         <v>20</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>476</v>
@@ -29852,7 +35418,7 @@
         <v>20</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>476</v>
@@ -29869,7 +35435,7 @@
         <v>20</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E11" t="s" s="0">
         <v>476</v>
@@ -29886,7 +35452,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E12" t="s" s="0">
         <v>476</v>
@@ -29903,7 +35469,7 @@
         <v>20</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="E13" t="s" s="0">
         <v>476</v>
@@ -29920,7 +35486,7 @@
         <v>20</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E14" t="s" s="0">
         <v>476</v>
@@ -29937,7 +35503,7 @@
         <v>20</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E15" t="s" s="0">
         <v>476</v>
@@ -29971,7 +35537,7 @@
         <v>20</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E17" t="s" s="0">
         <v>476</v>
@@ -30005,7 +35571,7 @@
         <v>20</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E19" t="s" s="0">
         <v>476</v>
@@ -30022,7 +35588,7 @@
         <v>20</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E20" t="s" s="0">
         <v>476</v>
@@ -30039,7 +35605,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E21" t="s" s="0">
         <v>476</v>
@@ -30056,7 +35622,7 @@
         <v>20</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E22" t="s" s="0">
         <v>476</v>
@@ -30090,7 +35656,7 @@
         <v>20</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E24" t="s" s="0">
         <v>476</v>
@@ -30107,7 +35673,7 @@
         <v>20</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="E25" t="s" s="0">
         <v>476</v>

--- a/data/backend/order-service_structure.xlsx
+++ b/data/backend/order-service_structure.xlsx
@@ -1089,75 +1089,75 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>orderEntriesIds</t>
+  </si>
+  <si>
+    <t>locationId</t>
+  </si>
+  <si>
+    <t>clientId</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>paymentCost</t>
+  </si>
+  <si>
     <t>deliveryCost</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>locationId</t>
-  </si>
-  <si>
-    <t>orderEntriesIds</t>
+    <t>status</t>
+  </si>
+  <si>
+    <t>deliveryLocationId</t>
+  </si>
+  <si>
+    <t>paymentMethod</t>
   </si>
   <si>
     <t>totalCost</t>
   </si>
   <si>
-    <t>paymentCost</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>paymentMethod</t>
-  </si>
-  <si>
     <t>deliveryMethod</t>
   </si>
   <si>
-    <t>clientId</t>
-  </si>
-  <si>
-    <t>deliveryLocationId</t>
-  </si>
-  <si>
     <t>orderStatus</t>
   </si>
   <si>
+    <t>orderEntries</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>deliveryLocation</t>
+  </si>
+  <si>
+    <t>creationTimestamp</t>
+  </si>
+  <si>
     <t>client</t>
   </si>
   <si>
-    <t>creationTimestamp</t>
-  </si>
-  <si>
-    <t>orderEntries</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>deliveryLocation</t>
-  </si>
-  <si>
     <t>totalPrice</t>
   </si>
   <si>
+    <t>emailAddress</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
     <t>orderIds</t>
   </si>
   <si>
-    <t>emailAddress</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>surname</t>
-  </si>
-  <si>
-    <t>phoneNumber</t>
-  </si>
-  <si>
     <t>orderRepository</t>
   </si>
   <si>
@@ -1170,6 +1170,15 @@
     <t>int[]</t>
   </si>
   <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>flatNumber</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
     <t>street</t>
   </si>
   <si>
@@ -1179,42 +1188,33 @@
     <t>deliveryOrdersIds</t>
   </si>
   <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
     <t>streetNumber</t>
   </si>
   <si>
-    <t>flatNumber</t>
+    <t>rsqlParser</t>
+  </si>
+  <si>
+    <t>cz.jirutka.rsql.parser.RSQLParser</t>
+  </si>
+  <si>
+    <t>ORDER_CONFLICT_EXCEPTION_MESSAGE</t>
   </si>
   <si>
     <t>ORDER_NOT_FOUND_EXCEPTION_MESSAGE</t>
   </si>
   <si>
-    <t>ORDER_CONFLICT_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
     <t>kafkaOrderProducer</t>
   </si>
   <si>
-    <t>rsqlParser</t>
-  </si>
-  <si>
-    <t>cz.jirutka.rsql.parser.RSQLParser</t>
+    <t>rsqlVisitor</t>
+  </si>
+  <si>
+    <t>org.andante.rsql.PersistentRSQLVisitor</t>
   </si>
   <si>
     <t>orderModelEntityMapper</t>
   </si>
   <si>
-    <t>rsqlVisitor</t>
-  </si>
-  <si>
-    <t>org.andante.rsql.PersistentRSQLVisitor</t>
-  </si>
-  <si>
     <t>orderOutput</t>
   </si>
   <si>
@@ -1227,51 +1227,51 @@
     <t>paymentService</t>
   </si>
   <si>
+    <t>productClient</t>
+  </si>
+  <si>
+    <t>ORDER_COMMUNICATION_MESSAGE</t>
+  </si>
+  <si>
     <t>orderDTOModelMapper</t>
   </si>
   <si>
-    <t>ORDER_COMMUNICATION_MESSAGE</t>
-  </si>
-  <si>
     <t>PRODUCT_VARIANT_NOT_FOUND_EXCEPTION_MESSAGE</t>
   </si>
   <si>
-    <t>productClient</t>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>org.springframework.core.io.Resource</t>
+  </si>
+  <si>
+    <t>sender</t>
+  </si>
+  <si>
+    <t>templateEngine</t>
+  </si>
+  <si>
+    <t>org.thymeleaf.TemplateEngine</t>
+  </si>
+  <si>
+    <t>ORDER_TEMPLATE</t>
   </si>
   <si>
     <t>ORDER_PLACED_TITLE</t>
   </si>
   <si>
-    <t>ORDER_TEMPLATE</t>
-  </si>
-  <si>
-    <t>sender</t>
+    <t>mailSender</t>
   </si>
   <si>
     <t>PDF_FILENAME</t>
   </si>
   <si>
-    <t>logo</t>
-  </si>
-  <si>
-    <t>org.springframework.core.io.Resource</t>
-  </si>
-  <si>
-    <t>templateEngine</t>
-  </si>
-  <si>
-    <t>org.thymeleaf.TemplateEngine</t>
-  </si>
-  <si>
-    <t>mailSender</t>
+    <t>orderEntryService</t>
   </si>
   <si>
     <t>NULL_IDENTIFIER_ERROR_MESSAGE</t>
   </si>
   <si>
-    <t>orderEntryService</t>
-  </si>
-  <si>
     <t>POSITIVE_IDENTIFIER_ERROR_MESSAGE</t>
   </si>
   <si>
@@ -1287,15 +1287,15 @@
     <t>smtpAuth</t>
   </si>
   <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
     <t>enableStartTLS</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>host</t>
-  </si>
-  <si>
     <t>orderId</t>
   </si>
   <si>
@@ -1308,45 +1308,45 @@
     <t>ORDER_ID</t>
   </si>
   <si>
+    <t>orderService</t>
+  </si>
+  <si>
+    <t>privateKey</t>
+  </si>
+  <si>
     <t>STRIPE_SUCCEEDED_INTENT</t>
   </si>
   <si>
-    <t>orderService</t>
-  </si>
-  <si>
-    <t>privateKey</t>
+    <t>webhookSecret</t>
   </si>
   <si>
     <t>STRIPE_HEADER</t>
   </si>
   <si>
-    <t>webhookSecret</t>
+    <t>clientRepository</t>
+  </si>
+  <si>
+    <t>USER_CONFLICT_EXCEPTION_MESSAGE</t>
   </si>
   <si>
     <t>USER_NOT_FOUND_EXCEPTION_MESSAGE</t>
   </si>
   <si>
-    <t>clientRepository</t>
-  </si>
-  <si>
-    <t>USER_CONFLICT_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
     <t>userModelEntityMapper</t>
   </si>
   <si>
     <t>kafkaProductOrderEventTemplate</t>
   </si>
   <si>
+    <t>kafkaOrderEventTemplate</t>
+  </si>
+  <si>
     <t>kafkaOrderEntryEventTemplate</t>
   </si>
   <si>
     <t>SEPARATOR</t>
   </si>
   <si>
-    <t>kafkaOrderEventTemplate</t>
-  </si>
-  <si>
     <t>bootstrapServers</t>
   </si>
   <si>
@@ -1359,24 +1359,24 @@
     <t>orders</t>
   </si>
   <si>
+    <t>LOCATION_NOT_FOUND_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
+    <t>ORDER_INTERNAL_PROBLEM_MESSAGE</t>
+  </si>
+  <si>
+    <t>locationRepository</t>
+  </si>
+  <si>
+    <t>locationModelEntityMapper</t>
+  </si>
+  <si>
+    <t>CLIENT_NOT_FOUND_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
     <t>orderEntryRepository</t>
   </si>
   <si>
-    <t>LOCATION_NOT_FOUND_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
-    <t>ORDER_INTERNAL_PROBLEM_MESSAGE</t>
-  </si>
-  <si>
-    <t>CLIENT_NOT_FOUND_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
-    <t>locationRepository</t>
-  </si>
-  <si>
-    <t>locationModelEntityMapper</t>
-  </si>
-  <si>
     <t>order</t>
   </si>
   <si>
@@ -1389,27 +1389,27 @@
     <t>ORDER_STATUS_NULL_ERROR_MESSAGE</t>
   </si>
   <si>
+    <t>EMAIL_NULL_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>PAGE_SIZE_NULL_ERROR_MESSAGE</t>
+  </si>
+  <si>
     <t>PAGE_NEGATIVE_ERROR_MESSAGE</t>
   </si>
   <si>
     <t>PAGE_SIZE_NON_POSITIVE_ERROR_MESSAGE</t>
   </si>
   <si>
+    <t>ORDER_SORTING_ORDER_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>IDENTIFIERS_ERROR_MESSAGE</t>
+  </si>
+  <si>
     <t>PAGE_NULL_ERROR_MESSAGE</t>
   </si>
   <si>
-    <t>PAGE_SIZE_NULL_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>EMAIL_NULL_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>ORDER_SORTING_ORDER_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>IDENTIFIERS_ERROR_MESSAGE</t>
-  </si>
-  <si>
     <t>emailSender</t>
   </si>
   <si>
@@ -1422,19 +1422,19 @@
     <t>locationService</t>
   </si>
   <si>
+    <t>ORDER_ENTRY_CONFLICT_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
+    <t>orderEntryModelEntityMapper</t>
+  </si>
+  <si>
     <t>productOrderValidator</t>
   </si>
   <si>
-    <t>orderEntryModelEntityMapper</t>
+    <t>ORDER_ENTRIES_CONFLICT_EXCEPTION_MESSAGE</t>
   </si>
   <si>
     <t>ORDER_ENTRY_NOT_FOUND_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
-    <t>ORDER_ENTRY_CONFLICT_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
-    <t>ORDER_ENTRIES_CONFLICT_EXCEPTION_MESSAGE</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -21186,7 +21186,7 @@
         <v>73</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -21228,7 +21228,7 @@
         <v>73</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
@@ -21242,7 +21242,7 @@
         <v>73</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>132</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
@@ -21284,7 +21284,7 @@
         <v>73</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -21298,7 +21298,7 @@
         <v>73</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
@@ -21312,7 +21312,7 @@
         <v>73</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>53</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
@@ -21326,7 +21326,7 @@
         <v>73</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -21334,13 +21334,13 @@
         <v>47</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
@@ -21348,13 +21348,13 @@
         <v>47</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
@@ -21362,13 +21362,13 @@
         <v>47</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>82</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
@@ -21376,13 +21376,13 @@
         <v>47</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17">
@@ -21390,13 +21390,13 @@
         <v>47</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
@@ -21410,7 +21410,7 @@
         <v>73</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>78</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
@@ -21418,13 +21418,13 @@
         <v>47</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
@@ -21432,13 +21432,13 @@
         <v>47</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -21446,13 +21446,13 @@
         <v>47</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
@@ -21460,13 +21460,13 @@
         <v>47</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23">
@@ -21474,13 +21474,13 @@
         <v>47</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
@@ -21488,13 +21488,13 @@
         <v>95</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>132</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25">
@@ -21502,13 +21502,13 @@
         <v>95</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>59</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26">
@@ -21516,13 +21516,13 @@
         <v>95</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27">
@@ -21530,13 +21530,13 @@
         <v>95</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>53</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28">
@@ -21544,13 +21544,13 @@
         <v>95</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>125</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
@@ -21558,13 +21558,13 @@
         <v>95</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30">
@@ -21572,13 +21572,13 @@
         <v>95</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
@@ -21586,7 +21586,7 @@
         <v>95</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>73</v>
@@ -21600,13 +21600,13 @@
         <v>95</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
@@ -21614,13 +21614,13 @@
         <v>95</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>78</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34">
@@ -21628,13 +21628,13 @@
         <v>95</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35">
@@ -21642,13 +21642,13 @@
         <v>95</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36">
@@ -21662,7 +21662,7 @@
         <v>73</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
@@ -21684,7 +21684,7 @@
         <v>102</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>73</v>
@@ -21732,7 +21732,7 @@
         <v>73</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42">
@@ -21740,13 +21740,13 @@
         <v>105</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43">
@@ -21754,13 +21754,13 @@
         <v>105</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44">
@@ -21768,7 +21768,7 @@
         <v>105</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>73</v>
@@ -21782,13 +21782,13 @@
         <v>105</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46">
@@ -21796,7 +21796,7 @@
         <v>105</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>73</v>
@@ -21810,13 +21810,13 @@
         <v>105</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
@@ -21838,7 +21838,7 @@
         <v>98</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>73</v>
@@ -21852,7 +21852,7 @@
         <v>98</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>73</v>
@@ -21866,13 +21866,13 @@
         <v>98</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>59</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52">
@@ -21880,13 +21880,13 @@
         <v>98</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53">
@@ -21894,7 +21894,7 @@
         <v>98</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>73</v>
@@ -21908,13 +21908,13 @@
         <v>98</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>70</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55">
@@ -21922,13 +21922,13 @@
         <v>98</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>125</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56">
@@ -21936,13 +21936,13 @@
         <v>98</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57">
@@ -21950,13 +21950,13 @@
         <v>98</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58">
@@ -21970,7 +21970,7 @@
         <v>73</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>125</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59">
@@ -21978,13 +21978,13 @@
         <v>98</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60">
@@ -21992,13 +21992,13 @@
         <v>98</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61">
@@ -22020,13 +22020,13 @@
         <v>144</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63">
@@ -22034,13 +22034,13 @@
         <v>144</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64">
@@ -22048,13 +22048,13 @@
         <v>144</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65">
@@ -22062,13 +22062,13 @@
         <v>144</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66">
@@ -22076,7 +22076,7 @@
         <v>144</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>73</v>
@@ -22090,13 +22090,13 @@
         <v>144</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68">
@@ -22124,7 +22124,7 @@
         <v>73</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70">
@@ -22138,7 +22138,7 @@
         <v>73</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
@@ -22152,7 +22152,7 @@
         <v>73</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>23</v>
+        <v>390</v>
       </c>
     </row>
     <row r="72">
@@ -22160,13 +22160,13 @@
         <v>152</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>141</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73">
@@ -22174,7 +22174,7 @@
         <v>152</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>73</v>
@@ -22188,13 +22188,13 @@
         <v>152</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>245</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75">
@@ -22202,13 +22202,13 @@
         <v>152</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>393</v>
+        <v>245</v>
       </c>
     </row>
     <row r="76">
@@ -22222,7 +22222,7 @@
         <v>73</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>279</v>
+        <v>395</v>
       </c>
     </row>
     <row r="77">
@@ -22230,13 +22230,13 @@
         <v>152</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>396</v>
+        <v>279</v>
       </c>
     </row>
     <row r="78">
@@ -22258,13 +22258,13 @@
         <v>88</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>53</v>
+        <v>166</v>
       </c>
     </row>
     <row r="80">
@@ -22272,13 +22272,13 @@
         <v>88</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>166</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81">
@@ -22286,7 +22286,7 @@
         <v>88</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>399</v>
+        <v>358</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>73</v>
@@ -22320,7 +22320,7 @@
         <v>73</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>311</v>
+        <v>277</v>
       </c>
     </row>
     <row r="84">
@@ -22348,7 +22348,7 @@
         <v>73</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>23</v>
+        <v>311</v>
       </c>
     </row>
     <row r="86">
@@ -22362,7 +22362,7 @@
         <v>73</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>277</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87">
@@ -22376,7 +22376,7 @@
         <v>73</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>23</v>
+        <v>406</v>
       </c>
     </row>
     <row r="88">
@@ -22384,7 +22384,7 @@
         <v>184</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>73</v>
@@ -22398,13 +22398,13 @@
         <v>184</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>23</v>
+        <v>409</v>
       </c>
     </row>
     <row r="90">
@@ -22412,7 +22412,7 @@
         <v>184</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>73</v>
@@ -22426,13 +22426,13 @@
         <v>184</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>410</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92">
@@ -22440,13 +22440,13 @@
         <v>184</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>412</v>
+        <v>188</v>
       </c>
     </row>
     <row r="93">
@@ -22460,7 +22460,7 @@
         <v>73</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>188</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94">
@@ -22474,7 +22474,7 @@
         <v>73</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95">
@@ -22488,7 +22488,7 @@
         <v>73</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96">
@@ -22496,13 +22496,13 @@
         <v>335</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>23</v>
+        <v>245</v>
       </c>
     </row>
     <row r="97">
@@ -22510,13 +22510,13 @@
         <v>335</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>245</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98">
@@ -22622,13 +22622,13 @@
         <v>189</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>166</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106">
@@ -22636,7 +22636,7 @@
         <v>189</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>73</v>
@@ -22650,13 +22650,13 @@
         <v>189</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>424</v>
+        <v>398</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D107" t="s" s="0">
-        <v>53</v>
+        <v>166</v>
       </c>
     </row>
     <row r="108">
@@ -22664,7 +22664,7 @@
         <v>189</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>73</v>
@@ -22678,13 +22678,13 @@
         <v>202</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D109" t="s" s="0">
-        <v>279</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110">
@@ -22706,13 +22706,13 @@
         <v>202</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>23</v>
+        <v>279</v>
       </c>
     </row>
     <row r="112">
@@ -22734,13 +22734,13 @@
         <v>338</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>23</v>
+        <v>193</v>
       </c>
     </row>
     <row r="114">
@@ -22748,13 +22748,13 @@
         <v>338</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>193</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115">
@@ -22796,7 +22796,7 @@
         <v>73</v>
       </c>
       <c r="D117" t="s" s="0">
-        <v>23</v>
+        <v>258</v>
       </c>
     </row>
     <row r="118">
@@ -22810,7 +22810,7 @@
         <v>73</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>258</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119">
@@ -22866,7 +22866,7 @@
         <v>73</v>
       </c>
       <c r="D122" t="s" s="0">
-        <v>23</v>
+        <v>215</v>
       </c>
     </row>
     <row r="123">
@@ -22880,7 +22880,7 @@
         <v>73</v>
       </c>
       <c r="D123" t="s" s="0">
-        <v>215</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124">
@@ -22916,13 +22916,13 @@
         <v>57</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D126" t="s" s="0">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="127">
@@ -22930,7 +22930,7 @@
         <v>57</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>73</v>
@@ -22944,13 +22944,13 @@
         <v>57</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D128" t="s" s="0">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="129">
@@ -22958,7 +22958,7 @@
         <v>57</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>73</v>
@@ -22972,13 +22972,13 @@
         <v>57</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D130" t="s" s="0">
-        <v>53</v>
+        <v>82</v>
       </c>
     </row>
     <row r="131">
@@ -22986,13 +22986,13 @@
         <v>57</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="132">
@@ -23000,13 +23000,13 @@
         <v>57</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="133">
@@ -23014,13 +23014,13 @@
         <v>57</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D133" t="s" s="0">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="134">
@@ -23028,7 +23028,7 @@
         <v>57</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>73</v>
@@ -23042,13 +23042,13 @@
         <v>57</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D135" t="s" s="0">
-        <v>78</v>
+        <v>59</v>
       </c>
     </row>
     <row r="136">
@@ -23056,13 +23056,13 @@
         <v>57</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D136" t="s" s="0">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="137">
@@ -23070,13 +23070,13 @@
         <v>172</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D137" t="s" s="0">
-        <v>53</v>
+        <v>98</v>
       </c>
     </row>
     <row r="138">
@@ -23098,13 +23098,13 @@
         <v>172</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="C139" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D139" t="s" s="0">
-        <v>98</v>
+        <v>53</v>
       </c>
     </row>
     <row r="140">
@@ -23126,7 +23126,7 @@
         <v>125</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>73</v>
@@ -23140,13 +23140,13 @@
         <v>125</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="143">
@@ -23154,7 +23154,7 @@
         <v>125</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>73</v>
@@ -23168,7 +23168,7 @@
         <v>125</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>73</v>
@@ -23182,7 +23182,7 @@
         <v>125</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>73</v>
@@ -23196,13 +23196,13 @@
         <v>125</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>356</v>
+        <v>388</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="147">
@@ -23210,13 +23210,13 @@
         <v>125</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="148">
@@ -23230,7 +23230,7 @@
         <v>73</v>
       </c>
       <c r="D148" t="s" s="0">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="149">
@@ -23238,13 +23238,13 @@
         <v>125</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C149" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D149" t="s" s="0">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
     <row r="150">
@@ -23286,7 +23286,7 @@
         <v>73</v>
       </c>
       <c r="D152" t="s" s="0">
-        <v>23</v>
+        <v>263</v>
       </c>
     </row>
     <row r="153">
@@ -23300,7 +23300,7 @@
         <v>73</v>
       </c>
       <c r="D153" t="s" s="0">
-        <v>263</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154">
@@ -23322,7 +23322,7 @@
         <v>252</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>73</v>
@@ -23364,13 +23364,13 @@
         <v>270</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>386</v>
+        <v>443</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D158" t="s" s="0">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
     <row r="159">
@@ -23378,7 +23378,7 @@
         <v>270</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C159" t="s" s="0">
         <v>73</v>
@@ -23392,13 +23392,13 @@
         <v>270</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D160" t="s" s="0">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="161">
@@ -23406,13 +23406,13 @@
         <v>270</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D161" t="s" s="0">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="162">
@@ -23420,13 +23420,13 @@
         <v>270</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>385</v>
+        <v>444</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D162" t="s" s="0">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
     <row r="163">
@@ -23434,13 +23434,13 @@
         <v>270</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D163" t="s" s="0">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="164">
@@ -23448,13 +23448,13 @@
         <v>270</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>443</v>
+        <v>386</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D164" t="s" s="0">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="165">
@@ -23462,13 +23462,13 @@
         <v>270</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>444</v>
+        <v>384</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D165" t="s" s="0">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="166">
@@ -23476,13 +23476,13 @@
         <v>270</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D166" t="s" s="0">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="167">
@@ -23490,13 +23490,13 @@
         <v>82</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D167" t="s" s="0">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="168">
@@ -23504,7 +23504,7 @@
         <v>82</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>73</v>
@@ -23518,13 +23518,13 @@
         <v>82</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D169" t="s" s="0">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="170">
@@ -23532,13 +23532,13 @@
         <v>82</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>375</v>
+        <v>444</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D170" t="s" s="0">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
     <row r="171">
@@ -23546,13 +23546,13 @@
         <v>82</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>444</v>
+        <v>374</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D171" t="s" s="0">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="172">
@@ -23560,7 +23560,7 @@
         <v>82</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>73</v>
@@ -23580,7 +23580,7 @@
         <v>73</v>
       </c>
       <c r="D173" t="s" s="0">
-        <v>93</v>
+        <v>23</v>
       </c>
     </row>
     <row r="174">
@@ -23588,13 +23588,13 @@
         <v>279</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D174" t="s" s="0">
-        <v>215</v>
+        <v>23</v>
       </c>
     </row>
     <row r="175">
@@ -23602,13 +23602,13 @@
         <v>279</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D175" t="s" s="0">
-        <v>23</v>
+        <v>215</v>
       </c>
     </row>
     <row r="176">
@@ -23622,7 +23622,7 @@
         <v>73</v>
       </c>
       <c r="D176" t="s" s="0">
-        <v>23</v>
+        <v>139</v>
       </c>
     </row>
     <row r="177">
@@ -23636,7 +23636,7 @@
         <v>73</v>
       </c>
       <c r="D177" t="s" s="0">
-        <v>23</v>
+        <v>123</v>
       </c>
     </row>
     <row r="178">
@@ -23644,7 +23644,7 @@
         <v>279</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>402</v>
+        <v>449</v>
       </c>
       <c r="C178" t="s" s="0">
         <v>73</v>
@@ -23658,13 +23658,13 @@
         <v>279</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>404</v>
+        <v>450</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D179" t="s" s="0">
-        <v>277</v>
+        <v>93</v>
       </c>
     </row>
     <row r="180">
@@ -23672,13 +23672,13 @@
         <v>279</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>449</v>
+        <v>402</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D180" t="s" s="0">
-        <v>139</v>
+        <v>23</v>
       </c>
     </row>
     <row r="181">
@@ -23686,13 +23686,13 @@
         <v>279</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>450</v>
+        <v>401</v>
       </c>
       <c r="C181" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D181" t="s" s="0">
-        <v>123</v>
+        <v>277</v>
       </c>
     </row>
     <row r="182">
@@ -23714,13 +23714,13 @@
         <v>292</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C183" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D183" t="s" s="0">
-        <v>166</v>
+        <v>53</v>
       </c>
     </row>
     <row r="184">
@@ -23728,13 +23728,13 @@
         <v>292</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="C184" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D184" t="s" s="0">
-        <v>53</v>
+        <v>166</v>
       </c>
     </row>
     <row r="185">
@@ -23742,7 +23742,7 @@
         <v>292</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>399</v>
+        <v>358</v>
       </c>
       <c r="C185" t="s" s="0">
         <v>73</v>
@@ -23770,13 +23770,13 @@
         <v>275</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="C187" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D187" t="s" s="0">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="188">
@@ -23784,13 +23784,13 @@
         <v>275</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>444</v>
+        <v>375</v>
       </c>
       <c r="C188" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D188" t="s" s="0">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="189">
@@ -23798,13 +23798,13 @@
         <v>275</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="C189" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D189" t="s" s="0">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="190">
@@ -23812,7 +23812,7 @@
         <v>275</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C190" t="s" s="0">
         <v>73</v>
@@ -23840,13 +23840,13 @@
         <v>275</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>377</v>
+        <v>444</v>
       </c>
       <c r="C192" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D192" t="s" s="0">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
     <row r="193">
@@ -23854,13 +23854,13 @@
         <v>177</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C193" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D193" t="s" s="0">
-        <v>53</v>
+        <v>166</v>
       </c>
     </row>
     <row r="194">
@@ -23868,13 +23868,13 @@
         <v>177</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="C194" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D194" t="s" s="0">
-        <v>166</v>
+        <v>53</v>
       </c>
     </row>
     <row r="195">
@@ -23896,7 +23896,7 @@
         <v>177</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="C196" t="s" s="0">
         <v>73</v>
@@ -23924,13 +23924,13 @@
         <v>51</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>444</v>
+        <v>385</v>
       </c>
       <c r="C198" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D198" t="s" s="0">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="199">
@@ -23938,7 +23938,7 @@
         <v>51</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C199" t="s" s="0">
         <v>73</v>
@@ -23958,7 +23958,7 @@
         <v>73</v>
       </c>
       <c r="D200" t="s" s="0">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="201">
@@ -23980,13 +23980,13 @@
         <v>51</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="C202" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D202" t="s" s="0">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="203">
@@ -23994,13 +23994,13 @@
         <v>51</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>356</v>
+        <v>384</v>
       </c>
       <c r="C203" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D203" t="s" s="0">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="204">
@@ -24008,7 +24008,7 @@
         <v>51</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C204" t="s" s="0">
         <v>73</v>
@@ -24022,13 +24022,13 @@
         <v>51</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="C205" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D205" t="s" s="0">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="206">
@@ -24036,7 +24036,7 @@
         <v>51</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C206" t="s" s="0">
         <v>73</v>
@@ -24050,13 +24050,13 @@
         <v>305</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C207" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D207" t="s" s="0">
-        <v>139</v>
+        <v>23</v>
       </c>
     </row>
     <row r="208">
@@ -24064,13 +24064,13 @@
         <v>305</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C208" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D208" t="s" s="0">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="209">
@@ -24078,13 +24078,13 @@
         <v>305</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C209" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D209" t="s" s="0">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="210">
@@ -24106,13 +24106,13 @@
         <v>305</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C211" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D211" t="s" s="0">
-        <v>23</v>
+        <v>123</v>
       </c>
     </row>
     <row r="212">
@@ -24120,13 +24120,13 @@
         <v>305</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C212" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D212" t="s" s="0">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
     <row r="213">
@@ -24134,13 +24134,13 @@
         <v>342</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>391</v>
+        <v>454</v>
       </c>
       <c r="C213" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D213" t="s" s="0">
-        <v>245</v>
+        <v>23</v>
       </c>
     </row>
     <row r="214">
@@ -24148,7 +24148,7 @@
         <v>342</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>414</v>
+        <v>455</v>
       </c>
       <c r="C214" t="s" s="0">
         <v>73</v>
@@ -24162,13 +24162,13 @@
         <v>342</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>454</v>
+        <v>403</v>
       </c>
       <c r="C215" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D215" t="s" s="0">
-        <v>23</v>
+        <v>311</v>
       </c>
     </row>
     <row r="216">
@@ -24176,7 +24176,7 @@
         <v>342</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C216" t="s" s="0">
         <v>73</v>
@@ -24190,7 +24190,7 @@
         <v>342</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>456</v>
+        <v>415</v>
       </c>
       <c r="C217" t="s" s="0">
         <v>73</v>
@@ -24260,13 +24260,13 @@
         <v>342</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="C222" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D222" t="s" s="0">
-        <v>258</v>
+        <v>23</v>
       </c>
     </row>
     <row r="223">
@@ -24288,13 +24288,13 @@
         <v>342</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>401</v>
+        <v>462</v>
       </c>
       <c r="C224" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D224" t="s" s="0">
-        <v>311</v>
+        <v>184</v>
       </c>
     </row>
     <row r="225">
@@ -24302,7 +24302,7 @@
         <v>342</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>416</v>
+        <v>463</v>
       </c>
       <c r="C225" t="s" s="0">
         <v>73</v>
@@ -24316,13 +24316,13 @@
         <v>342</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>462</v>
+        <v>393</v>
       </c>
       <c r="C226" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D226" t="s" s="0">
-        <v>184</v>
+        <v>245</v>
       </c>
     </row>
     <row r="227">
@@ -24330,13 +24330,13 @@
         <v>342</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>463</v>
+        <v>428</v>
       </c>
       <c r="C227" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D227" t="s" s="0">
-        <v>23</v>
+        <v>258</v>
       </c>
     </row>
     <row r="228">
@@ -24358,13 +24358,13 @@
         <v>209</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="C229" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D229" t="s" s="0">
-        <v>166</v>
+        <v>53</v>
       </c>
     </row>
     <row r="230">
@@ -24372,7 +24372,7 @@
         <v>209</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="C230" t="s" s="0">
         <v>73</v>
@@ -24386,13 +24386,13 @@
         <v>209</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>451</v>
+        <v>398</v>
       </c>
       <c r="C231" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D231" t="s" s="0">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="232">
@@ -24400,13 +24400,13 @@
         <v>209</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>399</v>
+        <v>451</v>
       </c>
       <c r="C232" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D232" t="s" s="0">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="233">
@@ -24414,13 +24414,13 @@
         <v>29</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C233" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D233" t="s" s="0">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="234">
@@ -24428,13 +24428,13 @@
         <v>29</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C234" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D234" t="s" s="0">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="235">
@@ -24442,13 +24442,13 @@
         <v>29</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C235" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D235" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="236">
@@ -24456,13 +24456,13 @@
         <v>29</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C236" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D236" t="s" s="0">
-        <v>53</v>
+        <v>132</v>
       </c>
     </row>
     <row r="237">
@@ -24470,13 +24470,13 @@
         <v>29</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C237" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D237" t="s" s="0">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="238">
@@ -24484,13 +24484,13 @@
         <v>29</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C238" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D238" t="s" s="0">
-        <v>132</v>
+        <v>63</v>
       </c>
     </row>
     <row r="239">
@@ -24498,13 +24498,13 @@
         <v>29</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C239" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D239" t="s" s="0">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="240">
@@ -24512,13 +24512,13 @@
         <v>29</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C240" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D240" t="s" s="0">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="241">
@@ -24526,13 +24526,13 @@
         <v>29</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C241" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D241" t="s" s="0">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="242">
@@ -24540,13 +24540,13 @@
         <v>29</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C242" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D242" t="s" s="0">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="243">
@@ -24554,13 +24554,13 @@
         <v>29</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C243" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D243" t="s" s="0">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="244">
@@ -24596,7 +24596,7 @@
         <v>348</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C246" t="s" s="0">
         <v>73</v>
@@ -24610,7 +24610,7 @@
         <v>348</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C247" t="s" s="0">
         <v>73</v>
@@ -24630,7 +24630,7 @@
         <v>73</v>
       </c>
       <c r="D248" t="s" s="0">
-        <v>252</v>
+        <v>23</v>
       </c>
     </row>
     <row r="249">
@@ -24652,7 +24652,7 @@
         <v>326</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C250" t="s" s="0">
         <v>73</v>
@@ -24666,13 +24666,13 @@
         <v>326</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>468</v>
+        <v>393</v>
       </c>
       <c r="C251" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D251" t="s" s="0">
-        <v>23</v>
+        <v>245</v>
       </c>
     </row>
     <row r="252">
@@ -24680,13 +24680,13 @@
         <v>326</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>391</v>
+        <v>468</v>
       </c>
       <c r="C252" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D252" t="s" s="0">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="253">
@@ -35299,7 +35299,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>476</v>
@@ -35333,7 +35333,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>476</v>
@@ -35350,7 +35350,7 @@
         <v>20</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>476</v>
@@ -35367,7 +35367,7 @@
         <v>20</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>476</v>
@@ -35384,7 +35384,7 @@
         <v>20</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>476</v>
@@ -35401,7 +35401,7 @@
         <v>20</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>476</v>
@@ -35418,7 +35418,7 @@
         <v>20</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>476</v>
@@ -35435,7 +35435,7 @@
         <v>20</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E11" t="s" s="0">
         <v>476</v>
@@ -35452,7 +35452,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E12" t="s" s="0">
         <v>476</v>
@@ -35469,7 +35469,7 @@
         <v>20</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E13" t="s" s="0">
         <v>476</v>
@@ -35486,7 +35486,7 @@
         <v>20</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="E14" t="s" s="0">
         <v>476</v>
@@ -35503,7 +35503,7 @@
         <v>20</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E15" t="s" s="0">
         <v>476</v>
@@ -35520,7 +35520,7 @@
         <v>20</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E16" t="s" s="0">
         <v>476</v>
@@ -35537,7 +35537,7 @@
         <v>20</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E17" t="s" s="0">
         <v>476</v>
@@ -35571,7 +35571,7 @@
         <v>20</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E19" t="s" s="0">
         <v>476</v>
@@ -35588,7 +35588,7 @@
         <v>20</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="E20" t="s" s="0">
         <v>476</v>
@@ -35605,7 +35605,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E21" t="s" s="0">
         <v>476</v>
@@ -35622,7 +35622,7 @@
         <v>20</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E22" t="s" s="0">
         <v>476</v>
@@ -35656,7 +35656,7 @@
         <v>20</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E24" t="s" s="0">
         <v>476</v>
@@ -35673,7 +35673,7 @@
         <v>20</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E25" t="s" s="0">
         <v>476</v>

--- a/data/backend/order-service_structure.xlsx
+++ b/data/backend/order-service_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9845" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9845" uniqueCount="597">
   <si>
     <t>Class Name</t>
   </si>
@@ -1512,7 +1512,7 @@
     <t>Number of Lines</t>
   </si>
   <si>
-    <t>22</t>
+    <t>24</t>
   </si>
   <si>
     <t>6</t>
@@ -1537,9 +1537,6 @@
   </si>
   <si>
     <t>308</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>53</t>
@@ -15630,7 +15627,7 @@
         <v>139</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>505</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14">
@@ -15638,7 +15635,7 @@
         <v>140</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>505</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15">
@@ -15654,7 +15651,7 @@
         <v>144</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17">
@@ -15662,7 +15659,7 @@
         <v>152</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18">
@@ -15670,7 +15667,7 @@
         <v>88</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="19">
@@ -15678,7 +15675,7 @@
         <v>332</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="20">
@@ -15686,7 +15683,7 @@
         <v>173</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="21">
@@ -15694,7 +15691,7 @@
         <v>184</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="22">
@@ -15702,7 +15699,7 @@
         <v>335</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="23">
@@ -15710,7 +15707,7 @@
         <v>186</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="24">
@@ -15718,7 +15715,7 @@
         <v>189</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="25">
@@ -15750,7 +15747,7 @@
         <v>202</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="29">
@@ -15766,7 +15763,7 @@
         <v>338</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="31">
@@ -15774,7 +15771,7 @@
         <v>215</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>505</v>
+        <v>476</v>
       </c>
     </row>
     <row r="32">
@@ -15782,7 +15779,7 @@
         <v>216</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="33">
@@ -15790,7 +15787,7 @@
         <v>223</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="34">
@@ -15798,7 +15795,7 @@
         <v>57</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="35">
@@ -15806,7 +15803,7 @@
         <v>172</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="36">
@@ -15814,7 +15811,7 @@
         <v>125</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="37">
@@ -15822,7 +15819,7 @@
         <v>245</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="38">
@@ -15830,7 +15827,7 @@
         <v>252</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="39">
@@ -15838,7 +15835,7 @@
         <v>258</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="40">
@@ -15846,7 +15843,7 @@
         <v>259</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="41">
@@ -15854,7 +15851,7 @@
         <v>270</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="42">
@@ -15862,7 +15859,7 @@
         <v>82</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="43">
@@ -15878,7 +15875,7 @@
         <v>279</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="45">
@@ -15886,7 +15883,7 @@
         <v>292</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="46">
@@ -15894,7 +15891,7 @@
         <v>294</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>505</v>
+        <v>477</v>
       </c>
     </row>
     <row r="47">
@@ -15910,7 +15907,7 @@
         <v>177</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="49">
@@ -15918,7 +15915,7 @@
         <v>297</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="50">
@@ -15926,7 +15923,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="51">
@@ -15942,7 +15939,7 @@
         <v>305</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="53">
@@ -15950,7 +15947,7 @@
         <v>342</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="54">
@@ -15966,7 +15963,7 @@
         <v>209</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="56">
@@ -15974,7 +15971,7 @@
         <v>317</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="57">
@@ -15982,7 +15979,7 @@
         <v>29</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="58">
@@ -15990,7 +15987,7 @@
         <v>348</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="59">
@@ -15998,7 +15995,7 @@
         <v>326</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -16096,7 +16093,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>477</v>
@@ -16140,10 +16137,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>505</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13">
@@ -16305,10 +16302,10 @@
         <v>20</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>505</v>
+        <v>476</v>
       </c>
     </row>
     <row r="28">
@@ -16319,7 +16316,7 @@
         <v>72</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="29">
@@ -16583,7 +16580,7 @@
         <v>80</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>505</v>
+        <v>476</v>
       </c>
     </row>
     <row r="53">
@@ -16591,10 +16588,10 @@
         <v>47</v>
       </c>
       <c r="B53" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="C53" t="s" s="0">
         <v>540</v>
-      </c>
-      <c r="C53" t="s" s="0">
-        <v>541</v>
       </c>
     </row>
     <row r="54">
@@ -16602,7 +16599,7 @@
         <v>47</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>477</v>
@@ -16844,7 +16841,7 @@
         <v>95</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>477</v>
@@ -16943,7 +16940,7 @@
         <v>102</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>477</v>
@@ -17122,7 +17119,7 @@
         <v>15</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="102">
@@ -17144,7 +17141,7 @@
         <v>33</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="104">
@@ -17163,10 +17160,10 @@
         <v>105</v>
       </c>
       <c r="B105" t="s" s="0">
+        <v>546</v>
+      </c>
+      <c r="C105" t="s" s="0">
         <v>547</v>
-      </c>
-      <c r="C105" t="s" s="0">
-        <v>548</v>
       </c>
     </row>
     <row r="106">
@@ -17188,7 +17185,7 @@
         <v>126</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="108">
@@ -17196,7 +17193,7 @@
         <v>123</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>482</v>
@@ -17507,7 +17504,7 @@
         <v>15</v>
       </c>
       <c r="C136" t="s" s="0">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="137">
@@ -17529,7 +17526,7 @@
         <v>33</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="139">
@@ -17548,10 +17545,10 @@
         <v>98</v>
       </c>
       <c r="B140" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="C140" t="s" s="0">
         <v>551</v>
-      </c>
-      <c r="C140" t="s" s="0">
-        <v>552</v>
       </c>
     </row>
     <row r="141">
@@ -17691,7 +17688,7 @@
         <v>144</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>477</v>
@@ -17705,7 +17702,7 @@
         <v>91</v>
       </c>
       <c r="C154" t="s" s="0">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="155">
@@ -17716,7 +17713,7 @@
         <v>162</v>
       </c>
       <c r="C155" t="s" s="0">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="156">
@@ -17727,7 +17724,7 @@
         <v>163</v>
       </c>
       <c r="C156" t="s" s="0">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="157">
@@ -17738,7 +17735,7 @@
         <v>161</v>
       </c>
       <c r="C157" t="s" s="0">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="158">
@@ -17749,7 +17746,7 @@
         <v>157</v>
       </c>
       <c r="C158" t="s" s="0">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="159">
@@ -17760,7 +17757,7 @@
         <v>89</v>
       </c>
       <c r="C159" t="s" s="0">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="160">
@@ -17771,7 +17768,7 @@
         <v>164</v>
       </c>
       <c r="C160" t="s" s="0">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="161">
@@ -17804,7 +17801,7 @@
         <v>160</v>
       </c>
       <c r="C163" t="s" s="0">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="164">
@@ -17815,7 +17812,7 @@
         <v>153</v>
       </c>
       <c r="C164" t="s" s="0">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="165">
@@ -17823,10 +17820,10 @@
         <v>152</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C165" t="s" s="0">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="166">
@@ -17936,7 +17933,7 @@
         <v>15</v>
       </c>
       <c r="C175" t="s" s="0">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="176">
@@ -17958,7 +17955,7 @@
         <v>33</v>
       </c>
       <c r="C177" t="s" s="0">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="178">
@@ -17977,7 +17974,7 @@
         <v>88</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>497</v>
@@ -18010,7 +18007,7 @@
         <v>332</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C182" t="s" s="0">
         <v>482</v>
@@ -18068,7 +18065,7 @@
         <v>181</v>
       </c>
       <c r="C187" t="s" s="0">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="188">
@@ -18079,7 +18076,7 @@
         <v>176</v>
       </c>
       <c r="C188" t="s" s="0">
-        <v>505</v>
+        <v>476</v>
       </c>
     </row>
     <row r="189">
@@ -18090,7 +18087,7 @@
         <v>178</v>
       </c>
       <c r="C189" t="s" s="0">
-        <v>505</v>
+        <v>476</v>
       </c>
     </row>
     <row r="190">
@@ -18098,7 +18095,7 @@
         <v>173</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C190" t="s" s="0">
         <v>486</v>
@@ -18112,7 +18109,7 @@
         <v>185</v>
       </c>
       <c r="C191" t="s" s="0">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="192">
@@ -18120,7 +18117,7 @@
         <v>184</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C192" t="s" s="0">
         <v>486</v>
@@ -18134,7 +18131,7 @@
         <v>85</v>
       </c>
       <c r="C193" t="s" s="0">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="194">
@@ -18145,7 +18142,7 @@
         <v>91</v>
       </c>
       <c r="C194" t="s" s="0">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="195">
@@ -18156,7 +18153,7 @@
         <v>337</v>
       </c>
       <c r="C195" t="s" s="0">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="196">
@@ -18167,7 +18164,7 @@
         <v>86</v>
       </c>
       <c r="C196" t="s" s="0">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="197">
@@ -18178,7 +18175,7 @@
         <v>336</v>
       </c>
       <c r="C197" t="s" s="0">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="198">
@@ -18189,7 +18186,7 @@
         <v>89</v>
       </c>
       <c r="C198" t="s" s="0">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="199">
@@ -18200,7 +18197,7 @@
         <v>492</v>
       </c>
       <c r="C199" t="s" s="0">
-        <v>505</v>
+        <v>476</v>
       </c>
     </row>
     <row r="200">
@@ -18211,7 +18208,7 @@
         <v>491</v>
       </c>
       <c r="C200" t="s" s="0">
-        <v>505</v>
+        <v>476</v>
       </c>
     </row>
     <row r="201">
@@ -18219,10 +18216,10 @@
         <v>335</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C201" t="s" s="0">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="202">
@@ -18233,7 +18230,7 @@
         <v>187</v>
       </c>
       <c r="C202" t="s" s="0">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="203">
@@ -18241,10 +18238,10 @@
         <v>186</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C203" t="s" s="0">
-        <v>505</v>
+        <v>476</v>
       </c>
     </row>
     <row r="204">
@@ -18318,7 +18315,7 @@
         <v>189</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C210" t="s" s="0">
         <v>477</v>
@@ -18384,10 +18381,10 @@
         <v>196</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C216" t="s" s="0">
-        <v>505</v>
+        <v>476</v>
       </c>
     </row>
     <row r="217">
@@ -18417,10 +18414,10 @@
         <v>198</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C219" t="s" s="0">
-        <v>505</v>
+        <v>476</v>
       </c>
     </row>
     <row r="220">
@@ -18453,7 +18450,7 @@
         <v>208</v>
       </c>
       <c r="C222" t="s" s="0">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="223">
@@ -18464,7 +18461,7 @@
         <v>203</v>
       </c>
       <c r="C223" t="s" s="0">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="224">
@@ -18475,7 +18472,7 @@
         <v>210</v>
       </c>
       <c r="C224" t="s" s="0">
-        <v>505</v>
+        <v>476</v>
       </c>
     </row>
     <row r="225">
@@ -18486,7 +18483,7 @@
         <v>205</v>
       </c>
       <c r="C225" t="s" s="0">
-        <v>505</v>
+        <v>476</v>
       </c>
     </row>
     <row r="226">
@@ -18497,7 +18494,7 @@
         <v>211</v>
       </c>
       <c r="C226" t="s" s="0">
-        <v>505</v>
+        <v>476</v>
       </c>
     </row>
     <row r="227">
@@ -18508,7 +18505,7 @@
         <v>204</v>
       </c>
       <c r="C227" t="s" s="0">
-        <v>505</v>
+        <v>476</v>
       </c>
     </row>
     <row r="228">
@@ -18516,7 +18513,7 @@
         <v>202</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C228" t="s" s="0">
         <v>486</v>
@@ -18549,10 +18546,10 @@
         <v>212</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C231" t="s" s="0">
-        <v>505</v>
+        <v>476</v>
       </c>
     </row>
     <row r="232">
@@ -18563,7 +18560,7 @@
         <v>339</v>
       </c>
       <c r="C232" t="s" s="0">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="233">
@@ -18574,7 +18571,7 @@
         <v>340</v>
       </c>
       <c r="C233" t="s" s="0">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="234">
@@ -18585,7 +18582,7 @@
         <v>341</v>
       </c>
       <c r="C234" t="s" s="0">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="235">
@@ -18604,7 +18601,7 @@
         <v>338</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C236" t="s" s="0">
         <v>486</v>
@@ -18629,7 +18626,7 @@
         <v>221</v>
       </c>
       <c r="C238" t="s" s="0">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="239">
@@ -18640,7 +18637,7 @@
         <v>217</v>
       </c>
       <c r="C239" t="s" s="0">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="240">
@@ -18673,7 +18670,7 @@
         <v>218</v>
       </c>
       <c r="C242" t="s" s="0">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="243">
@@ -18681,7 +18678,7 @@
         <v>216</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C243" t="s" s="0">
         <v>482</v>
@@ -18695,7 +18692,7 @@
         <v>91</v>
       </c>
       <c r="C244" t="s" s="0">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="245">
@@ -18706,7 +18703,7 @@
         <v>195</v>
       </c>
       <c r="C245" t="s" s="0">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="246">
@@ -18717,7 +18714,7 @@
         <v>194</v>
       </c>
       <c r="C246" t="s" s="0">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="247">
@@ -18728,7 +18725,7 @@
         <v>89</v>
       </c>
       <c r="C247" t="s" s="0">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="248">
@@ -18736,7 +18733,7 @@
         <v>223</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C248" t="s" s="0">
         <v>486</v>
@@ -18890,7 +18887,7 @@
         <v>57</v>
       </c>
       <c r="B262" t="s" s="0">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C262" t="s" s="0">
         <v>477</v>
@@ -18967,7 +18964,7 @@
         <v>172</v>
       </c>
       <c r="B269" t="s" s="0">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C269" t="s" s="0">
         <v>477</v>
@@ -19212,7 +19209,7 @@
         <v>15</v>
       </c>
       <c r="C291" t="s" s="0">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="292">
@@ -19234,7 +19231,7 @@
         <v>33</v>
       </c>
       <c r="C293" t="s" s="0">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="294">
@@ -19253,10 +19250,10 @@
         <v>125</v>
       </c>
       <c r="B295" t="s" s="0">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C295" t="s" s="0">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="296">
@@ -19330,10 +19327,10 @@
         <v>245</v>
       </c>
       <c r="B302" t="s" s="0">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C302" t="s" s="0">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="303">
@@ -19344,7 +19341,7 @@
         <v>253</v>
       </c>
       <c r="C303" t="s" s="0">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="304">
@@ -19366,7 +19363,7 @@
         <v>254</v>
       </c>
       <c r="C305" t="s" s="0">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="306">
@@ -19377,7 +19374,7 @@
         <v>255</v>
       </c>
       <c r="C306" t="s" s="0">
-        <v>505</v>
+        <v>476</v>
       </c>
     </row>
     <row r="307">
@@ -19385,7 +19382,7 @@
         <v>252</v>
       </c>
       <c r="B307" t="s" s="0">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C307" t="s" s="0">
         <v>482</v>
@@ -19550,10 +19547,10 @@
         <v>259</v>
       </c>
       <c r="B322" t="s" s="0">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C322" t="s" s="0">
-        <v>505</v>
+        <v>476</v>
       </c>
     </row>
     <row r="323">
@@ -19682,7 +19679,7 @@
         <v>270</v>
       </c>
       <c r="B334" t="s" s="0">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C334" t="s" s="0">
         <v>477</v>
@@ -19847,10 +19844,10 @@
         <v>82</v>
       </c>
       <c r="B349" t="s" s="0">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C349" t="s" s="0">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="350">
@@ -19858,7 +19855,7 @@
         <v>82</v>
       </c>
       <c r="B350" t="s" s="0">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C350" t="s" s="0">
         <v>477</v>
@@ -19905,7 +19902,7 @@
         <v>287</v>
       </c>
       <c r="C354" t="s" s="0">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="355">
@@ -19916,7 +19913,7 @@
         <v>282</v>
       </c>
       <c r="C355" t="s" s="0">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="356">
@@ -19927,7 +19924,7 @@
         <v>288</v>
       </c>
       <c r="C356" t="s" s="0">
-        <v>505</v>
+        <v>486</v>
       </c>
     </row>
     <row r="357">
@@ -19938,7 +19935,7 @@
         <v>289</v>
       </c>
       <c r="C357" t="s" s="0">
-        <v>505</v>
+        <v>476</v>
       </c>
     </row>
     <row r="358">
@@ -19949,7 +19946,7 @@
         <v>286</v>
       </c>
       <c r="C358" t="s" s="0">
-        <v>505</v>
+        <v>476</v>
       </c>
     </row>
     <row r="359">
@@ -19960,7 +19957,7 @@
         <v>285</v>
       </c>
       <c r="C359" t="s" s="0">
-        <v>505</v>
+        <v>476</v>
       </c>
     </row>
     <row r="360">
@@ -19971,7 +19968,7 @@
         <v>283</v>
       </c>
       <c r="C360" t="s" s="0">
-        <v>505</v>
+        <v>476</v>
       </c>
     </row>
     <row r="361">
@@ -19982,7 +19979,7 @@
         <v>280</v>
       </c>
       <c r="C361" t="s" s="0">
-        <v>505</v>
+        <v>476</v>
       </c>
     </row>
     <row r="362">
@@ -19990,10 +19987,10 @@
         <v>279</v>
       </c>
       <c r="B362" t="s" s="0">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C362" t="s" s="0">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="363">
@@ -20067,7 +20064,7 @@
         <v>292</v>
       </c>
       <c r="B369" t="s" s="0">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C369" t="s" s="0">
         <v>477</v>
@@ -20166,7 +20163,7 @@
         <v>275</v>
       </c>
       <c r="B378" t="s" s="0">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C378" t="s" s="0">
         <v>477</v>
@@ -20279,7 +20276,7 @@
         <v>15</v>
       </c>
       <c r="C388" t="s" s="0">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="389">
@@ -20301,7 +20298,7 @@
         <v>33</v>
       </c>
       <c r="C390" t="s" s="0">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="391">
@@ -20320,7 +20317,7 @@
         <v>177</v>
       </c>
       <c r="B392" t="s" s="0">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C392" t="s" s="0">
         <v>497</v>
@@ -20353,7 +20350,7 @@
         <v>297</v>
       </c>
       <c r="B395" t="s" s="0">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C395" t="s" s="0">
         <v>482</v>
@@ -20573,10 +20570,10 @@
         <v>51</v>
       </c>
       <c r="B415" t="s" s="0">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C415" t="s" s="0">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="416">
@@ -20584,7 +20581,7 @@
         <v>51</v>
       </c>
       <c r="B416" t="s" s="0">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C416" t="s" s="0">
         <v>477</v>
@@ -20617,10 +20614,10 @@
         <v>302</v>
       </c>
       <c r="B419" t="s" s="0">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C419" t="s" s="0">
-        <v>505</v>
+        <v>476</v>
       </c>
     </row>
     <row r="420">
@@ -20631,7 +20628,7 @@
         <v>91</v>
       </c>
       <c r="C420" t="s" s="0">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="421">
@@ -20642,7 +20639,7 @@
         <v>307</v>
       </c>
       <c r="C421" t="s" s="0">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="422">
@@ -20653,7 +20650,7 @@
         <v>309</v>
       </c>
       <c r="C422" t="s" s="0">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="423">
@@ -20664,7 +20661,7 @@
         <v>89</v>
       </c>
       <c r="C423" t="s" s="0">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="424">
@@ -20686,7 +20683,7 @@
         <v>310</v>
       </c>
       <c r="C425" t="s" s="0">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="426">
@@ -20697,7 +20694,7 @@
         <v>308</v>
       </c>
       <c r="C426" t="s" s="0">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="427">
@@ -20705,7 +20702,7 @@
         <v>305</v>
       </c>
       <c r="B427" t="s" s="0">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C427" t="s" s="0">
         <v>497</v>
@@ -20719,7 +20716,7 @@
         <v>347</v>
       </c>
       <c r="C428" t="s" s="0">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="429">
@@ -20730,7 +20727,7 @@
         <v>91</v>
       </c>
       <c r="C429" t="s" s="0">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="430">
@@ -20741,7 +20738,7 @@
         <v>163</v>
       </c>
       <c r="C430" t="s" s="0">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="431">
@@ -20752,7 +20749,7 @@
         <v>346</v>
       </c>
       <c r="C431" t="s" s="0">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="432">
@@ -20763,7 +20760,7 @@
         <v>343</v>
       </c>
       <c r="C432" t="s" s="0">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="433">
@@ -20774,7 +20771,7 @@
         <v>345</v>
       </c>
       <c r="C433" t="s" s="0">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="434">
@@ -20796,7 +20793,7 @@
         <v>344</v>
       </c>
       <c r="C435" t="s" s="0">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="436">
@@ -20804,7 +20801,7 @@
         <v>342</v>
       </c>
       <c r="B436" t="s" s="0">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C436" t="s" s="0">
         <v>497</v>
@@ -20818,7 +20815,7 @@
         <v>312</v>
       </c>
       <c r="C437" t="s" s="0">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="438">
@@ -20837,7 +20834,7 @@
         <v>311</v>
       </c>
       <c r="B439" t="s" s="0">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C439" t="s" s="0">
         <v>482</v>
@@ -20851,7 +20848,7 @@
         <v>316</v>
       </c>
       <c r="C440" t="s" s="0">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="441">
@@ -20958,7 +20955,7 @@
         <v>209</v>
       </c>
       <c r="B450" t="s" s="0">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C450" t="s" s="0">
         <v>497</v>
@@ -20969,7 +20966,7 @@
         <v>209</v>
       </c>
       <c r="B451" t="s" s="0">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C451" t="s" s="0">
         <v>477</v>
@@ -21291,7 +21288,7 @@
         <v>15</v>
       </c>
       <c r="C480" t="s" s="0">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="481">
@@ -21313,7 +21310,7 @@
         <v>33</v>
       </c>
       <c r="C482" t="s" s="0">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="483">
@@ -21332,10 +21329,10 @@
         <v>29</v>
       </c>
       <c r="B484" t="s" s="0">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C484" t="s" s="0">
-        <v>505</v>
+        <v>540</v>
       </c>
     </row>
     <row r="485">
@@ -21346,7 +21343,7 @@
         <v>339</v>
       </c>
       <c r="C485" t="s" s="0">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="486">
@@ -21357,7 +21354,7 @@
         <v>350</v>
       </c>
       <c r="C486" t="s" s="0">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="487">
@@ -21368,7 +21365,7 @@
         <v>351</v>
       </c>
       <c r="C487" t="s" s="0">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="488">
@@ -21379,7 +21376,7 @@
         <v>89</v>
       </c>
       <c r="C488" t="s" s="0">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="489">
@@ -21390,7 +21387,7 @@
         <v>349</v>
       </c>
       <c r="C489" t="s" s="0">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="490">
@@ -21398,7 +21395,7 @@
         <v>348</v>
       </c>
       <c r="B490" t="s" s="0">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C490" t="s" s="0">
         <v>486</v>
@@ -21412,7 +21409,7 @@
         <v>91</v>
       </c>
       <c r="C491" t="s" s="0">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="492">
@@ -21423,7 +21420,7 @@
         <v>85</v>
       </c>
       <c r="C492" t="s" s="0">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="493">
@@ -21434,7 +21431,7 @@
         <v>87</v>
       </c>
       <c r="C493" t="s" s="0">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="494">
@@ -21445,7 +21442,7 @@
         <v>86</v>
       </c>
       <c r="C494" t="s" s="0">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="495">
@@ -21456,7 +21453,7 @@
         <v>92</v>
       </c>
       <c r="C495" t="s" s="0">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="496">
@@ -21467,7 +21464,7 @@
         <v>89</v>
       </c>
       <c r="C496" t="s" s="0">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="497">
@@ -21489,7 +21486,7 @@
         <v>327</v>
       </c>
       <c r="C498" t="s" s="0">
-        <v>505</v>
+        <v>476</v>
       </c>
     </row>
     <row r="499">
@@ -21497,7 +21494,7 @@
         <v>326</v>
       </c>
       <c r="B499" t="s" s="0">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C499" t="s" s="0">
         <v>497</v>

--- a/data/backend/order-service_structure.xlsx
+++ b/data/backend/order-service_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10010" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10034" uniqueCount="597">
   <si>
     <t>Class Name</t>
   </si>
@@ -1245,75 +1245,75 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>deliveryCost</t>
+  </si>
+  <si>
+    <t>deliveryMethod</t>
+  </si>
+  <si>
+    <t>totalCost</t>
+  </si>
+  <si>
+    <t>locationId</t>
+  </si>
+  <si>
+    <t>deliveryLocationId</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>clientId</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
     <t>orderEntriesIds</t>
   </si>
   <si>
-    <t>clientId</t>
+    <t>paymentMethod</t>
   </si>
   <si>
     <t>paymentCost</t>
   </si>
   <si>
-    <t>totalCost</t>
-  </si>
-  <si>
-    <t>deliveryMethod</t>
-  </si>
-  <si>
-    <t>locationId</t>
-  </si>
-  <si>
-    <t>deliveryLocationId</t>
-  </si>
-  <si>
-    <t>deliveryCost</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>paymentMethod</t>
-  </si>
-  <si>
-    <t>status</t>
+    <t>orderEntries</t>
+  </si>
+  <si>
+    <t>deliveryLocation</t>
   </si>
   <si>
     <t>location</t>
   </si>
   <si>
-    <t>deliveryLocation</t>
+    <t>creationTimestamp</t>
+  </si>
+  <si>
+    <t>orderStatus</t>
   </si>
   <si>
     <t>client</t>
   </si>
   <si>
-    <t>orderStatus</t>
-  </si>
-  <si>
-    <t>creationTimestamp</t>
-  </si>
-  <si>
-    <t>orderEntries</t>
-  </si>
-  <si>
     <t>totalPrice</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>phoneNumber</t>
   </si>
   <si>
+    <t>orderIds</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
     <t>emailAddress</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>surname</t>
-  </si>
-  <si>
-    <t>orderIds</t>
-  </si>
-  <si>
     <t>orderRepository</t>
   </si>
   <si>
@@ -1323,51 +1323,51 @@
     <t>int[]</t>
   </si>
   <si>
+    <t>flatNumber</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>postCode</t>
+  </si>
+  <si>
     <t>city</t>
   </si>
   <si>
-    <t>flatNumber</t>
-  </si>
-  <si>
-    <t>postCode</t>
-  </si>
-  <si>
     <t>street</t>
   </si>
   <si>
+    <t>streetNumber</t>
+  </si>
+  <si>
     <t>deliveryOrdersIds</t>
   </si>
   <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>streetNumber</t>
+    <t>ORDER_NOT_FOUND_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
+    <t>kafkaOrderProducer</t>
+  </si>
+  <si>
+    <t>ORDER_CONFLICT_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
+    <t>rsqlVisitor</t>
+  </si>
+  <si>
+    <t>org.andante.rsql.PersistentRSQLVisitor</t>
   </si>
   <si>
     <t>orderModelEntityMapper</t>
   </si>
   <si>
-    <t>ORDER_CONFLICT_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
     <t>rsqlParser</t>
   </si>
   <si>
     <t>cz.jirutka.rsql.parser.RSQLParser</t>
   </si>
   <si>
-    <t>ORDER_NOT_FOUND_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
-    <t>rsqlVisitor</t>
-  </si>
-  <si>
-    <t>org.andante.rsql.PersistentRSQLVisitor</t>
-  </si>
-  <si>
-    <t>kafkaOrderProducer</t>
-  </si>
-  <si>
     <t>productVariantId</t>
   </si>
   <si>
@@ -1380,75 +1380,75 @@
     <t>paymentService</t>
   </si>
   <si>
+    <t>PRODUCT_VARIANT_NOT_FOUND_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
+    <t>productClient</t>
+  </si>
+  <si>
+    <t>orderDTOModelMapper</t>
+  </si>
+  <si>
     <t>ORDER_COMMUNICATION_MESSAGE</t>
   </si>
   <si>
-    <t>productClient</t>
-  </si>
-  <si>
-    <t>PRODUCT_VARIANT_NOT_FOUND_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
-    <t>orderDTOModelMapper</t>
+    <t>ORDER_PLACED_TITLE</t>
+  </si>
+  <si>
+    <t>ORDER_TEMPLATE</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>org.springframework.core.io.Resource</t>
+  </si>
+  <si>
+    <t>PDF_FILENAME</t>
+  </si>
+  <si>
+    <t>templateEngine</t>
+  </si>
+  <si>
+    <t>org.thymeleaf.TemplateEngine</t>
+  </si>
+  <si>
+    <t>sender</t>
   </si>
   <si>
     <t>mailSender</t>
   </si>
   <si>
-    <t>PDF_FILENAME</t>
-  </si>
-  <si>
-    <t>sender</t>
-  </si>
-  <si>
-    <t>ORDER_PLACED_TITLE</t>
-  </si>
-  <si>
-    <t>logo</t>
-  </si>
-  <si>
-    <t>org.springframework.core.io.Resource</t>
-  </si>
-  <si>
-    <t>templateEngine</t>
-  </si>
-  <si>
-    <t>org.thymeleaf.TemplateEngine</t>
-  </si>
-  <si>
-    <t>ORDER_TEMPLATE</t>
+    <t>orderEntryDTOModelMapper</t>
   </si>
   <si>
     <t>POSITIVE_IDENTIFIER_ERROR_MESSAGE</t>
   </si>
   <si>
+    <t>NULL_IDENTIFIER_ERROR_MESSAGE</t>
+  </si>
+  <si>
     <t>orderEntryService</t>
   </si>
   <si>
-    <t>orderEntryDTOModelMapper</t>
-  </si>
-  <si>
-    <t>NULL_IDENTIFIER_ERROR_MESSAGE</t>
+    <t>smtpAuth</t>
+  </si>
+  <si>
+    <t>enableStartTLS</t>
+  </si>
+  <si>
+    <t>host</t>
   </si>
   <si>
     <t>password</t>
   </si>
   <si>
+    <t>port</t>
+  </si>
+  <si>
     <t>username</t>
   </si>
   <si>
-    <t>port</t>
-  </si>
-  <si>
-    <t>smtpAuth</t>
-  </si>
-  <si>
-    <t>enableStartTLS</t>
-  </si>
-  <si>
-    <t>host</t>
-  </si>
-  <si>
     <t>orderId</t>
   </si>
   <si>
@@ -1458,24 +1458,27 @@
     <t>userDTOModelMapper</t>
   </si>
   <si>
+    <t>STRIPE_HEADER</t>
+  </si>
+  <si>
+    <t>orderService</t>
+  </si>
+  <si>
     <t>STRIPE_SUCCEEDED_INTENT</t>
   </si>
   <si>
+    <t>ORDER_ID</t>
+  </si>
+  <si>
     <t>webhookSecret</t>
   </si>
   <si>
-    <t>STRIPE_HEADER</t>
-  </si>
-  <si>
-    <t>ORDER_ID</t>
-  </si>
-  <si>
-    <t>orderService</t>
-  </si>
-  <si>
     <t>privateKey</t>
   </si>
   <si>
+    <t>USER_NOT_FOUND_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
     <t>userModelEntityMapper</t>
   </si>
   <si>
@@ -1485,9 +1488,6 @@
     <t>clientRepository</t>
   </si>
   <si>
-    <t>USER_NOT_FOUND_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
     <t>SEPARATOR</t>
   </si>
   <si>
@@ -1512,24 +1512,24 @@
     <t>orders</t>
   </si>
   <si>
+    <t>LOCATION_NOT_FOUND_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
+    <t>locationRepository</t>
+  </si>
+  <si>
+    <t>orderEntryRepository</t>
+  </si>
+  <si>
     <t>CLIENT_NOT_FOUND_EXCEPTION_MESSAGE</t>
   </si>
   <si>
+    <t>locationModelEntityMapper</t>
+  </si>
+  <si>
     <t>ORDER_INTERNAL_PROBLEM_MESSAGE</t>
   </si>
   <si>
-    <t>locationRepository</t>
-  </si>
-  <si>
-    <t>orderEntryRepository</t>
-  </si>
-  <si>
-    <t>locationModelEntityMapper</t>
-  </si>
-  <si>
-    <t>LOCATION_NOT_FOUND_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
     <t>order</t>
   </si>
   <si>
@@ -1539,57 +1539,57 @@
     <t>LOCATION_CONFLICT_EXCEPTION_MESSAGE</t>
   </si>
   <si>
+    <t>PAGE_SIZE_NON_POSITIVE_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>emailSender</t>
+  </si>
+  <si>
+    <t>EMAIL_INVALID_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>PAGE_NEGATIVE_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>EMAIL_NULL_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>ORDER_SORTING_ORDER_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>PAGE_NULL_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>IDENTIFIERS_ERROR_MESSAGE</t>
+  </si>
+  <si>
     <t>ORDER_STATUS_NULL_ERROR_MESSAGE</t>
   </si>
   <si>
-    <t>PAGE_SIZE_NON_POSITIVE_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>EMAIL_INVALID_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>IDENTIFIERS_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>PAGE_NULL_ERROR_MESSAGE</t>
-  </si>
-  <si>
     <t>PAGE_SIZE_NULL_ERROR_MESSAGE</t>
   </si>
   <si>
-    <t>emailSender</t>
-  </si>
-  <si>
-    <t>PAGE_NEGATIVE_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>ORDER_SORTING_ORDER_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>EMAIL_NULL_ERROR_MESSAGE</t>
-  </si>
-  <si>
     <t>locationDTOModelMapper</t>
   </si>
   <si>
     <t>locationService</t>
   </si>
   <si>
+    <t>ORDER_ENTRY_NOT_FOUND_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
+    <t>productOrderValidator</t>
+  </si>
+  <si>
     <t>ORDER_ENTRIES_CONFLICT_EXCEPTION_MESSAGE</t>
   </si>
   <si>
+    <t>ORDER_ENTRY_CONFLICT_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
     <t>orderEntryModelEntityMapper</t>
   </si>
   <si>
-    <t>ORDER_ENTRY_NOT_FOUND_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
-    <t>productOrderValidator</t>
-  </si>
-  <si>
-    <t>ORDER_ENTRY_CONFLICT_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -1785,6 +1785,12 @@
     <t>15</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>88</t>
   </si>
   <si>
@@ -1795,12 +1801,6 @@
   </si>
   <si>
     <t>166</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>13</t>
   </si>
   <si>
     <t>25</t>
@@ -16649,7 +16649,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C486"/>
+  <dimension ref="A1:C494"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16957,10 +16957,10 @@
         <v>51</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>533</v>
+        <v>587</v>
       </c>
     </row>
     <row r="29">
@@ -16968,10 +16968,10 @@
         <v>51</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="30">
@@ -16979,7 +16979,7 @@
         <v>51</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>533</v>
@@ -16990,7 +16990,7 @@
         <v>51</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>533</v>
@@ -17001,7 +17001,7 @@
         <v>51</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>533</v>
@@ -17012,7 +17012,7 @@
         <v>51</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>533</v>
@@ -17023,7 +17023,7 @@
         <v>51</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>533</v>
@@ -17034,7 +17034,7 @@
         <v>51</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>533</v>
@@ -17045,7 +17045,7 @@
         <v>51</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>533</v>
@@ -17056,7 +17056,7 @@
         <v>51</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>533</v>
@@ -17067,7 +17067,7 @@
         <v>51</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>533</v>
@@ -17078,7 +17078,7 @@
         <v>51</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>533</v>
@@ -17089,7 +17089,7 @@
         <v>51</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>533</v>
@@ -17100,7 +17100,7 @@
         <v>51</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>533</v>
@@ -17111,7 +17111,7 @@
         <v>51</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>533</v>
@@ -17122,7 +17122,7 @@
         <v>51</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>533</v>
@@ -17133,7 +17133,7 @@
         <v>51</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>533</v>
@@ -17144,7 +17144,7 @@
         <v>51</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>533</v>
@@ -17155,7 +17155,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>533</v>
@@ -17166,7 +17166,7 @@
         <v>51</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>533</v>
@@ -17177,7 +17177,7 @@
         <v>51</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>533</v>
@@ -17188,7 +17188,7 @@
         <v>51</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>533</v>
@@ -17199,29 +17199,29 @@
         <v>51</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>527</v>
@@ -17232,7 +17232,7 @@
         <v>89</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>527</v>
@@ -17243,7 +17243,7 @@
         <v>89</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>527</v>
@@ -17254,7 +17254,7 @@
         <v>89</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>527</v>
@@ -17265,7 +17265,7 @@
         <v>89</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>527</v>
@@ -17273,10 +17273,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>527</v>
@@ -17284,24 +17284,24 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="60">
@@ -17309,7 +17309,7 @@
         <v>100</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>537</v>
@@ -17320,7 +17320,7 @@
         <v>100</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>537</v>
@@ -17331,7 +17331,7 @@
         <v>100</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>537</v>
@@ -17342,7 +17342,7 @@
         <v>100</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>537</v>
@@ -17353,7 +17353,7 @@
         <v>100</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>537</v>
@@ -17364,7 +17364,7 @@
         <v>100</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>537</v>
@@ -17375,7 +17375,7 @@
         <v>100</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>537</v>
@@ -17386,7 +17386,7 @@
         <v>100</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>537</v>
@@ -17397,7 +17397,7 @@
         <v>100</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>537</v>
@@ -17408,7 +17408,7 @@
         <v>100</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>537</v>
@@ -17419,10 +17419,10 @@
         <v>100</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="71">
@@ -17430,32 +17430,32 @@
         <v>100</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="74">
@@ -17463,7 +17463,7 @@
         <v>109</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>537</v>
@@ -17474,7 +17474,7 @@
         <v>109</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>537</v>
@@ -17485,7 +17485,7 @@
         <v>109</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>537</v>
@@ -17496,7 +17496,7 @@
         <v>109</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>537</v>
@@ -17507,10 +17507,10 @@
         <v>109</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="79">
@@ -17518,18 +17518,18 @@
         <v>109</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>533</v>
@@ -17537,10 +17537,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>533</v>
@@ -17551,7 +17551,7 @@
         <v>112</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>533</v>
@@ -17562,7 +17562,7 @@
         <v>112</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>533</v>
@@ -17573,10 +17573,10 @@
         <v>112</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>533</v>
+        <v>588</v>
       </c>
     </row>
     <row r="85">
@@ -17584,7 +17584,7 @@
         <v>112</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>533</v>
@@ -17595,7 +17595,7 @@
         <v>112</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>533</v>
@@ -17606,7 +17606,7 @@
         <v>112</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>533</v>
@@ -17617,7 +17617,7 @@
         <v>112</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>533</v>
@@ -17628,7 +17628,7 @@
         <v>112</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>533</v>
@@ -17639,7 +17639,7 @@
         <v>112</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>533</v>
@@ -17650,7 +17650,7 @@
         <v>112</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>533</v>
@@ -17661,7 +17661,7 @@
         <v>112</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>533</v>
@@ -17672,7 +17672,7 @@
         <v>112</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>533</v>
@@ -17683,7 +17683,7 @@
         <v>112</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>533</v>
@@ -17694,10 +17694,10 @@
         <v>112</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>587</v>
+        <v>533</v>
       </c>
     </row>
     <row r="96">
@@ -17705,7 +17705,7 @@
         <v>112</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>533</v>
@@ -17716,10 +17716,10 @@
         <v>112</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>588</v>
+        <v>533</v>
       </c>
     </row>
     <row r="98">
@@ -17727,18 +17727,18 @@
         <v>112</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>533</v>
+        <v>589</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>533</v>
@@ -17746,21 +17746,21 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>582</v>
+        <v>590</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>533</v>
@@ -17768,10 +17768,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>533</v>
@@ -17779,21 +17779,21 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>533</v>
@@ -17804,7 +17804,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>533</v>
@@ -17815,7 +17815,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>533</v>
@@ -17826,10 +17826,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>533</v>
+        <v>591</v>
       </c>
     </row>
     <row r="108">
@@ -17837,7 +17837,7 @@
         <v>105</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>533</v>
@@ -17848,7 +17848,7 @@
         <v>105</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>533</v>
@@ -17859,7 +17859,7 @@
         <v>105</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>533</v>
@@ -17870,7 +17870,7 @@
         <v>105</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>533</v>
@@ -17881,7 +17881,7 @@
         <v>105</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>533</v>
@@ -17892,7 +17892,7 @@
         <v>105</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>533</v>
@@ -17903,7 +17903,7 @@
         <v>105</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>533</v>
@@ -17914,7 +17914,7 @@
         <v>105</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>533</v>
@@ -17925,7 +17925,7 @@
         <v>105</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>533</v>
@@ -17936,7 +17936,7 @@
         <v>105</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>533</v>
@@ -17947,7 +17947,7 @@
         <v>105</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>533</v>
@@ -17958,7 +17958,7 @@
         <v>105</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>533</v>
@@ -17969,7 +17969,7 @@
         <v>105</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>533</v>
@@ -17980,7 +17980,7 @@
         <v>105</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>533</v>
@@ -17991,7 +17991,7 @@
         <v>105</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>533</v>
@@ -18002,7 +18002,7 @@
         <v>105</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>533</v>
@@ -18013,7 +18013,7 @@
         <v>105</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>533</v>
@@ -18024,7 +18024,7 @@
         <v>105</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>533</v>
@@ -18035,7 +18035,7 @@
         <v>105</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>533</v>
@@ -18046,7 +18046,7 @@
         <v>105</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>533</v>
@@ -18057,7 +18057,7 @@
         <v>105</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>533</v>
@@ -18068,10 +18068,10 @@
         <v>105</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="C129" t="s" s="0">
-        <v>590</v>
+        <v>533</v>
       </c>
     </row>
     <row r="130">
@@ -18079,7 +18079,7 @@
         <v>105</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>533</v>
@@ -18090,10 +18090,10 @@
         <v>105</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>26</v>
+        <v>149</v>
       </c>
       <c r="C131" t="s" s="0">
-        <v>572</v>
+        <v>533</v>
       </c>
     </row>
     <row r="132">
@@ -18101,7 +18101,7 @@
         <v>105</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>533</v>
@@ -18109,57 +18109,57 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="0">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>153</v>
+        <v>17</v>
       </c>
       <c r="C133" t="s" s="0">
-        <v>527</v>
+        <v>592</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="0">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="C134" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="0">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="C135" t="s" s="0">
-        <v>537</v>
+        <v>572</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="0">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="C136" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="0">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C137" t="s" s="0">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="138">
@@ -18167,7 +18167,7 @@
         <v>155</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>158</v>
+        <v>45</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>537</v>
@@ -18178,7 +18178,7 @@
         <v>155</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C139" t="s" s="0">
         <v>537</v>
@@ -18189,7 +18189,7 @@
         <v>155</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>537</v>
@@ -18200,7 +18200,7 @@
         <v>155</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>537</v>
@@ -18211,7 +18211,7 @@
         <v>155</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>537</v>
@@ -18222,10 +18222,10 @@
         <v>155</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="C143" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="144">
@@ -18233,54 +18233,54 @@
         <v>155</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="C144" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="0">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="C145" t="s" s="0">
-        <v>573</v>
+        <v>537</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="0">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="C146" t="s" s="0">
-        <v>573</v>
+        <v>537</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="0">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="C147" t="s" s="0">
-        <v>591</v>
+        <v>533</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="0">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="C148" t="s" s="0">
-        <v>591</v>
+        <v>533</v>
       </c>
     </row>
     <row r="149">
@@ -18288,10 +18288,10 @@
         <v>164</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="C149" t="s" s="0">
-        <v>591</v>
+        <v>573</v>
       </c>
     </row>
     <row r="150">
@@ -18299,10 +18299,10 @@
         <v>164</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="C150" t="s" s="0">
-        <v>591</v>
+        <v>573</v>
       </c>
     </row>
     <row r="151">
@@ -18310,10 +18310,10 @@
         <v>164</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C151" t="s" s="0">
-        <v>573</v>
+        <v>588</v>
       </c>
     </row>
     <row r="152">
@@ -18321,10 +18321,10 @@
         <v>164</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C152" t="s" s="0">
-        <v>533</v>
+        <v>588</v>
       </c>
     </row>
     <row r="153">
@@ -18332,10 +18332,10 @@
         <v>164</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C153" t="s" s="0">
-        <v>533</v>
+        <v>588</v>
       </c>
     </row>
     <row r="154">
@@ -18343,10 +18343,10 @@
         <v>164</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>173</v>
+        <v>94</v>
       </c>
       <c r="C154" t="s" s="0">
-        <v>559</v>
+        <v>588</v>
       </c>
     </row>
     <row r="155">
@@ -18354,10 +18354,10 @@
         <v>164</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="C155" t="s" s="0">
-        <v>592</v>
+        <v>573</v>
       </c>
     </row>
     <row r="156">
@@ -18365,18 +18365,18 @@
         <v>164</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C156" t="s" s="0">
-        <v>573</v>
+        <v>533</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="0">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>62</v>
+        <v>170</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>533</v>
@@ -18384,35 +18384,35 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="0">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>58</v>
+        <v>173</v>
       </c>
       <c r="C158" t="s" s="0">
-        <v>533</v>
+        <v>559</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="0">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C159" t="s" s="0">
-        <v>533</v>
+        <v>587</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="0">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C160" t="s" s="0">
-        <v>533</v>
+        <v>573</v>
       </c>
     </row>
     <row r="161">
@@ -18420,10 +18420,10 @@
         <v>93</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C161" t="s" s="0">
-        <v>533</v>
+        <v>548</v>
       </c>
     </row>
     <row r="162">
@@ -18431,7 +18431,7 @@
         <v>93</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>533</v>
@@ -18442,7 +18442,7 @@
         <v>93</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>533</v>
@@ -18453,7 +18453,7 @@
         <v>93</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>533</v>
@@ -18464,7 +18464,7 @@
         <v>93</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>533</v>
@@ -18475,10 +18475,10 @@
         <v>93</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="C166" t="s" s="0">
-        <v>567</v>
+        <v>533</v>
       </c>
     </row>
     <row r="167">
@@ -18486,7 +18486,7 @@
         <v>93</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>533</v>
@@ -18497,10 +18497,10 @@
         <v>93</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>26</v>
+        <v>183</v>
       </c>
       <c r="C168" t="s" s="0">
-        <v>592</v>
+        <v>533</v>
       </c>
     </row>
     <row r="169">
@@ -18508,7 +18508,7 @@
         <v>93</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>533</v>
@@ -18516,10 +18516,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="0">
-        <v>379</v>
+        <v>93</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>382</v>
+        <v>184</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>533</v>
@@ -18527,43 +18527,43 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="0">
-        <v>379</v>
+        <v>93</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>380</v>
+        <v>17</v>
       </c>
       <c r="C171" t="s" s="0">
-        <v>533</v>
+        <v>567</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="0">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="C172" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="0">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>194</v>
+        <v>26</v>
       </c>
       <c r="C173" t="s" s="0">
-        <v>548</v>
+        <v>587</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="0">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>198</v>
+        <v>32</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>533</v>
@@ -18571,10 +18571,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="0">
-        <v>187</v>
+        <v>379</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>195</v>
+        <v>382</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>533</v>
@@ -18582,24 +18582,24 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="0">
-        <v>187</v>
+        <v>379</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>196</v>
+        <v>380</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>577</v>
+        <v>533</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="0">
-        <v>187</v>
+        <v>379</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>193</v>
+        <v>381</v>
       </c>
       <c r="C177" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="178">
@@ -18607,10 +18607,10 @@
         <v>187</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C178" t="s" s="0">
-        <v>527</v>
+        <v>537</v>
       </c>
     </row>
     <row r="179">
@@ -18618,98 +18618,98 @@
         <v>187</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C179" t="s" s="0">
-        <v>527</v>
+        <v>548</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="0">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C180" t="s" s="0">
-        <v>593</v>
+        <v>533</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="0">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C181" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="0">
-        <v>383</v>
+        <v>187</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>90</v>
+        <v>196</v>
       </c>
       <c r="C182" t="s" s="0">
-        <v>591</v>
+        <v>577</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="0">
-        <v>383</v>
+        <v>187</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="C183" t="s" s="0">
-        <v>577</v>
+        <v>537</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="0">
-        <v>383</v>
+        <v>187</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>386</v>
+        <v>190</v>
       </c>
       <c r="C184" t="s" s="0">
-        <v>573</v>
+        <v>527</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="0">
-        <v>383</v>
+        <v>187</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>91</v>
+        <v>192</v>
       </c>
       <c r="C185" t="s" s="0">
-        <v>573</v>
+        <v>527</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="0">
-        <v>383</v>
+        <v>199</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>384</v>
+        <v>201</v>
       </c>
       <c r="C186" t="s" s="0">
-        <v>573</v>
+        <v>593</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="0">
-        <v>383</v>
+        <v>199</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>94</v>
+        <v>200</v>
       </c>
       <c r="C187" t="s" s="0">
-        <v>594</v>
+        <v>537</v>
       </c>
     </row>
     <row r="188">
@@ -18717,10 +18717,10 @@
         <v>383</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>385</v>
+        <v>90</v>
       </c>
       <c r="C188" t="s" s="0">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="189">
@@ -18728,10 +18728,10 @@
         <v>383</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>543</v>
+        <v>96</v>
       </c>
       <c r="C189" t="s" s="0">
-        <v>527</v>
+        <v>577</v>
       </c>
     </row>
     <row r="190">
@@ -18739,172 +18739,172 @@
         <v>383</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>542</v>
+        <v>386</v>
       </c>
       <c r="C190" t="s" s="0">
-        <v>527</v>
+        <v>573</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="0">
-        <v>202</v>
+        <v>383</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>205</v>
+        <v>91</v>
       </c>
       <c r="C191" t="s" s="0">
-        <v>527</v>
+        <v>573</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="0">
-        <v>202</v>
+        <v>383</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>203</v>
+        <v>384</v>
       </c>
       <c r="C192" t="s" s="0">
-        <v>592</v>
+        <v>573</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="0">
-        <v>206</v>
+        <v>383</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="C193" t="s" s="0">
-        <v>537</v>
+        <v>594</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="0">
-        <v>206</v>
+        <v>383</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>209</v>
+        <v>385</v>
       </c>
       <c r="C194" t="s" s="0">
-        <v>537</v>
+        <v>582</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="0">
-        <v>206</v>
+        <v>383</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>207</v>
+        <v>543</v>
       </c>
       <c r="C195" t="s" s="0">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="0">
-        <v>206</v>
+        <v>383</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>210</v>
+        <v>542</v>
       </c>
       <c r="C196" t="s" s="0">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s" s="0">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>35</v>
+        <v>205</v>
       </c>
       <c r="C197" t="s" s="0">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s" s="0">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>32</v>
+        <v>203</v>
       </c>
       <c r="C198" t="s" s="0">
-        <v>533</v>
+        <v>587</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s" s="0">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>96</v>
+        <v>208</v>
       </c>
       <c r="C199" t="s" s="0">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s" s="0">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="C200" t="s" s="0">
-        <v>527</v>
+        <v>537</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="0">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C201" t="s" s="0">
-        <v>527</v>
+        <v>537</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s" s="0">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>94</v>
+        <v>207</v>
       </c>
       <c r="C202" t="s" s="0">
-        <v>527</v>
+        <v>537</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="0">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C203" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s" s="0">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>220</v>
+        <v>35</v>
       </c>
       <c r="C204" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s" s="0">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>218</v>
+        <v>32</v>
       </c>
       <c r="C205" t="s" s="0">
         <v>533</v>
@@ -18912,76 +18912,76 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="0">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>221</v>
+        <v>96</v>
       </c>
       <c r="C206" t="s" s="0">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="0">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C207" t="s" s="0">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="0">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="C208" t="s" s="0">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s" s="0">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>229</v>
+        <v>94</v>
       </c>
       <c r="C209" t="s" s="0">
-        <v>573</v>
+        <v>527</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="0">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C210" t="s" s="0">
-        <v>577</v>
+        <v>527</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s" s="0">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C211" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s" s="0">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C212" t="s" s="0">
         <v>527</v>
@@ -18989,24 +18989,24 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="0">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C213" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s" s="0">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C214" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="215">
@@ -19014,161 +19014,161 @@
         <v>222</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C215" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s" s="0">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="C216" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="0">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C217" t="s" s="0">
-        <v>533</v>
+        <v>573</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s" s="0">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="C218" t="s" s="0">
-        <v>533</v>
+        <v>577</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="0">
-        <v>387</v>
+        <v>222</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>388</v>
+        <v>228</v>
       </c>
       <c r="C219" t="s" s="0">
-        <v>577</v>
+        <v>537</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="0">
-        <v>387</v>
+        <v>222</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>389</v>
+        <v>231</v>
       </c>
       <c r="C220" t="s" s="0">
-        <v>582</v>
+        <v>527</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="0">
-        <v>387</v>
+        <v>222</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>390</v>
+        <v>225</v>
       </c>
       <c r="C221" t="s" s="0">
-        <v>582</v>
+        <v>527</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s" s="0">
-        <v>387</v>
+        <v>222</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>94</v>
+        <v>232</v>
       </c>
       <c r="C222" t="s" s="0">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s" s="0">
-        <v>387</v>
+        <v>222</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>391</v>
+        <v>224</v>
       </c>
       <c r="C223" t="s" s="0">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s" s="0">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C224" t="s" s="0">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="0">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C225" t="s" s="0">
-        <v>592</v>
+        <v>533</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s" s="0">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C226" t="s" s="0">
-        <v>593</v>
+        <v>533</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s" s="0">
-        <v>238</v>
+        <v>387</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>245</v>
+        <v>388</v>
       </c>
       <c r="C227" t="s" s="0">
-        <v>533</v>
+        <v>577</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="0">
-        <v>238</v>
+        <v>387</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>242</v>
+        <v>389</v>
       </c>
       <c r="C228" t="s" s="0">
-        <v>533</v>
+        <v>582</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s" s="0">
-        <v>238</v>
+        <v>387</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>241</v>
+        <v>390</v>
       </c>
       <c r="C229" t="s" s="0">
         <v>582</v>
@@ -19176,153 +19176,153 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="0">
-        <v>238</v>
+        <v>387</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>240</v>
+        <v>94</v>
       </c>
       <c r="C230" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="0">
-        <v>246</v>
+        <v>387</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>96</v>
+        <v>391</v>
       </c>
       <c r="C231" t="s" s="0">
-        <v>573</v>
+        <v>537</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="0">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="C232" t="s" s="0">
-        <v>591</v>
+        <v>537</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s" s="0">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="C233" t="s" s="0">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s" s="0">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>94</v>
+        <v>239</v>
       </c>
       <c r="C234" t="s" s="0">
-        <v>589</v>
+        <v>593</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="0">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C235" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s" s="0">
-        <v>63</v>
+        <v>238</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C236" t="s" s="0">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s" s="0">
-        <v>63</v>
+        <v>238</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="C237" t="s" s="0">
-        <v>537</v>
+        <v>582</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s" s="0">
-        <v>63</v>
+        <v>238</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="C238" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s" s="0">
-        <v>63</v>
+        <v>246</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>253</v>
+        <v>96</v>
       </c>
       <c r="C239" t="s" s="0">
-        <v>537</v>
+        <v>573</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s" s="0">
-        <v>63</v>
+        <v>246</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="C240" t="s" s="0">
-        <v>537</v>
+        <v>588</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s" s="0">
-        <v>63</v>
+        <v>246</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="C241" t="s" s="0">
-        <v>537</v>
+        <v>588</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s" s="0">
-        <v>63</v>
+        <v>246</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>251</v>
+        <v>94</v>
       </c>
       <c r="C242" t="s" s="0">
-        <v>537</v>
+        <v>591</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s" s="0">
-        <v>63</v>
+        <v>246</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C243" t="s" s="0">
         <v>537</v>
@@ -19333,10 +19333,10 @@
         <v>63</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>31</v>
+        <v>252</v>
       </c>
       <c r="C244" t="s" s="0">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="245">
@@ -19344,7 +19344,7 @@
         <v>63</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C245" t="s" s="0">
         <v>537</v>
@@ -19355,7 +19355,7 @@
         <v>63</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="C246" t="s" s="0">
         <v>537</v>
@@ -19366,7 +19366,7 @@
         <v>63</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>28</v>
+        <v>253</v>
       </c>
       <c r="C247" t="s" s="0">
         <v>537</v>
@@ -19377,10 +19377,10 @@
         <v>63</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>35</v>
+        <v>248</v>
       </c>
       <c r="C248" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="249">
@@ -19388,29 +19388,29 @@
         <v>63</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>32</v>
+        <v>250</v>
       </c>
       <c r="C249" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s" s="0">
-        <v>186</v>
+        <v>63</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C250" t="s" s="0">
-        <v>528</v>
+        <v>537</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s" s="0">
-        <v>186</v>
+        <v>63</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>45</v>
+        <v>249</v>
       </c>
       <c r="C251" t="s" s="0">
         <v>537</v>
@@ -19418,10 +19418,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="0">
-        <v>186</v>
+        <v>63</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>209</v>
+        <v>31</v>
       </c>
       <c r="C252" t="s" s="0">
         <v>537</v>
@@ -19429,10 +19429,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="0">
-        <v>186</v>
+        <v>63</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>254</v>
+        <v>41</v>
       </c>
       <c r="C253" t="s" s="0">
         <v>537</v>
@@ -19440,10 +19440,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="0">
-        <v>186</v>
+        <v>63</v>
       </c>
       <c r="B254" t="s" s="0">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="C254" t="s" s="0">
         <v>537</v>
@@ -19451,21 +19451,21 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="0">
-        <v>186</v>
+        <v>63</v>
       </c>
       <c r="B255" t="s" s="0">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C255" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s" s="0">
-        <v>186</v>
+        <v>63</v>
       </c>
       <c r="B256" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C256" t="s" s="0">
         <v>533</v>
@@ -19473,10 +19473,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="0">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="B257" t="s" s="0">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="C257" t="s" s="0">
         <v>533</v>
@@ -19484,65 +19484,65 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="0">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>131</v>
+        <v>255</v>
       </c>
       <c r="C258" t="s" s="0">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s" s="0">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>269</v>
+        <v>45</v>
       </c>
       <c r="C259" t="s" s="0">
-        <v>577</v>
+        <v>537</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s" s="0">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>62</v>
+        <v>209</v>
       </c>
       <c r="C260" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s" s="0">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="B261" t="s" s="0">
-        <v>58</v>
+        <v>254</v>
       </c>
       <c r="C261" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s" s="0">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="B262" t="s" s="0">
-        <v>264</v>
+        <v>210</v>
       </c>
       <c r="C262" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s" s="0">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="B263" t="s" s="0">
-        <v>266</v>
+        <v>35</v>
       </c>
       <c r="C263" t="s" s="0">
         <v>533</v>
@@ -19550,10 +19550,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="0">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="B264" t="s" s="0">
-        <v>267</v>
+        <v>32</v>
       </c>
       <c r="C264" t="s" s="0">
         <v>533</v>
@@ -19564,7 +19564,7 @@
         <v>135</v>
       </c>
       <c r="B265" t="s" s="0">
-        <v>258</v>
+        <v>119</v>
       </c>
       <c r="C265" t="s" s="0">
         <v>533</v>
@@ -19575,7 +19575,7 @@
         <v>135</v>
       </c>
       <c r="B266" t="s" s="0">
-        <v>262</v>
+        <v>131</v>
       </c>
       <c r="C266" t="s" s="0">
         <v>533</v>
@@ -19586,10 +19586,10 @@
         <v>135</v>
       </c>
       <c r="B267" t="s" s="0">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C267" t="s" s="0">
-        <v>533</v>
+        <v>577</v>
       </c>
     </row>
     <row r="268">
@@ -19597,7 +19597,7 @@
         <v>135</v>
       </c>
       <c r="B268" t="s" s="0">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="C268" t="s" s="0">
         <v>533</v>
@@ -19608,7 +19608,7 @@
         <v>135</v>
       </c>
       <c r="B269" t="s" s="0">
-        <v>256</v>
+        <v>58</v>
       </c>
       <c r="C269" t="s" s="0">
         <v>533</v>
@@ -19619,7 +19619,7 @@
         <v>135</v>
       </c>
       <c r="B270" t="s" s="0">
-        <v>66</v>
+        <v>264</v>
       </c>
       <c r="C270" t="s" s="0">
         <v>533</v>
@@ -19630,7 +19630,7 @@
         <v>135</v>
       </c>
       <c r="B271" t="s" s="0">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C271" t="s" s="0">
         <v>533</v>
@@ -19641,7 +19641,7 @@
         <v>135</v>
       </c>
       <c r="B272" t="s" s="0">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C272" t="s" s="0">
         <v>533</v>
@@ -19652,7 +19652,7 @@
         <v>135</v>
       </c>
       <c r="B273" t="s" s="0">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C273" t="s" s="0">
         <v>533</v>
@@ -19663,7 +19663,7 @@
         <v>135</v>
       </c>
       <c r="B274" t="s" s="0">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C274" t="s" s="0">
         <v>533</v>
@@ -19674,7 +19674,7 @@
         <v>135</v>
       </c>
       <c r="B275" t="s" s="0">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C275" t="s" s="0">
         <v>533</v>
@@ -19685,7 +19685,7 @@
         <v>135</v>
       </c>
       <c r="B276" t="s" s="0">
-        <v>263</v>
+        <v>122</v>
       </c>
       <c r="C276" t="s" s="0">
         <v>533</v>
@@ -19696,7 +19696,7 @@
         <v>135</v>
       </c>
       <c r="B277" t="s" s="0">
-        <v>117</v>
+        <v>256</v>
       </c>
       <c r="C277" t="s" s="0">
         <v>533</v>
@@ -19707,7 +19707,7 @@
         <v>135</v>
       </c>
       <c r="B278" t="s" s="0">
-        <v>268</v>
+        <v>66</v>
       </c>
       <c r="C278" t="s" s="0">
         <v>533</v>
@@ -19718,10 +19718,10 @@
         <v>135</v>
       </c>
       <c r="B279" t="s" s="0">
-        <v>17</v>
+        <v>261</v>
       </c>
       <c r="C279" t="s" s="0">
-        <v>595</v>
+        <v>533</v>
       </c>
     </row>
     <row r="280">
@@ -19729,7 +19729,7 @@
         <v>135</v>
       </c>
       <c r="B280" t="s" s="0">
-        <v>124</v>
+        <v>260</v>
       </c>
       <c r="C280" t="s" s="0">
         <v>533</v>
@@ -19740,10 +19740,10 @@
         <v>135</v>
       </c>
       <c r="B281" t="s" s="0">
-        <v>26</v>
+        <v>265</v>
       </c>
       <c r="C281" t="s" s="0">
-        <v>574</v>
+        <v>533</v>
       </c>
     </row>
     <row r="282">
@@ -19751,7 +19751,7 @@
         <v>135</v>
       </c>
       <c r="B282" t="s" s="0">
-        <v>32</v>
+        <v>259</v>
       </c>
       <c r="C282" t="s" s="0">
         <v>533</v>
@@ -19759,10 +19759,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="0">
-        <v>272</v>
+        <v>135</v>
       </c>
       <c r="B283" t="s" s="0">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C283" t="s" s="0">
         <v>533</v>
@@ -19770,10 +19770,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="0">
-        <v>272</v>
+        <v>135</v>
       </c>
       <c r="B284" t="s" s="0">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="C284" t="s" s="0">
         <v>533</v>
@@ -19781,10 +19781,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="0">
-        <v>272</v>
+        <v>135</v>
       </c>
       <c r="B285" t="s" s="0">
-        <v>279</v>
+        <v>117</v>
       </c>
       <c r="C285" t="s" s="0">
         <v>533</v>
@@ -19792,10 +19792,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="0">
-        <v>272</v>
+        <v>135</v>
       </c>
       <c r="B286" t="s" s="0">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C286" t="s" s="0">
         <v>533</v>
@@ -19803,21 +19803,21 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="0">
-        <v>272</v>
+        <v>135</v>
       </c>
       <c r="B287" t="s" s="0">
-        <v>277</v>
+        <v>17</v>
       </c>
       <c r="C287" t="s" s="0">
-        <v>533</v>
+        <v>595</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s" s="0">
-        <v>272</v>
+        <v>135</v>
       </c>
       <c r="B288" t="s" s="0">
-        <v>273</v>
+        <v>124</v>
       </c>
       <c r="C288" t="s" s="0">
         <v>533</v>
@@ -19825,54 +19825,54 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="0">
-        <v>272</v>
+        <v>135</v>
       </c>
       <c r="B289" t="s" s="0">
-        <v>276</v>
+        <v>26</v>
       </c>
       <c r="C289" t="s" s="0">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s" s="0">
-        <v>280</v>
+        <v>135</v>
       </c>
       <c r="B290" t="s" s="0">
-        <v>281</v>
+        <v>32</v>
       </c>
       <c r="C290" t="s" s="0">
-        <v>573</v>
+        <v>533</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s" s="0">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B291" t="s" s="0">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C291" t="s" s="0">
-        <v>548</v>
+        <v>533</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s" s="0">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B292" t="s" s="0">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C292" t="s" s="0">
-        <v>577</v>
+        <v>533</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s" s="0">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B293" t="s" s="0">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C293" t="s" s="0">
         <v>533</v>
@@ -19880,98 +19880,98 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="0">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B294" t="s" s="0">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C294" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s" s="0">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="B295" t="s" s="0">
-        <v>96</v>
+        <v>277</v>
       </c>
       <c r="C295" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s" s="0">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="B296" t="s" s="0">
-        <v>175</v>
+        <v>273</v>
       </c>
       <c r="C296" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s" s="0">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="B297" t="s" s="0">
-        <v>176</v>
+        <v>276</v>
       </c>
       <c r="C297" t="s" s="0">
-        <v>527</v>
+        <v>582</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s" s="0">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B298" t="s" s="0">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="C298" t="s" s="0">
-        <v>527</v>
+        <v>573</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s" s="0">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B299" t="s" s="0">
-        <v>169</v>
+        <v>286</v>
       </c>
       <c r="C299" t="s" s="0">
-        <v>527</v>
+        <v>548</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s" s="0">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B300" t="s" s="0">
-        <v>94</v>
+        <v>282</v>
       </c>
       <c r="C300" t="s" s="0">
-        <v>527</v>
+        <v>577</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s" s="0">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B301" t="s" s="0">
-        <v>173</v>
+        <v>283</v>
       </c>
       <c r="C301" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s" s="0">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B302" t="s" s="0">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="C302" t="s" s="0">
         <v>527</v>
@@ -19979,167 +19979,167 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="0">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B303" t="s" s="0">
-        <v>298</v>
+        <v>96</v>
       </c>
       <c r="C303" t="s" s="0">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s" s="0">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B304" t="s" s="0">
-        <v>291</v>
+        <v>175</v>
       </c>
       <c r="C304" t="s" s="0">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s" s="0">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B305" t="s" s="0">
-        <v>297</v>
+        <v>176</v>
       </c>
       <c r="C305" t="s" s="0">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s" s="0">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B306" t="s" s="0">
-        <v>294</v>
+        <v>174</v>
       </c>
       <c r="C306" t="s" s="0">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s" s="0">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B307" t="s" s="0">
-        <v>289</v>
+        <v>169</v>
       </c>
       <c r="C307" t="s" s="0">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s" s="0">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B308" t="s" s="0">
-        <v>293</v>
+        <v>94</v>
       </c>
       <c r="C308" t="s" s="0">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s" s="0">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B309" t="s" s="0">
-        <v>295</v>
+        <v>173</v>
       </c>
       <c r="C309" t="s" s="0">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s" s="0">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B310" t="s" s="0">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C310" t="s" s="0">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s" s="0">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B311" t="s" s="0">
-        <v>45</v>
+        <v>298</v>
       </c>
       <c r="C311" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s" s="0">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B312" t="s" s="0">
-        <v>163</v>
+        <v>291</v>
       </c>
       <c r="C312" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s" s="0">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B313" t="s" s="0">
-        <v>157</v>
+        <v>297</v>
       </c>
       <c r="C313" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s" s="0">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B314" t="s" s="0">
-        <v>162</v>
+        <v>294</v>
       </c>
       <c r="C314" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s" s="0">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B315" t="s" s="0">
-        <v>159</v>
+        <v>289</v>
       </c>
       <c r="C315" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s" s="0">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B316" t="s" s="0">
-        <v>161</v>
+        <v>293</v>
       </c>
       <c r="C316" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s" s="0">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B317" t="s" s="0">
-        <v>158</v>
+        <v>295</v>
       </c>
       <c r="C317" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="318">
@@ -20147,10 +20147,10 @@
         <v>300</v>
       </c>
       <c r="B318" t="s" s="0">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C318" t="s" s="0">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="319">
@@ -20158,7 +20158,7 @@
         <v>300</v>
       </c>
       <c r="B319" t="s" s="0">
-        <v>303</v>
+        <v>45</v>
       </c>
       <c r="C319" t="s" s="0">
         <v>537</v>
@@ -20169,10 +20169,10 @@
         <v>300</v>
       </c>
       <c r="B320" t="s" s="0">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="C320" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="321">
@@ -20180,84 +20180,84 @@
         <v>300</v>
       </c>
       <c r="B321" t="s" s="0">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="C321" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s" s="0">
-        <v>87</v>
+        <v>300</v>
       </c>
       <c r="B322" t="s" s="0">
-        <v>304</v>
+        <v>162</v>
       </c>
       <c r="C322" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s" s="0">
-        <v>87</v>
+        <v>300</v>
       </c>
       <c r="B323" t="s" s="0">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="C323" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s" s="0">
-        <v>87</v>
+        <v>300</v>
       </c>
       <c r="B324" t="s" s="0">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="C324" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s" s="0">
-        <v>87</v>
+        <v>300</v>
       </c>
       <c r="B325" t="s" s="0">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="C325" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s" s="0">
-        <v>87</v>
+        <v>300</v>
       </c>
       <c r="B326" t="s" s="0">
-        <v>121</v>
+        <v>301</v>
       </c>
       <c r="C326" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s" s="0">
-        <v>87</v>
+        <v>300</v>
       </c>
       <c r="B327" t="s" s="0">
-        <v>129</v>
+        <v>303</v>
       </c>
       <c r="C327" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s" s="0">
-        <v>87</v>
+        <v>300</v>
       </c>
       <c r="B328" t="s" s="0">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="C328" t="s" s="0">
         <v>533</v>
@@ -20265,10 +20265,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="0">
-        <v>87</v>
+        <v>300</v>
       </c>
       <c r="B329" t="s" s="0">
-        <v>309</v>
+        <v>32</v>
       </c>
       <c r="C329" t="s" s="0">
         <v>533</v>
@@ -20279,7 +20279,7 @@
         <v>87</v>
       </c>
       <c r="B330" t="s" s="0">
-        <v>66</v>
+        <v>304</v>
       </c>
       <c r="C330" t="s" s="0">
         <v>533</v>
@@ -20290,7 +20290,7 @@
         <v>87</v>
       </c>
       <c r="B331" t="s" s="0">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="C331" t="s" s="0">
         <v>533</v>
@@ -20301,7 +20301,7 @@
         <v>87</v>
       </c>
       <c r="B332" t="s" s="0">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="C332" t="s" s="0">
         <v>533</v>
@@ -20312,7 +20312,7 @@
         <v>87</v>
       </c>
       <c r="B333" t="s" s="0">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C333" t="s" s="0">
         <v>533</v>
@@ -20323,7 +20323,7 @@
         <v>87</v>
       </c>
       <c r="B334" t="s" s="0">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C334" t="s" s="0">
         <v>533</v>
@@ -20334,7 +20334,7 @@
         <v>87</v>
       </c>
       <c r="B335" t="s" s="0">
-        <v>306</v>
+        <v>129</v>
       </c>
       <c r="C335" t="s" s="0">
         <v>533</v>
@@ -20345,10 +20345,10 @@
         <v>87</v>
       </c>
       <c r="B336" t="s" s="0">
-        <v>305</v>
+        <v>123</v>
       </c>
       <c r="C336" t="s" s="0">
-        <v>591</v>
+        <v>533</v>
       </c>
     </row>
     <row r="337">
@@ -20356,40 +20356,40 @@
         <v>87</v>
       </c>
       <c r="B337" t="s" s="0">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C337" t="s" s="0">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s" s="0">
-        <v>310</v>
+        <v>87</v>
       </c>
       <c r="B338" t="s" s="0">
-        <v>311</v>
+        <v>66</v>
       </c>
       <c r="C338" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s" s="0">
-        <v>310</v>
+        <v>87</v>
       </c>
       <c r="B339" t="s" s="0">
-        <v>281</v>
+        <v>128</v>
       </c>
       <c r="C339" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s" s="0">
-        <v>312</v>
+        <v>87</v>
       </c>
       <c r="B340" t="s" s="0">
-        <v>325</v>
+        <v>125</v>
       </c>
       <c r="C340" t="s" s="0">
         <v>533</v>
@@ -20397,65 +20397,65 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="0">
-        <v>312</v>
+        <v>87</v>
       </c>
       <c r="B341" t="s" s="0">
-        <v>320</v>
+        <v>127</v>
       </c>
       <c r="C341" t="s" s="0">
-        <v>588</v>
+        <v>533</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s" s="0">
-        <v>312</v>
+        <v>87</v>
       </c>
       <c r="B342" t="s" s="0">
-        <v>315</v>
+        <v>130</v>
       </c>
       <c r="C342" t="s" s="0">
-        <v>588</v>
+        <v>533</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s" s="0">
-        <v>312</v>
+        <v>87</v>
       </c>
       <c r="B343" t="s" s="0">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C343" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s" s="0">
-        <v>312</v>
+        <v>87</v>
       </c>
       <c r="B344" t="s" s="0">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="C344" t="s" s="0">
-        <v>573</v>
+        <v>588</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s" s="0">
-        <v>312</v>
+        <v>87</v>
       </c>
       <c r="B345" t="s" s="0">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="C345" t="s" s="0">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s" s="0">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B346" t="s" s="0">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C346" t="s" s="0">
         <v>527</v>
@@ -20463,10 +20463,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="0">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B347" t="s" s="0">
-        <v>318</v>
+        <v>281</v>
       </c>
       <c r="C347" t="s" s="0">
         <v>527</v>
@@ -20477,10 +20477,10 @@
         <v>312</v>
       </c>
       <c r="B348" t="s" s="0">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="C348" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="349">
@@ -20488,29 +20488,29 @@
         <v>312</v>
       </c>
       <c r="B349" t="s" s="0">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C349" t="s" s="0">
-        <v>527</v>
+        <v>590</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s" s="0">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B350" t="s" s="0">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C350" t="s" s="0">
-        <v>528</v>
+        <v>590</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s" s="0">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B351" t="s" s="0">
-        <v>45</v>
+        <v>321</v>
       </c>
       <c r="C351" t="s" s="0">
         <v>537</v>
@@ -20518,87 +20518,87 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="0">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B352" t="s" s="0">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C352" t="s" s="0">
-        <v>537</v>
+        <v>573</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s" s="0">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B353" t="s" s="0">
-        <v>210</v>
+        <v>322</v>
       </c>
       <c r="C353" t="s" s="0">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s" s="0">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B354" t="s" s="0">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c r="C354" t="s" s="0">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s" s="0">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B355" t="s" s="0">
-        <v>35</v>
+        <v>318</v>
       </c>
       <c r="C355" t="s" s="0">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s" s="0">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B356" t="s" s="0">
-        <v>32</v>
+        <v>316</v>
       </c>
       <c r="C356" t="s" s="0">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s" s="0">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B357" t="s" s="0">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="C357" t="s" s="0">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s" s="0">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="B358" t="s" s="0">
-        <v>45</v>
+        <v>327</v>
       </c>
       <c r="C358" t="s" s="0">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s" s="0">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="B359" t="s" s="0">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="C359" t="s" s="0">
         <v>537</v>
@@ -20606,10 +20606,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="0">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="B360" t="s" s="0">
-        <v>111</v>
+        <v>328</v>
       </c>
       <c r="C360" t="s" s="0">
         <v>537</v>
@@ -20617,10 +20617,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s" s="0">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="B361" t="s" s="0">
-        <v>114</v>
+        <v>210</v>
       </c>
       <c r="C361" t="s" s="0">
         <v>537</v>
@@ -20628,10 +20628,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="0">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="B362" t="s" s="0">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="C362" t="s" s="0">
         <v>537</v>
@@ -20639,21 +20639,21 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="0">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="B363" t="s" s="0">
-        <v>301</v>
+        <v>35</v>
       </c>
       <c r="C363" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="s" s="0">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="B364" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C364" t="s" s="0">
         <v>533</v>
@@ -20664,84 +20664,84 @@
         <v>307</v>
       </c>
       <c r="B365" t="s" s="0">
-        <v>32</v>
+        <v>330</v>
       </c>
       <c r="C365" t="s" s="0">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="s" s="0">
-        <v>191</v>
+        <v>307</v>
       </c>
       <c r="B366" t="s" s="0">
-        <v>333</v>
+        <v>45</v>
       </c>
       <c r="C366" t="s" s="0">
-        <v>548</v>
+        <v>537</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="s" s="0">
-        <v>191</v>
+        <v>307</v>
       </c>
       <c r="B367" t="s" s="0">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="C367" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="s" s="0">
-        <v>191</v>
+        <v>307</v>
       </c>
       <c r="B368" t="s" s="0">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="C368" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s" s="0">
-        <v>191</v>
+        <v>307</v>
       </c>
       <c r="B369" t="s" s="0">
-        <v>178</v>
+        <v>114</v>
       </c>
       <c r="C369" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="s" s="0">
-        <v>191</v>
+        <v>307</v>
       </c>
       <c r="B370" t="s" s="0">
-        <v>331</v>
+        <v>110</v>
       </c>
       <c r="C370" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="s" s="0">
-        <v>191</v>
+        <v>307</v>
       </c>
       <c r="B371" t="s" s="0">
-        <v>182</v>
+        <v>301</v>
       </c>
       <c r="C371" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="s" s="0">
-        <v>191</v>
+        <v>307</v>
       </c>
       <c r="B372" t="s" s="0">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="C372" t="s" s="0">
         <v>533</v>
@@ -20749,10 +20749,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s" s="0">
-        <v>191</v>
+        <v>307</v>
       </c>
       <c r="B373" t="s" s="0">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="C373" t="s" s="0">
         <v>533</v>
@@ -20763,10 +20763,10 @@
         <v>191</v>
       </c>
       <c r="B374" t="s" s="0">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C374" t="s" s="0">
-        <v>533</v>
+        <v>548</v>
       </c>
     </row>
     <row r="375">
@@ -20774,7 +20774,7 @@
         <v>191</v>
       </c>
       <c r="B375" t="s" s="0">
-        <v>184</v>
+        <v>62</v>
       </c>
       <c r="C375" t="s" s="0">
         <v>533</v>
@@ -20785,10 +20785,10 @@
         <v>191</v>
       </c>
       <c r="B376" t="s" s="0">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="C376" t="s" s="0">
-        <v>567</v>
+        <v>533</v>
       </c>
     </row>
     <row r="377">
@@ -20796,7 +20796,7 @@
         <v>191</v>
       </c>
       <c r="B377" t="s" s="0">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="C377" t="s" s="0">
         <v>533</v>
@@ -20807,10 +20807,10 @@
         <v>191</v>
       </c>
       <c r="B378" t="s" s="0">
-        <v>26</v>
+        <v>331</v>
       </c>
       <c r="C378" t="s" s="0">
-        <v>592</v>
+        <v>533</v>
       </c>
     </row>
     <row r="379">
@@ -20818,7 +20818,7 @@
         <v>191</v>
       </c>
       <c r="B379" t="s" s="0">
-        <v>32</v>
+        <v>182</v>
       </c>
       <c r="C379" t="s" s="0">
         <v>533</v>
@@ -20826,10 +20826,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s" s="0">
-        <v>334</v>
+        <v>191</v>
       </c>
       <c r="B380" t="s" s="0">
-        <v>336</v>
+        <v>66</v>
       </c>
       <c r="C380" t="s" s="0">
         <v>533</v>
@@ -20837,21 +20837,21 @@
     </row>
     <row r="381">
       <c r="A381" t="s" s="0">
-        <v>334</v>
+        <v>191</v>
       </c>
       <c r="B381" t="s" s="0">
-        <v>337</v>
+        <v>183</v>
       </c>
       <c r="C381" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="s" s="0">
-        <v>334</v>
+        <v>191</v>
       </c>
       <c r="B382" t="s" s="0">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C382" t="s" s="0">
         <v>533</v>
@@ -20859,10 +20859,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s" s="0">
-        <v>55</v>
+        <v>191</v>
       </c>
       <c r="B383" t="s" s="0">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="C383" t="s" s="0">
         <v>533</v>
@@ -20870,43 +20870,43 @@
     </row>
     <row r="384">
       <c r="A384" t="s" s="0">
-        <v>55</v>
+        <v>191</v>
       </c>
       <c r="B384" t="s" s="0">
-        <v>341</v>
+        <v>17</v>
       </c>
       <c r="C384" t="s" s="0">
-        <v>577</v>
+        <v>567</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="s" s="0">
-        <v>55</v>
+        <v>191</v>
       </c>
       <c r="B385" t="s" s="0">
-        <v>339</v>
+        <v>124</v>
       </c>
       <c r="C385" t="s" s="0">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="s" s="0">
-        <v>55</v>
+        <v>191</v>
       </c>
       <c r="B386" t="s" s="0">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="C386" t="s" s="0">
-        <v>533</v>
+        <v>587</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="s" s="0">
-        <v>55</v>
+        <v>191</v>
       </c>
       <c r="B387" t="s" s="0">
-        <v>266</v>
+        <v>32</v>
       </c>
       <c r="C387" t="s" s="0">
         <v>533</v>
@@ -20914,10 +20914,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s" s="0">
-        <v>55</v>
+        <v>334</v>
       </c>
       <c r="B388" t="s" s="0">
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="C388" t="s" s="0">
         <v>533</v>
@@ -20925,21 +20925,21 @@
     </row>
     <row r="389">
       <c r="A389" t="s" s="0">
-        <v>55</v>
+        <v>334</v>
       </c>
       <c r="B389" t="s" s="0">
-        <v>262</v>
+        <v>337</v>
       </c>
       <c r="C389" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="s" s="0">
-        <v>55</v>
+        <v>334</v>
       </c>
       <c r="B390" t="s" s="0">
-        <v>271</v>
+        <v>335</v>
       </c>
       <c r="C390" t="s" s="0">
         <v>533</v>
@@ -20950,7 +20950,7 @@
         <v>55</v>
       </c>
       <c r="B391" t="s" s="0">
-        <v>267</v>
+        <v>62</v>
       </c>
       <c r="C391" t="s" s="0">
         <v>533</v>
@@ -20961,10 +20961,10 @@
         <v>55</v>
       </c>
       <c r="B392" t="s" s="0">
-        <v>258</v>
+        <v>341</v>
       </c>
       <c r="C392" t="s" s="0">
-        <v>533</v>
+        <v>577</v>
       </c>
     </row>
     <row r="393">
@@ -20972,10 +20972,10 @@
         <v>55</v>
       </c>
       <c r="B393" t="s" s="0">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="C393" t="s" s="0">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="394">
@@ -20983,7 +20983,7 @@
         <v>55</v>
       </c>
       <c r="B394" t="s" s="0">
-        <v>340</v>
+        <v>58</v>
       </c>
       <c r="C394" t="s" s="0">
         <v>533</v>
@@ -20994,7 +20994,7 @@
         <v>55</v>
       </c>
       <c r="B395" t="s" s="0">
-        <v>66</v>
+        <v>266</v>
       </c>
       <c r="C395" t="s" s="0">
         <v>533</v>
@@ -21005,7 +21005,7 @@
         <v>55</v>
       </c>
       <c r="B396" t="s" s="0">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C396" t="s" s="0">
         <v>533</v>
@@ -21016,7 +21016,7 @@
         <v>55</v>
       </c>
       <c r="B397" t="s" s="0">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C397" t="s" s="0">
         <v>533</v>
@@ -21027,7 +21027,7 @@
         <v>55</v>
       </c>
       <c r="B398" t="s" s="0">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C398" t="s" s="0">
         <v>533</v>
@@ -21038,7 +21038,7 @@
         <v>55</v>
       </c>
       <c r="B399" t="s" s="0">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C399" t="s" s="0">
         <v>533</v>
@@ -21049,7 +21049,7 @@
         <v>55</v>
       </c>
       <c r="B400" t="s" s="0">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C400" t="s" s="0">
         <v>533</v>
@@ -21060,7 +21060,7 @@
         <v>55</v>
       </c>
       <c r="B401" t="s" s="0">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="C401" t="s" s="0">
         <v>533</v>
@@ -21071,7 +21071,7 @@
         <v>55</v>
       </c>
       <c r="B402" t="s" s="0">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="C402" t="s" s="0">
         <v>533</v>
@@ -21082,7 +21082,7 @@
         <v>55</v>
       </c>
       <c r="B403" t="s" s="0">
-        <v>338</v>
+        <v>66</v>
       </c>
       <c r="C403" t="s" s="0">
         <v>533</v>
@@ -21090,21 +21090,21 @@
     </row>
     <row r="404">
       <c r="A404" t="s" s="0">
-        <v>342</v>
+        <v>55</v>
       </c>
       <c r="B404" t="s" s="0">
-        <v>344</v>
+        <v>260</v>
       </c>
       <c r="C404" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="s" s="0">
-        <v>342</v>
+        <v>55</v>
       </c>
       <c r="B405" t="s" s="0">
-        <v>345</v>
+        <v>261</v>
       </c>
       <c r="C405" t="s" s="0">
         <v>533</v>
@@ -21112,10 +21112,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s" s="0">
-        <v>342</v>
+        <v>55</v>
       </c>
       <c r="B406" t="s" s="0">
-        <v>343</v>
+        <v>270</v>
       </c>
       <c r="C406" t="s" s="0">
         <v>533</v>
@@ -21123,54 +21123,54 @@
     </row>
     <row r="407">
       <c r="A407" t="s" s="0">
-        <v>346</v>
+        <v>55</v>
       </c>
       <c r="B407" t="s" s="0">
-        <v>96</v>
+        <v>263</v>
       </c>
       <c r="C407" t="s" s="0">
-        <v>573</v>
+        <v>533</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="s" s="0">
-        <v>346</v>
+        <v>55</v>
       </c>
       <c r="B408" t="s" s="0">
-        <v>348</v>
+        <v>265</v>
       </c>
       <c r="C408" t="s" s="0">
-        <v>591</v>
+        <v>533</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="s" s="0">
-        <v>346</v>
+        <v>55</v>
       </c>
       <c r="B409" t="s" s="0">
-        <v>350</v>
+        <v>259</v>
       </c>
       <c r="C409" t="s" s="0">
-        <v>591</v>
+        <v>533</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="s" s="0">
-        <v>346</v>
+        <v>55</v>
       </c>
       <c r="B410" t="s" s="0">
-        <v>94</v>
+        <v>306</v>
       </c>
       <c r="C410" t="s" s="0">
-        <v>589</v>
+        <v>533</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="s" s="0">
-        <v>346</v>
+        <v>55</v>
       </c>
       <c r="B411" t="s" s="0">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="C411" t="s" s="0">
         <v>533</v>
@@ -21178,123 +21178,123 @@
     </row>
     <row r="412">
       <c r="A412" t="s" s="0">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B412" t="s" s="0">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C412" t="s" s="0">
-        <v>559</v>
+        <v>527</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="s" s="0">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B413" t="s" s="0">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C413" t="s" s="0">
-        <v>592</v>
+        <v>533</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="s" s="0">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B414" t="s" s="0">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C414" t="s" s="0">
-        <v>548</v>
+        <v>533</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="s" s="0">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="B415" t="s" s="0">
-        <v>398</v>
+        <v>96</v>
       </c>
       <c r="C415" t="s" s="0">
-        <v>591</v>
+        <v>573</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="s" s="0">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="B416" t="s" s="0">
-        <v>96</v>
+        <v>348</v>
       </c>
       <c r="C416" t="s" s="0">
-        <v>577</v>
+        <v>588</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="s" s="0">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="B417" t="s" s="0">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="C417" t="s" s="0">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="s" s="0">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="B418" t="s" s="0">
-        <v>396</v>
+        <v>94</v>
       </c>
       <c r="C418" t="s" s="0">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="s" s="0">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="B419" t="s" s="0">
-        <v>393</v>
+        <v>347</v>
       </c>
       <c r="C419" t="s" s="0">
-        <v>582</v>
+        <v>533</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="s" s="0">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="B420" t="s" s="0">
-        <v>395</v>
+        <v>351</v>
       </c>
       <c r="C420" t="s" s="0">
-        <v>573</v>
+        <v>559</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="s" s="0">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="B421" t="s" s="0">
-        <v>94</v>
+        <v>349</v>
       </c>
       <c r="C421" t="s" s="0">
-        <v>548</v>
+        <v>587</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="s" s="0">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="B422" t="s" s="0">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="C422" t="s" s="0">
-        <v>582</v>
+        <v>548</v>
       </c>
     </row>
     <row r="423">
@@ -21302,51 +21302,51 @@
         <v>392</v>
       </c>
       <c r="B423" t="s" s="0">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C423" t="s" s="0">
-        <v>548</v>
+        <v>588</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="s" s="0">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="B424" t="s" s="0">
-        <v>354</v>
+        <v>96</v>
       </c>
       <c r="C424" t="s" s="0">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="s" s="0">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="B425" t="s" s="0">
-        <v>355</v>
+        <v>176</v>
       </c>
       <c r="C425" t="s" s="0">
-        <v>533</v>
+        <v>588</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="s" s="0">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="B426" t="s" s="0">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="C426" t="s" s="0">
-        <v>533</v>
+        <v>573</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="s" s="0">
-        <v>230</v>
+        <v>392</v>
       </c>
       <c r="B427" t="s" s="0">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="C427" t="s" s="0">
         <v>582</v>
@@ -21354,21 +21354,21 @@
     </row>
     <row r="428">
       <c r="A428" t="s" s="0">
-        <v>230</v>
+        <v>392</v>
       </c>
       <c r="B428" t="s" s="0">
-        <v>62</v>
+        <v>395</v>
       </c>
       <c r="C428" t="s" s="0">
-        <v>533</v>
+        <v>573</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="s" s="0">
-        <v>230</v>
+        <v>392</v>
       </c>
       <c r="B429" t="s" s="0">
-        <v>358</v>
+        <v>94</v>
       </c>
       <c r="C429" t="s" s="0">
         <v>548</v>
@@ -21376,43 +21376,43 @@
     </row>
     <row r="430">
       <c r="A430" t="s" s="0">
-        <v>230</v>
+        <v>392</v>
       </c>
       <c r="B430" t="s" s="0">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="C430" t="s" s="0">
-        <v>528</v>
+        <v>582</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="s" s="0">
-        <v>230</v>
+        <v>392</v>
       </c>
       <c r="B431" t="s" s="0">
-        <v>58</v>
+        <v>397</v>
       </c>
       <c r="C431" t="s" s="0">
-        <v>533</v>
+        <v>548</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="s" s="0">
-        <v>230</v>
+        <v>353</v>
       </c>
       <c r="B432" t="s" s="0">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C432" t="s" s="0">
-        <v>533</v>
+        <v>582</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="s" s="0">
-        <v>230</v>
+        <v>353</v>
       </c>
       <c r="B433" t="s" s="0">
-        <v>182</v>
+        <v>355</v>
       </c>
       <c r="C433" t="s" s="0">
         <v>533</v>
@@ -21420,10 +21420,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s" s="0">
-        <v>230</v>
+        <v>353</v>
       </c>
       <c r="B434" t="s" s="0">
-        <v>178</v>
+        <v>356</v>
       </c>
       <c r="C434" t="s" s="0">
         <v>533</v>
@@ -21434,10 +21434,10 @@
         <v>230</v>
       </c>
       <c r="B435" t="s" s="0">
-        <v>66</v>
+        <v>361</v>
       </c>
       <c r="C435" t="s" s="0">
-        <v>533</v>
+        <v>582</v>
       </c>
     </row>
     <row r="436">
@@ -21445,7 +21445,7 @@
         <v>230</v>
       </c>
       <c r="B436" t="s" s="0">
-        <v>360</v>
+        <v>62</v>
       </c>
       <c r="C436" t="s" s="0">
         <v>533</v>
@@ -21456,10 +21456,10 @@
         <v>230</v>
       </c>
       <c r="B437" t="s" s="0">
-        <v>184</v>
+        <v>358</v>
       </c>
       <c r="C437" t="s" s="0">
-        <v>533</v>
+        <v>548</v>
       </c>
     </row>
     <row r="438">
@@ -21467,84 +21467,84 @@
         <v>230</v>
       </c>
       <c r="B438" t="s" s="0">
-        <v>183</v>
+        <v>359</v>
       </c>
       <c r="C438" t="s" s="0">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="s" s="0">
-        <v>362</v>
+        <v>230</v>
       </c>
       <c r="B439" t="s" s="0">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="C439" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="s" s="0">
-        <v>362</v>
+        <v>230</v>
       </c>
       <c r="B440" t="s" s="0">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="C440" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="s" s="0">
-        <v>362</v>
+        <v>230</v>
       </c>
       <c r="B441" t="s" s="0">
-        <v>350</v>
+        <v>182</v>
       </c>
       <c r="C441" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="s" s="0">
-        <v>362</v>
+        <v>230</v>
       </c>
       <c r="B442" t="s" s="0">
-        <v>94</v>
+        <v>178</v>
       </c>
       <c r="C442" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="s" s="0">
-        <v>362</v>
+        <v>230</v>
       </c>
       <c r="B443" t="s" s="0">
-        <v>351</v>
+        <v>66</v>
       </c>
       <c r="C443" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="s" s="0">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="B444" t="s" s="0">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="C444" t="s" s="0">
-        <v>592</v>
+        <v>533</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="s" s="0">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="B445" t="s" s="0">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="C445" t="s" s="0">
         <v>533</v>
@@ -21552,10 +21552,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s" s="0">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="B446" t="s" s="0">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c r="C446" t="s" s="0">
         <v>533</v>
@@ -21563,57 +21563,57 @@
     </row>
     <row r="447">
       <c r="A447" t="s" s="0">
-        <v>36</v>
+        <v>362</v>
       </c>
       <c r="B447" t="s" s="0">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="C447" t="s" s="0">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="s" s="0">
-        <v>36</v>
+        <v>362</v>
       </c>
       <c r="B448" t="s" s="0">
-        <v>75</v>
+        <v>348</v>
       </c>
       <c r="C448" t="s" s="0">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="s" s="0">
-        <v>36</v>
+        <v>362</v>
       </c>
       <c r="B449" t="s" s="0">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="C449" t="s" s="0">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="s" s="0">
-        <v>36</v>
+        <v>362</v>
       </c>
       <c r="B450" t="s" s="0">
-        <v>364</v>
+        <v>94</v>
       </c>
       <c r="C450" t="s" s="0">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="s" s="0">
-        <v>36</v>
+        <v>362</v>
       </c>
       <c r="B451" t="s" s="0">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="C451" t="s" s="0">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="452">
@@ -21621,10 +21621,10 @@
         <v>36</v>
       </c>
       <c r="B452" t="s" s="0">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="C452" t="s" s="0">
-        <v>533</v>
+        <v>587</v>
       </c>
     </row>
     <row r="453">
@@ -21632,7 +21632,7 @@
         <v>36</v>
       </c>
       <c r="B453" t="s" s="0">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="C453" t="s" s="0">
         <v>533</v>
@@ -21643,7 +21643,7 @@
         <v>36</v>
       </c>
       <c r="B454" t="s" s="0">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C454" t="s" s="0">
         <v>533</v>
@@ -21654,7 +21654,7 @@
         <v>36</v>
       </c>
       <c r="B455" t="s" s="0">
-        <v>366</v>
+        <v>64</v>
       </c>
       <c r="C455" t="s" s="0">
         <v>533</v>
@@ -21665,7 +21665,7 @@
         <v>36</v>
       </c>
       <c r="B456" t="s" s="0">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="C456" t="s" s="0">
         <v>533</v>
@@ -21676,7 +21676,7 @@
         <v>36</v>
       </c>
       <c r="B457" t="s" s="0">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C457" t="s" s="0">
         <v>533</v>
@@ -21687,7 +21687,7 @@
         <v>36</v>
       </c>
       <c r="B458" t="s" s="0">
-        <v>61</v>
+        <v>364</v>
       </c>
       <c r="C458" t="s" s="0">
         <v>533</v>
@@ -21698,7 +21698,7 @@
         <v>36</v>
       </c>
       <c r="B459" t="s" s="0">
-        <v>67</v>
+        <v>365</v>
       </c>
       <c r="C459" t="s" s="0">
         <v>533</v>
@@ -21709,7 +21709,7 @@
         <v>36</v>
       </c>
       <c r="B460" t="s" s="0">
-        <v>73</v>
+        <v>363</v>
       </c>
       <c r="C460" t="s" s="0">
         <v>533</v>
@@ -21720,7 +21720,7 @@
         <v>36</v>
       </c>
       <c r="B461" t="s" s="0">
-        <v>370</v>
+        <v>141</v>
       </c>
       <c r="C461" t="s" s="0">
         <v>533</v>
@@ -21731,7 +21731,7 @@
         <v>36</v>
       </c>
       <c r="B462" t="s" s="0">
-        <v>368</v>
+        <v>72</v>
       </c>
       <c r="C462" t="s" s="0">
         <v>533</v>
@@ -21742,7 +21742,7 @@
         <v>36</v>
       </c>
       <c r="B463" t="s" s="0">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C463" t="s" s="0">
         <v>533</v>
@@ -21753,7 +21753,7 @@
         <v>36</v>
       </c>
       <c r="B464" t="s" s="0">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C464" t="s" s="0">
         <v>533</v>
@@ -21764,7 +21764,7 @@
         <v>36</v>
       </c>
       <c r="B465" t="s" s="0">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C465" t="s" s="0">
         <v>533</v>
@@ -21775,7 +21775,7 @@
         <v>36</v>
       </c>
       <c r="B466" t="s" s="0">
-        <v>367</v>
+        <v>61</v>
       </c>
       <c r="C466" t="s" s="0">
         <v>533</v>
@@ -21786,7 +21786,7 @@
         <v>36</v>
       </c>
       <c r="B467" t="s" s="0">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="C467" t="s" s="0">
         <v>533</v>
@@ -21797,10 +21797,10 @@
         <v>36</v>
       </c>
       <c r="B468" t="s" s="0">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="C468" t="s" s="0">
-        <v>596</v>
+        <v>533</v>
       </c>
     </row>
     <row r="469">
@@ -21808,7 +21808,7 @@
         <v>36</v>
       </c>
       <c r="B469" t="s" s="0">
-        <v>124</v>
+        <v>370</v>
       </c>
       <c r="C469" t="s" s="0">
         <v>533</v>
@@ -21819,10 +21819,10 @@
         <v>36</v>
       </c>
       <c r="B470" t="s" s="0">
-        <v>26</v>
+        <v>368</v>
       </c>
       <c r="C470" t="s" s="0">
-        <v>571</v>
+        <v>533</v>
       </c>
     </row>
     <row r="471">
@@ -21830,7 +21830,7 @@
         <v>36</v>
       </c>
       <c r="B471" t="s" s="0">
-        <v>32</v>
+        <v>369</v>
       </c>
       <c r="C471" t="s" s="0">
         <v>533</v>
@@ -21838,156 +21838,156 @@
     </row>
     <row r="472">
       <c r="A472" t="s" s="0">
-        <v>399</v>
+        <v>36</v>
       </c>
       <c r="B472" t="s" s="0">
-        <v>388</v>
+        <v>146</v>
       </c>
       <c r="C472" t="s" s="0">
-        <v>577</v>
+        <v>533</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="s" s="0">
-        <v>399</v>
+        <v>36</v>
       </c>
       <c r="B473" t="s" s="0">
-        <v>402</v>
+        <v>53</v>
       </c>
       <c r="C473" t="s" s="0">
-        <v>582</v>
+        <v>533</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="s" s="0">
-        <v>399</v>
+        <v>36</v>
       </c>
       <c r="B474" t="s" s="0">
-        <v>403</v>
+        <v>367</v>
       </c>
       <c r="C474" t="s" s="0">
-        <v>582</v>
+        <v>533</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="s" s="0">
-        <v>399</v>
+        <v>36</v>
       </c>
       <c r="B475" t="s" s="0">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="C475" t="s" s="0">
-        <v>573</v>
+        <v>533</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="s" s="0">
-        <v>399</v>
+        <v>36</v>
       </c>
       <c r="B476" t="s" s="0">
-        <v>401</v>
+        <v>17</v>
       </c>
       <c r="C476" t="s" s="0">
-        <v>582</v>
+        <v>596</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="s" s="0">
-        <v>399</v>
+        <v>36</v>
       </c>
       <c r="B477" t="s" s="0">
-        <v>400</v>
+        <v>124</v>
       </c>
       <c r="C477" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="s" s="0">
-        <v>372</v>
+        <v>36</v>
       </c>
       <c r="B478" t="s" s="0">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="C478" t="s" s="0">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="s" s="0">
-        <v>372</v>
+        <v>36</v>
       </c>
       <c r="B479" t="s" s="0">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="C479" t="s" s="0">
-        <v>573</v>
+        <v>533</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="s" s="0">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="B480" t="s" s="0">
-        <v>92</v>
+        <v>388</v>
       </c>
       <c r="C480" t="s" s="0">
-        <v>559</v>
+        <v>577</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="s" s="0">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="B481" t="s" s="0">
-        <v>91</v>
+        <v>402</v>
       </c>
       <c r="C481" t="s" s="0">
-        <v>577</v>
+        <v>582</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="s" s="0">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="B482" t="s" s="0">
-        <v>97</v>
+        <v>403</v>
       </c>
       <c r="C482" t="s" s="0">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="s" s="0">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="B483" t="s" s="0">
         <v>94</v>
       </c>
       <c r="C483" t="s" s="0">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="s" s="0">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="B484" t="s" s="0">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="C484" t="s" s="0">
-        <v>537</v>
+        <v>582</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="s" s="0">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="B485" t="s" s="0">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="C485" t="s" s="0">
-        <v>548</v>
+        <v>537</v>
       </c>
     </row>
     <row r="486">
@@ -21995,9 +21995,97 @@
         <v>372</v>
       </c>
       <c r="B486" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C486" t="s" s="0">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="B487" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C487" t="s" s="0">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="B488" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C488" t="s" s="0">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="B489" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C489" t="s" s="0">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="B490" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C490" t="s" s="0">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="B491" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C491" t="s" s="0">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="B492" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="C492" t="s" s="0">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="B493" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="C493" t="s" s="0">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="B494" t="s" s="0">
         <v>374</v>
       </c>
-      <c r="C486" t="s" s="0">
+      <c r="C494" t="s" s="0">
         <v>527</v>
       </c>
     </row>
@@ -22486,7 +22574,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -22500,7 +22588,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
@@ -22514,7 +22602,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>65</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5">
@@ -22528,7 +22616,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>143</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
@@ -22542,7 +22630,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
@@ -22584,7 +22672,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -22598,7 +22686,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>59</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
@@ -22626,7 +22714,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -22634,13 +22722,13 @@
         <v>51</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
@@ -22648,13 +22736,13 @@
         <v>51</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
@@ -22662,13 +22750,13 @@
         <v>51</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">
@@ -22690,13 +22778,13 @@
         <v>51</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
@@ -22704,13 +22792,13 @@
         <v>51</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
@@ -22718,13 +22806,13 @@
         <v>51</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20">
@@ -22732,13 +22820,13 @@
         <v>51</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21">
@@ -22746,7 +22834,7 @@
         <v>51</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>25</v>
@@ -22760,13 +22848,13 @@
         <v>51</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
@@ -22780,7 +22868,7 @@
         <v>25</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24">
@@ -22788,7 +22876,7 @@
         <v>100</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>25</v>
@@ -22802,13 +22890,13 @@
         <v>100</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>71</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26">
@@ -22816,13 +22904,13 @@
         <v>100</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27">
@@ -22830,13 +22918,13 @@
         <v>100</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>65</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
@@ -22844,13 +22932,13 @@
         <v>100</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>135</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29">
@@ -22858,13 +22946,13 @@
         <v>100</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30">
@@ -22872,13 +22960,13 @@
         <v>100</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
@@ -22886,13 +22974,13 @@
         <v>100</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>76</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32">
@@ -22900,13 +22988,13 @@
         <v>100</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>143</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33">
@@ -22914,7 +23002,7 @@
         <v>100</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>25</v>
@@ -22928,7 +23016,7 @@
         <v>100</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>25</v>
@@ -22942,7 +23030,7 @@
         <v>100</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>25</v>
@@ -22990,7 +23078,7 @@
         <v>25</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39">
@@ -22998,13 +23086,13 @@
         <v>109</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40">
@@ -23012,13 +23100,13 @@
         <v>109</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41">
@@ -23032,7 +23120,7 @@
         <v>25</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>83</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42">
@@ -23040,7 +23128,7 @@
         <v>112</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>25</v>
@@ -23054,7 +23142,7 @@
         <v>112</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>25</v>
@@ -23068,13 +23156,13 @@
         <v>112</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45">
@@ -23082,13 +23170,13 @@
         <v>112</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46">
@@ -23096,7 +23184,7 @@
         <v>112</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>25</v>
@@ -23110,7 +23198,7 @@
         <v>112</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>25</v>
@@ -23138,13 +23226,13 @@
         <v>105</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50">
@@ -23152,13 +23240,13 @@
         <v>105</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>143</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51">
@@ -23166,13 +23254,13 @@
         <v>105</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52">
@@ -23180,13 +23268,13 @@
         <v>105</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53">
@@ -23194,13 +23282,13 @@
         <v>105</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>69</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54">
@@ -23208,13 +23296,13 @@
         <v>105</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55">
@@ -23222,13 +23310,13 @@
         <v>105</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56">
@@ -23236,13 +23324,13 @@
         <v>105</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>135</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57">
@@ -23250,7 +23338,7 @@
         <v>105</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>25</v>
@@ -23270,7 +23358,7 @@
         <v>25</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59">
@@ -23278,13 +23366,13 @@
         <v>105</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60">
@@ -23292,13 +23380,13 @@
         <v>105</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>71</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61">
@@ -23320,13 +23408,13 @@
         <v>155</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63">
@@ -23334,13 +23422,13 @@
         <v>155</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64">
@@ -23354,7 +23442,7 @@
         <v>25</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65">
@@ -23396,7 +23484,7 @@
         <v>25</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>83</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68">
@@ -23418,13 +23506,13 @@
         <v>155</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>59</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70">
@@ -23432,13 +23520,13 @@
         <v>155</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71">
@@ -23452,7 +23540,7 @@
         <v>25</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>312</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72">
@@ -23466,7 +23554,7 @@
         <v>25</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>33</v>
+        <v>272</v>
       </c>
     </row>
     <row r="73">
@@ -23474,13 +23562,13 @@
         <v>164</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>152</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74">
@@ -23488,13 +23576,13 @@
         <v>164</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>443</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75">
@@ -23502,13 +23590,13 @@
         <v>164</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>33</v>
+        <v>444</v>
       </c>
     </row>
     <row r="76">
@@ -23522,7 +23610,7 @@
         <v>25</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>446</v>
+        <v>312</v>
       </c>
     </row>
     <row r="77">
@@ -23530,13 +23618,13 @@
         <v>164</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>272</v>
+        <v>447</v>
       </c>
     </row>
     <row r="78">
@@ -23558,13 +23646,13 @@
         <v>93</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>449</v>
+        <v>412</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>105</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80">
@@ -23572,13 +23660,13 @@
         <v>93</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>179</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81">
@@ -23586,13 +23674,13 @@
         <v>93</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>415</v>
+        <v>450</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>59</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82">
@@ -23648,7 +23736,7 @@
         <v>25</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>33</v>
+        <v>353</v>
       </c>
     </row>
     <row r="86">
@@ -23662,7 +23750,7 @@
         <v>25</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>353</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87">
@@ -23676,7 +23764,7 @@
         <v>25</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>204</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88">
@@ -23704,7 +23792,7 @@
         <v>25</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>33</v>
+        <v>459</v>
       </c>
     </row>
     <row r="90">
@@ -23712,7 +23800,7 @@
         <v>199</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>25</v>
@@ -23726,13 +23814,13 @@
         <v>199</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="92">
@@ -23740,13 +23828,13 @@
         <v>199</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>463</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93">
@@ -23760,7 +23848,7 @@
         <v>25</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>33</v>
+        <v>204</v>
       </c>
     </row>
     <row r="94">
@@ -23774,7 +23862,7 @@
         <v>25</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>33</v>
+        <v>187</v>
       </c>
     </row>
     <row r="95">
@@ -23782,13 +23870,13 @@
         <v>383</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>89</v>
+        <v>272</v>
       </c>
     </row>
     <row r="96">
@@ -23796,13 +23884,13 @@
         <v>383</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>187</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97">
@@ -23810,7 +23898,7 @@
         <v>383</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>25</v>
@@ -23824,13 +23912,13 @@
         <v>383</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>272</v>
+        <v>89</v>
       </c>
     </row>
     <row r="99">
@@ -23872,7 +23960,7 @@
         <v>25</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>179</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102">
@@ -23900,7 +23988,7 @@
         <v>25</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>33</v>
+        <v>179</v>
       </c>
     </row>
     <row r="104">
@@ -23922,13 +24010,13 @@
         <v>206</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>450</v>
+        <v>412</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>179</v>
+        <v>59</v>
       </c>
     </row>
     <row r="106">
@@ -23936,7 +24024,7 @@
         <v>206</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>448</v>
+        <v>475</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>25</v>
@@ -23950,13 +24038,13 @@
         <v>206</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D107" t="s" s="0">
-        <v>59</v>
+        <v>179</v>
       </c>
     </row>
     <row r="108">
@@ -23964,7 +24052,7 @@
         <v>206</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>415</v>
+        <v>448</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>25</v>
@@ -23984,7 +24072,7 @@
         <v>25</v>
       </c>
       <c r="D109" t="s" s="0">
-        <v>312</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110">
@@ -23992,13 +24080,13 @@
         <v>222</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>33</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111">
@@ -24006,13 +24094,13 @@
         <v>222</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>152</v>
+        <v>312</v>
       </c>
     </row>
     <row r="112">
@@ -24020,13 +24108,13 @@
         <v>387</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>33</v>
+        <v>211</v>
       </c>
     </row>
     <row r="113">
@@ -24034,7 +24122,7 @@
         <v>387</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>25</v>
@@ -24048,13 +24136,13 @@
         <v>387</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>211</v>
+        <v>233</v>
       </c>
     </row>
     <row r="115">
@@ -24062,13 +24150,13 @@
         <v>387</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D115" t="s" s="0">
-        <v>233</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116">
@@ -24096,7 +24184,7 @@
         <v>25</v>
       </c>
       <c r="D117" t="s" s="0">
-        <v>33</v>
+        <v>287</v>
       </c>
     </row>
     <row r="118">
@@ -24138,7 +24226,7 @@
         <v>25</v>
       </c>
       <c r="D120" t="s" s="0">
-        <v>287</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121">
@@ -24166,7 +24254,7 @@
         <v>25</v>
       </c>
       <c r="D122" t="s" s="0">
-        <v>334</v>
+        <v>33</v>
       </c>
     </row>
     <row r="123">
@@ -24180,7 +24268,7 @@
         <v>25</v>
       </c>
       <c r="D123" t="s" s="0">
-        <v>33</v>
+        <v>334</v>
       </c>
     </row>
     <row r="124">
@@ -24194,7 +24282,7 @@
         <v>25</v>
       </c>
       <c r="D124" t="s" s="0">
-        <v>237</v>
+        <v>33</v>
       </c>
     </row>
     <row r="125">
@@ -24208,7 +24296,7 @@
         <v>25</v>
       </c>
       <c r="D125" t="s" s="0">
-        <v>33</v>
+        <v>237</v>
       </c>
     </row>
     <row r="126">
@@ -24216,13 +24304,13 @@
         <v>63</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D126" t="s" s="0">
-        <v>83</v>
+        <v>55</v>
       </c>
     </row>
     <row r="127">
@@ -24230,13 +24318,13 @@
         <v>63</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D127" t="s" s="0">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="128">
@@ -24244,13 +24332,13 @@
         <v>63</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D128" t="s" s="0">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="129">
@@ -24258,13 +24346,13 @@
         <v>63</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D129" t="s" s="0">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="130">
@@ -24272,13 +24360,13 @@
         <v>63</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D130" t="s" s="0">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="131">
@@ -24286,13 +24374,13 @@
         <v>63</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="132">
@@ -24300,13 +24388,13 @@
         <v>63</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="133">
@@ -24314,13 +24402,13 @@
         <v>63</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D133" t="s" s="0">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="134">
@@ -24328,7 +24416,7 @@
         <v>63</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>25</v>
@@ -24342,13 +24430,13 @@
         <v>63</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D135" t="s" s="0">
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
     <row r="136">
@@ -24362,7 +24450,7 @@
         <v>25</v>
       </c>
       <c r="D136" t="s" s="0">
-        <v>55</v>
+        <v>83</v>
       </c>
     </row>
     <row r="137">
@@ -24370,13 +24458,13 @@
         <v>186</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>449</v>
+        <v>412</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D137" t="s" s="0">
-        <v>105</v>
+        <v>59</v>
       </c>
     </row>
     <row r="138">
@@ -24384,13 +24472,13 @@
         <v>186</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D138" t="s" s="0">
-        <v>59</v>
+        <v>179</v>
       </c>
     </row>
     <row r="139">
@@ -24398,13 +24486,13 @@
         <v>186</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C139" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D139" t="s" s="0">
-        <v>179</v>
+        <v>59</v>
       </c>
     </row>
     <row r="140">
@@ -24412,13 +24500,13 @@
         <v>186</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D140" t="s" s="0">
-        <v>59</v>
+        <v>105</v>
       </c>
     </row>
     <row r="141">
@@ -24426,7 +24514,7 @@
         <v>135</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>25</v>
@@ -24440,7 +24528,7 @@
         <v>135</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>25</v>
@@ -24454,13 +24542,13 @@
         <v>135</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="144">
@@ -24474,7 +24562,7 @@
         <v>25</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="145">
@@ -24482,7 +24570,7 @@
         <v>135</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>25</v>
@@ -24496,7 +24584,7 @@
         <v>135</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>25</v>
@@ -24510,13 +24598,13 @@
         <v>135</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="148">
@@ -24524,13 +24612,13 @@
         <v>135</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D148" t="s" s="0">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="149">
@@ -24538,13 +24626,13 @@
         <v>135</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="C149" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D149" t="s" s="0">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="150">
@@ -24608,13 +24696,13 @@
         <v>280</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D154" t="s" s="0">
-        <v>310</v>
+        <v>33</v>
       </c>
     </row>
     <row r="155">
@@ -24622,13 +24710,13 @@
         <v>280</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D155" t="s" s="0">
-        <v>33</v>
+        <v>310</v>
       </c>
     </row>
     <row r="156">
@@ -24664,13 +24752,13 @@
         <v>300</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D158" t="s" s="0">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="159">
@@ -24678,7 +24766,7 @@
         <v>300</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C159" t="s" s="0">
         <v>25</v>
@@ -24692,13 +24780,13 @@
         <v>300</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D160" t="s" s="0">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="161">
@@ -24706,13 +24794,13 @@
         <v>300</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>434</v>
+        <v>494</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D161" t="s" s="0">
-        <v>59</v>
+        <v>83</v>
       </c>
     </row>
     <row r="162">
@@ -24720,13 +24808,13 @@
         <v>300</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>494</v>
+        <v>434</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D162" t="s" s="0">
-        <v>83</v>
+        <v>33</v>
       </c>
     </row>
     <row r="163">
@@ -24734,13 +24822,13 @@
         <v>300</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D163" t="s" s="0">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="164">
@@ -24762,7 +24850,7 @@
         <v>300</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>25</v>
@@ -24776,7 +24864,7 @@
         <v>300</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>25</v>
@@ -24804,13 +24892,13 @@
         <v>87</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D168" t="s" s="0">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="169">
@@ -24832,13 +24920,13 @@
         <v>87</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D170" t="s" s="0">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="171">
@@ -24860,7 +24948,7 @@
         <v>87</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>25</v>
@@ -24874,7 +24962,7 @@
         <v>312</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>496</v>
+        <v>455</v>
       </c>
       <c r="C173" t="s" s="0">
         <v>25</v>
@@ -24888,13 +24976,13 @@
         <v>312</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>497</v>
+        <v>453</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D174" t="s" s="0">
-        <v>33</v>
+        <v>310</v>
       </c>
     </row>
     <row r="175">
@@ -24902,13 +24990,13 @@
         <v>312</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D175" t="s" s="0">
-        <v>150</v>
+        <v>33</v>
       </c>
     </row>
     <row r="176">
@@ -24916,13 +25004,13 @@
         <v>312</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="C176" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D176" t="s" s="0">
-        <v>98</v>
+        <v>237</v>
       </c>
     </row>
     <row r="177">
@@ -24930,13 +25018,13 @@
         <v>312</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="C177" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D177" t="s" s="0">
-        <v>237</v>
+        <v>150</v>
       </c>
     </row>
     <row r="178">
@@ -24944,13 +25032,13 @@
         <v>312</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C178" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D178" t="s" s="0">
-        <v>132</v>
+        <v>98</v>
       </c>
     </row>
     <row r="179">
@@ -24958,7 +25046,7 @@
         <v>312</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>452</v>
+        <v>499</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>25</v>
@@ -24972,13 +25060,13 @@
         <v>312</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>453</v>
+        <v>500</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D180" t="s" s="0">
-        <v>310</v>
+        <v>132</v>
       </c>
     </row>
     <row r="181">
@@ -25000,13 +25088,13 @@
         <v>326</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C182" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D182" t="s" s="0">
-        <v>59</v>
+        <v>179</v>
       </c>
     </row>
     <row r="183">
@@ -25028,7 +25116,7 @@
         <v>326</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C184" t="s" s="0">
         <v>25</v>
@@ -25042,13 +25130,13 @@
         <v>326</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C185" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D185" t="s" s="0">
-        <v>179</v>
+        <v>59</v>
       </c>
     </row>
     <row r="186">
@@ -25070,13 +25158,13 @@
         <v>307</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>428</v>
+        <v>495</v>
       </c>
       <c r="C187" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D187" t="s" s="0">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="188">
@@ -25084,13 +25172,13 @@
         <v>307</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>495</v>
+        <v>412</v>
       </c>
       <c r="C188" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D188" t="s" s="0">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="189">
@@ -25098,13 +25186,13 @@
         <v>307</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="C189" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D189" t="s" s="0">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="190">
@@ -25112,7 +25200,7 @@
         <v>307</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C190" t="s" s="0">
         <v>25</v>
@@ -25126,7 +25214,7 @@
         <v>307</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C191" t="s" s="0">
         <v>25</v>
@@ -25140,7 +25228,7 @@
         <v>307</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C192" t="s" s="0">
         <v>25</v>
@@ -25154,13 +25242,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="C193" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D193" t="s" s="0">
-        <v>179</v>
+        <v>59</v>
       </c>
     </row>
     <row r="194">
@@ -25182,13 +25270,13 @@
         <v>191</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>415</v>
+        <v>450</v>
       </c>
       <c r="C195" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D195" t="s" s="0">
-        <v>59</v>
+        <v>179</v>
       </c>
     </row>
     <row r="196">
@@ -25196,7 +25284,7 @@
         <v>191</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>475</v>
+        <v>412</v>
       </c>
       <c r="C196" t="s" s="0">
         <v>25</v>
@@ -25224,7 +25312,7 @@
         <v>55</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C198" t="s" s="0">
         <v>25</v>
@@ -25238,7 +25326,7 @@
         <v>55</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C199" t="s" s="0">
         <v>25</v>
@@ -25252,13 +25340,13 @@
         <v>55</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>495</v>
+        <v>437</v>
       </c>
       <c r="C200" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D200" t="s" s="0">
-        <v>83</v>
+        <v>33</v>
       </c>
     </row>
     <row r="201">
@@ -25266,7 +25354,7 @@
         <v>55</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C201" t="s" s="0">
         <v>25</v>
@@ -25280,13 +25368,13 @@
         <v>55</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>434</v>
+        <v>494</v>
       </c>
       <c r="C202" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D202" t="s" s="0">
-        <v>59</v>
+        <v>83</v>
       </c>
     </row>
     <row r="203">
@@ -25294,7 +25382,7 @@
         <v>55</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C203" t="s" s="0">
         <v>25</v>
@@ -25308,7 +25396,7 @@
         <v>55</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="C204" t="s" s="0">
         <v>25</v>
@@ -25322,13 +25410,13 @@
         <v>55</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>439</v>
+        <v>495</v>
       </c>
       <c r="C205" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D205" t="s" s="0">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="206">
@@ -25336,13 +25424,13 @@
         <v>55</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>494</v>
+        <v>412</v>
       </c>
       <c r="C206" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D206" t="s" s="0">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="207">
@@ -25350,13 +25438,13 @@
         <v>346</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C207" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D207" t="s" s="0">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="208">
@@ -25364,13 +25452,13 @@
         <v>346</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C208" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D208" t="s" s="0">
-        <v>132</v>
+        <v>150</v>
       </c>
     </row>
     <row r="209">
@@ -25378,13 +25466,13 @@
         <v>346</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C209" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D209" t="s" s="0">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="210">
@@ -25392,13 +25480,13 @@
         <v>346</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>501</v>
+        <v>443</v>
       </c>
       <c r="C210" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D210" t="s" s="0">
-        <v>33</v>
+        <v>444</v>
       </c>
     </row>
     <row r="211">
@@ -25406,13 +25494,13 @@
         <v>346</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>445</v>
+        <v>504</v>
       </c>
       <c r="C211" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D211" t="s" s="0">
-        <v>446</v>
+        <v>33</v>
       </c>
     </row>
     <row r="212">
@@ -25420,7 +25508,7 @@
         <v>346</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="C212" t="s" s="0">
         <v>25</v>
@@ -25448,13 +25536,13 @@
         <v>392</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>482</v>
+        <v>441</v>
       </c>
       <c r="C214" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D214" t="s" s="0">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="215">
@@ -25462,13 +25550,13 @@
         <v>392</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>468</v>
+        <v>506</v>
       </c>
       <c r="C215" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D215" t="s" s="0">
-        <v>33</v>
+        <v>199</v>
       </c>
     </row>
     <row r="216">
@@ -25476,13 +25564,13 @@
         <v>392</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="C216" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D216" t="s" s="0">
-        <v>353</v>
+        <v>287</v>
       </c>
     </row>
     <row r="217">
@@ -25490,7 +25578,7 @@
         <v>392</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>506</v>
+        <v>467</v>
       </c>
       <c r="C217" t="s" s="0">
         <v>25</v>
@@ -25504,13 +25592,13 @@
         <v>392</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>447</v>
+        <v>507</v>
       </c>
       <c r="C218" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D218" t="s" s="0">
-        <v>272</v>
+        <v>33</v>
       </c>
     </row>
     <row r="219">
@@ -25518,7 +25606,7 @@
         <v>392</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>465</v>
+        <v>508</v>
       </c>
       <c r="C219" t="s" s="0">
         <v>25</v>
@@ -25532,7 +25620,7 @@
         <v>392</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C220" t="s" s="0">
         <v>25</v>
@@ -25546,7 +25634,7 @@
         <v>392</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C221" t="s" s="0">
         <v>25</v>
@@ -25560,7 +25648,7 @@
         <v>392</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C222" t="s" s="0">
         <v>25</v>
@@ -25574,7 +25662,7 @@
         <v>392</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C223" t="s" s="0">
         <v>25</v>
@@ -25588,13 +25676,13 @@
         <v>392</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C224" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D224" t="s" s="0">
-        <v>199</v>
+        <v>33</v>
       </c>
     </row>
     <row r="225">
@@ -25602,7 +25690,7 @@
         <v>392</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C225" t="s" s="0">
         <v>25</v>
@@ -25616,13 +25704,13 @@
         <v>392</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>513</v>
+        <v>454</v>
       </c>
       <c r="C226" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D226" t="s" s="0">
-        <v>33</v>
+        <v>353</v>
       </c>
     </row>
     <row r="227">
@@ -25630,7 +25718,7 @@
         <v>392</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>514</v>
+        <v>466</v>
       </c>
       <c r="C227" t="s" s="0">
         <v>25</v>
@@ -25658,13 +25746,13 @@
         <v>230</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>502</v>
+        <v>450</v>
       </c>
       <c r="C229" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D229" t="s" s="0">
-        <v>51</v>
+        <v>179</v>
       </c>
     </row>
     <row r="230">
@@ -25672,13 +25760,13 @@
         <v>230</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="C230" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D230" t="s" s="0">
-        <v>179</v>
+        <v>51</v>
       </c>
     </row>
     <row r="231">
@@ -25686,7 +25774,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>415</v>
+        <v>448</v>
       </c>
       <c r="C231" t="s" s="0">
         <v>25</v>
@@ -25700,7 +25788,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="C232" t="s" s="0">
         <v>25</v>
@@ -25714,13 +25802,13 @@
         <v>36</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="C233" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D233" t="s" s="0">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="234">
@@ -25728,13 +25816,13 @@
         <v>36</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C234" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D234" t="s" s="0">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="235">
@@ -25742,13 +25830,13 @@
         <v>36</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C235" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D235" t="s" s="0">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="236">
@@ -25756,7 +25844,7 @@
         <v>36</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C236" t="s" s="0">
         <v>25</v>
@@ -25784,13 +25872,13 @@
         <v>36</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C238" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D238" t="s" s="0">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="239">
@@ -25798,7 +25886,7 @@
         <v>36</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C239" t="s" s="0">
         <v>25</v>
@@ -25812,7 +25900,7 @@
         <v>36</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C240" t="s" s="0">
         <v>25</v>
@@ -25826,7 +25914,7 @@
         <v>36</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C241" t="s" s="0">
         <v>25</v>
@@ -25846,7 +25934,7 @@
         <v>25</v>
       </c>
       <c r="D242" t="s" s="0">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="243">
@@ -25854,7 +25942,7 @@
         <v>36</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C243" t="s" s="0">
         <v>25</v>
@@ -25868,7 +25956,7 @@
         <v>399</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C244" t="s" s="0">
         <v>25</v>
@@ -25882,13 +25970,13 @@
         <v>399</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>465</v>
+        <v>515</v>
       </c>
       <c r="C245" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D245" t="s" s="0">
-        <v>33</v>
+        <v>342</v>
       </c>
     </row>
     <row r="246">
@@ -25896,13 +25984,13 @@
         <v>399</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>515</v>
+        <v>466</v>
       </c>
       <c r="C246" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D246" t="s" s="0">
-        <v>342</v>
+        <v>33</v>
       </c>
     </row>
     <row r="247">
@@ -25924,13 +26012,13 @@
         <v>372</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>447</v>
+        <v>517</v>
       </c>
       <c r="C248" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D248" t="s" s="0">
-        <v>272</v>
+        <v>33</v>
       </c>
     </row>
     <row r="249">
@@ -25938,13 +26026,13 @@
         <v>372</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C249" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D249" t="s" s="0">
-        <v>33</v>
+        <v>280</v>
       </c>
     </row>
     <row r="250">
@@ -25952,13 +26040,13 @@
         <v>372</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C250" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D250" t="s" s="0">
-        <v>222</v>
+        <v>33</v>
       </c>
     </row>
     <row r="251">
@@ -25966,13 +26054,13 @@
         <v>372</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="C251" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D251" t="s" s="0">
-        <v>33</v>
+        <v>272</v>
       </c>
     </row>
     <row r="252">
@@ -25980,13 +26068,13 @@
         <v>372</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>499</v>
+        <v>520</v>
       </c>
       <c r="C252" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D252" t="s" s="0">
-        <v>98</v>
+        <v>33</v>
       </c>
     </row>
     <row r="253">
@@ -25994,13 +26082,13 @@
         <v>372</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="C253" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D253" t="s" s="0">
-        <v>280</v>
+        <v>98</v>
       </c>
     </row>
     <row r="254">
@@ -26014,7 +26102,7 @@
         <v>25</v>
       </c>
       <c r="D254" t="s" s="0">
-        <v>33</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -36582,7 +36670,7 @@
         <v>21</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>527</v>
@@ -36599,7 +36687,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>527</v>
@@ -36616,7 +36704,7 @@
         <v>21</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>527</v>
@@ -36633,7 +36721,7 @@
         <v>21</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>527</v>
@@ -36650,7 +36738,7 @@
         <v>21</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>527</v>
@@ -36667,7 +36755,7 @@
         <v>21</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>527</v>
@@ -36684,7 +36772,7 @@
         <v>21</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>527</v>
@@ -36701,7 +36789,7 @@
         <v>21</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>527</v>
@@ -36718,7 +36806,7 @@
         <v>21</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>527</v>
@@ -36735,7 +36823,7 @@
         <v>21</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E11" t="s" s="0">
         <v>527</v>
@@ -36752,7 +36840,7 @@
         <v>21</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="E12" t="s" s="0">
         <v>527</v>
@@ -36769,7 +36857,7 @@
         <v>21</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="E13" t="s" s="0">
         <v>527</v>
@@ -36786,7 +36874,7 @@
         <v>21</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="E14" t="s" s="0">
         <v>527</v>
@@ -36820,7 +36908,7 @@
         <v>21</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E16" t="s" s="0">
         <v>527</v>
@@ -36871,7 +36959,7 @@
         <v>21</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="E19" t="s" s="0">
         <v>527</v>
@@ -36888,7 +36976,7 @@
         <v>21</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E20" t="s" s="0">
         <v>527</v>
@@ -36905,7 +36993,7 @@
         <v>21</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="E21" t="s" s="0">
         <v>527</v>
@@ -36922,7 +37010,7 @@
         <v>21</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="E22" t="s" s="0">
         <v>527</v>
@@ -36956,7 +37044,7 @@
         <v>21</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E24" t="s" s="0">
         <v>527</v>
@@ -36973,7 +37061,7 @@
         <v>21</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="E25" t="s" s="0">
         <v>527</v>

--- a/data/backend/order-service_structure.xlsx
+++ b/data/backend/order-service_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10034" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10220" uniqueCount="597">
   <si>
     <t>Class Name</t>
   </si>
@@ -1164,30 +1164,33 @@
     <t>org.andante.orders.PaymentController</t>
   </si>
   <si>
+    <t>startPayment(java.lang.Long)</t>
+  </si>
+  <si>
     <t>stripeWebhookEndpoint(java.lang.String, javax.servlet.http.HttpServletRequest)</t>
   </si>
   <si>
     <t>PaymentController(org.andante.orders.PaymentService)</t>
   </si>
   <si>
-    <t>startPayment(java.lang.Long)</t>
-  </si>
-  <si>
     <t>org.andante.orders.controller.OrderEntryController</t>
   </si>
   <si>
+    <t>create(org.andante.orders.dto.OrderEntryInputDTO)</t>
+  </si>
+  <si>
     <t>update(org.andante.orders.dto.OrderEntryInputDTO)</t>
   </si>
   <si>
     <t>OrderEntryController(org.andante.orders.logic.service.OrderEntryService, org.andante.orders.controller.mapper.OrderEntryDTOModelMapper, org.andante.orders.kafka.producer.KafkaOrderProducer)</t>
   </si>
   <si>
-    <t>create(org.andante.orders.dto.OrderEntryInputDTO)</t>
-  </si>
-  <si>
     <t>org.andante.orders.controller.UserController</t>
   </si>
   <si>
+    <t>UserController(org.andante.orders.logic.service.UserService, org.andante.orders.controller.mapper.UserDTOModelMapper)</t>
+  </si>
+  <si>
     <t>get(java.lang.Long)</t>
   </si>
   <si>
@@ -1197,12 +1200,15 @@
     <t>modify(org.andante.orders.dto.ClientDTO)</t>
   </si>
   <si>
-    <t>UserController(org.andante.orders.logic.service.UserService, org.andante.orders.controller.mapper.UserDTOModelMapper)</t>
-  </si>
-  <si>
     <t>org.andante.orders.controller.OrderController</t>
   </si>
   <si>
+    <t>create(org.andante.orders.dto.OrderInputDTO)</t>
+  </si>
+  <si>
+    <t>OrderController(org.andante.orders.logic.service.OrderService, org.andante.orders.controller.mapper.OrderDTOModelMapper, org.andante.orders.kafka.producer.KafkaOrderProducer, org.andante.orders.controller.email.EmailSender)</t>
+  </si>
+  <si>
     <t>sendInvoice(java.lang.Long, org.springframework.core.io.InputStreamResource)</t>
   </si>
   <si>
@@ -1212,12 +1218,6 @@
     <t>update(org.andante.orders.dto.OrderInputDTO)</t>
   </si>
   <si>
-    <t>create(org.andante.orders.dto.OrderInputDTO)</t>
-  </si>
-  <si>
-    <t>OrderController(org.andante.orders.logic.service.OrderService, org.andante.orders.controller.mapper.OrderDTOModelMapper, org.andante.orders.kafka.producer.KafkaOrderProducer, org.andante.orders.controller.email.EmailSender)</t>
-  </si>
-  <si>
     <t>getAllById(java.util.List)</t>
   </si>
   <si>
@@ -1227,13 +1227,13 @@
     <t>LocationController(org.andante.orders.logic.service.LocationService, org.andante.orders.controller.mapper.LocationDTOModelMapper)</t>
   </si>
   <si>
+    <t>create(org.andante.orders.dto.LocationDTO)</t>
+  </si>
+  <si>
+    <t>modify(org.andante.orders.dto.LocationDTO)</t>
+  </si>
+  <si>
     <t>findByQuery(org.andante.orders.dto.LocationQuerySpecification)</t>
-  </si>
-  <si>
-    <t>create(org.andante.orders.dto.LocationDTO)</t>
-  </si>
-  <si>
-    <t>modify(org.andante.orders.dto.LocationDTO)</t>
   </si>
   <si>
     <t>Field Name</t>
@@ -16649,7 +16649,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C494"/>
+  <dimension ref="A1:C496"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16781,7 +16781,7 @@
         <v>21</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>527</v>
@@ -16792,7 +16792,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>527</v>
@@ -16803,10 +16803,10 @@
         <v>21</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="15">
@@ -16814,7 +16814,7 @@
         <v>21</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>537</v>
@@ -16825,7 +16825,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>537</v>
@@ -16836,7 +16836,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>537</v>
@@ -16847,7 +16847,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>537</v>
@@ -16858,7 +16858,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>537</v>
@@ -16869,7 +16869,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>537</v>
@@ -16880,7 +16880,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>537</v>
@@ -16891,7 +16891,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>537</v>
@@ -16902,7 +16902,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>537</v>
@@ -16913,7 +16913,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>537</v>
@@ -16924,21 +16924,21 @@
         <v>21</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>586</v>
+        <v>533</v>
       </c>
     </row>
     <row r="27">
@@ -16946,10 +16946,10 @@
         <v>51</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>533</v>
+        <v>586</v>
       </c>
     </row>
     <row r="28">
@@ -16957,10 +16957,10 @@
         <v>51</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>587</v>
+        <v>533</v>
       </c>
     </row>
     <row r="29">
@@ -16968,10 +16968,10 @@
         <v>51</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>528</v>
+        <v>587</v>
       </c>
     </row>
     <row r="30">
@@ -16979,10 +16979,10 @@
         <v>51</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="31">
@@ -16990,7 +16990,7 @@
         <v>51</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>533</v>
@@ -17001,7 +17001,7 @@
         <v>51</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>533</v>
@@ -17012,7 +17012,7 @@
         <v>51</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>533</v>
@@ -17023,7 +17023,7 @@
         <v>51</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>533</v>
@@ -17034,7 +17034,7 @@
         <v>51</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>533</v>
@@ -17045,7 +17045,7 @@
         <v>51</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>533</v>
@@ -17056,7 +17056,7 @@
         <v>51</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>533</v>
@@ -17067,7 +17067,7 @@
         <v>51</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>533</v>
@@ -17078,7 +17078,7 @@
         <v>51</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>533</v>
@@ -17089,7 +17089,7 @@
         <v>51</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>533</v>
@@ -17100,7 +17100,7 @@
         <v>51</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>533</v>
@@ -17111,7 +17111,7 @@
         <v>51</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>533</v>
@@ -17122,7 +17122,7 @@
         <v>51</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>533</v>
@@ -17133,7 +17133,7 @@
         <v>51</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>533</v>
@@ -17144,7 +17144,7 @@
         <v>51</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>533</v>
@@ -17155,7 +17155,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>533</v>
@@ -17166,7 +17166,7 @@
         <v>51</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>533</v>
@@ -17177,7 +17177,7 @@
         <v>51</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>533</v>
@@ -17188,7 +17188,7 @@
         <v>51</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>533</v>
@@ -17199,7 +17199,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>533</v>
@@ -17210,7 +17210,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>533</v>
@@ -17221,18 +17221,18 @@
         <v>51</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>527</v>
@@ -17243,7 +17243,7 @@
         <v>89</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>527</v>
@@ -17254,7 +17254,7 @@
         <v>89</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>527</v>
@@ -17265,7 +17265,7 @@
         <v>89</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>527</v>
@@ -17276,7 +17276,7 @@
         <v>89</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>527</v>
@@ -17287,7 +17287,7 @@
         <v>89</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>527</v>
@@ -17295,10 +17295,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>527</v>
@@ -17306,13 +17306,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="61">
@@ -17320,10 +17320,10 @@
         <v>100</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="62">
@@ -17331,7 +17331,7 @@
         <v>100</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>537</v>
@@ -17342,7 +17342,7 @@
         <v>100</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>537</v>
@@ -17353,7 +17353,7 @@
         <v>100</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>537</v>
@@ -17364,7 +17364,7 @@
         <v>100</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>537</v>
@@ -17375,7 +17375,7 @@
         <v>100</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>537</v>
@@ -17386,7 +17386,7 @@
         <v>100</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>537</v>
@@ -17397,7 +17397,7 @@
         <v>100</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>537</v>
@@ -17408,7 +17408,7 @@
         <v>100</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>537</v>
@@ -17419,7 +17419,7 @@
         <v>100</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>537</v>
@@ -17430,7 +17430,7 @@
         <v>100</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>537</v>
@@ -17441,10 +17441,10 @@
         <v>100</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="73">
@@ -17452,32 +17452,32 @@
         <v>100</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="76">
@@ -17485,7 +17485,7 @@
         <v>109</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>537</v>
@@ -17496,7 +17496,7 @@
         <v>109</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>537</v>
@@ -17507,7 +17507,7 @@
         <v>109</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>537</v>
@@ -17518,7 +17518,7 @@
         <v>109</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>537</v>
@@ -17529,10 +17529,10 @@
         <v>109</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="81">
@@ -17540,18 +17540,18 @@
         <v>109</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>533</v>
@@ -17559,10 +17559,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>533</v>
@@ -17573,10 +17573,10 @@
         <v>112</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>588</v>
+        <v>533</v>
       </c>
     </row>
     <row r="85">
@@ -17584,7 +17584,7 @@
         <v>112</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>533</v>
@@ -17595,10 +17595,10 @@
         <v>112</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>533</v>
+        <v>588</v>
       </c>
     </row>
     <row r="87">
@@ -17606,7 +17606,7 @@
         <v>112</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>533</v>
@@ -17617,7 +17617,7 @@
         <v>112</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>533</v>
@@ -17628,7 +17628,7 @@
         <v>112</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>533</v>
@@ -17639,7 +17639,7 @@
         <v>112</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>533</v>
@@ -17650,7 +17650,7 @@
         <v>112</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>533</v>
@@ -17661,7 +17661,7 @@
         <v>112</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>533</v>
@@ -17672,7 +17672,7 @@
         <v>112</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>533</v>
@@ -17683,7 +17683,7 @@
         <v>112</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>533</v>
@@ -17694,7 +17694,7 @@
         <v>112</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>533</v>
@@ -17705,7 +17705,7 @@
         <v>112</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>533</v>
@@ -17716,7 +17716,7 @@
         <v>112</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>533</v>
@@ -17727,10 +17727,10 @@
         <v>112</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>589</v>
+        <v>533</v>
       </c>
     </row>
     <row r="99">
@@ -17738,7 +17738,7 @@
         <v>112</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>533</v>
@@ -17749,10 +17749,10 @@
         <v>112</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="101">
@@ -17760,7 +17760,7 @@
         <v>112</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>533</v>
@@ -17768,24 +17768,24 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>533</v>
+        <v>590</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>582</v>
+        <v>533</v>
       </c>
     </row>
     <row r="104">
@@ -17793,7 +17793,7 @@
         <v>132</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>533</v>
@@ -17801,21 +17801,21 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>533</v>
+        <v>582</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>533</v>
@@ -17826,10 +17826,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>591</v>
+        <v>533</v>
       </c>
     </row>
     <row r="108">
@@ -17837,7 +17837,7 @@
         <v>105</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>533</v>
@@ -17848,10 +17848,10 @@
         <v>105</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>533</v>
+        <v>591</v>
       </c>
     </row>
     <row r="110">
@@ -17859,7 +17859,7 @@
         <v>105</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>533</v>
@@ -17870,7 +17870,7 @@
         <v>105</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>533</v>
@@ -17881,7 +17881,7 @@
         <v>105</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>533</v>
@@ -17892,7 +17892,7 @@
         <v>105</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>533</v>
@@ -17903,7 +17903,7 @@
         <v>105</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>533</v>
@@ -17914,7 +17914,7 @@
         <v>105</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>533</v>
@@ -17925,7 +17925,7 @@
         <v>105</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>533</v>
@@ -17936,7 +17936,7 @@
         <v>105</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>141</v>
+        <v>54</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>533</v>
@@ -17947,7 +17947,7 @@
         <v>105</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>533</v>
@@ -17958,7 +17958,7 @@
         <v>105</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>533</v>
@@ -17969,7 +17969,7 @@
         <v>105</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>533</v>
@@ -17980,7 +17980,7 @@
         <v>105</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>533</v>
@@ -17991,7 +17991,7 @@
         <v>105</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>52</v>
+        <v>147</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>533</v>
@@ -18002,7 +18002,7 @@
         <v>105</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>533</v>
@@ -18013,7 +18013,7 @@
         <v>105</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>533</v>
@@ -18024,7 +18024,7 @@
         <v>105</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>533</v>
@@ -18035,7 +18035,7 @@
         <v>105</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>533</v>
@@ -18046,7 +18046,7 @@
         <v>105</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>533</v>
@@ -18057,7 +18057,7 @@
         <v>105</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>533</v>
@@ -18068,7 +18068,7 @@
         <v>105</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>533</v>
@@ -18079,7 +18079,7 @@
         <v>105</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>533</v>
@@ -18090,7 +18090,7 @@
         <v>105</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>533</v>
@@ -18101,7 +18101,7 @@
         <v>105</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>533</v>
@@ -18112,10 +18112,10 @@
         <v>105</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="C133" t="s" s="0">
-        <v>592</v>
+        <v>533</v>
       </c>
     </row>
     <row r="134">
@@ -18123,7 +18123,7 @@
         <v>105</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>533</v>
@@ -18134,10 +18134,10 @@
         <v>105</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C135" t="s" s="0">
-        <v>572</v>
+        <v>592</v>
       </c>
     </row>
     <row r="136">
@@ -18145,7 +18145,7 @@
         <v>105</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>533</v>
@@ -18153,35 +18153,35 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="0">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="C137" t="s" s="0">
-        <v>527</v>
+        <v>572</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="0">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="0">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="140">
@@ -18189,7 +18189,7 @@
         <v>155</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>163</v>
+        <v>45</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>537</v>
@@ -18200,7 +18200,7 @@
         <v>155</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>537</v>
@@ -18211,7 +18211,7 @@
         <v>155</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>537</v>
@@ -18222,7 +18222,7 @@
         <v>155</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>537</v>
@@ -18233,7 +18233,7 @@
         <v>155</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>537</v>
@@ -18244,7 +18244,7 @@
         <v>155</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>537</v>
@@ -18255,7 +18255,7 @@
         <v>155</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>537</v>
@@ -18266,10 +18266,10 @@
         <v>155</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="C147" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="148">
@@ -18277,32 +18277,32 @@
         <v>155</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="C148" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="0">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="C149" t="s" s="0">
-        <v>573</v>
+        <v>533</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="0">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="C150" t="s" s="0">
-        <v>573</v>
+        <v>533</v>
       </c>
     </row>
     <row r="151">
@@ -18310,10 +18310,10 @@
         <v>164</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="C151" t="s" s="0">
-        <v>588</v>
+        <v>573</v>
       </c>
     </row>
     <row r="152">
@@ -18321,10 +18321,10 @@
         <v>164</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C152" t="s" s="0">
-        <v>588</v>
+        <v>573</v>
       </c>
     </row>
     <row r="153">
@@ -18332,7 +18332,7 @@
         <v>164</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>588</v>
@@ -18343,7 +18343,7 @@
         <v>164</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>94</v>
+        <v>174</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>588</v>
@@ -18354,10 +18354,10 @@
         <v>164</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C155" t="s" s="0">
-        <v>573</v>
+        <v>588</v>
       </c>
     </row>
     <row r="156">
@@ -18365,10 +18365,10 @@
         <v>164</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="C156" t="s" s="0">
-        <v>533</v>
+        <v>588</v>
       </c>
     </row>
     <row r="157">
@@ -18376,10 +18376,10 @@
         <v>164</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C157" t="s" s="0">
-        <v>533</v>
+        <v>573</v>
       </c>
     </row>
     <row r="158">
@@ -18387,10 +18387,10 @@
         <v>164</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C158" t="s" s="0">
-        <v>559</v>
+        <v>533</v>
       </c>
     </row>
     <row r="159">
@@ -18398,10 +18398,10 @@
         <v>164</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C159" t="s" s="0">
-        <v>587</v>
+        <v>533</v>
       </c>
     </row>
     <row r="160">
@@ -18409,32 +18409,32 @@
         <v>164</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C160" t="s" s="0">
-        <v>573</v>
+        <v>559</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="0">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="C161" t="s" s="0">
-        <v>548</v>
+        <v>587</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="0">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>62</v>
+        <v>172</v>
       </c>
       <c r="C162" t="s" s="0">
-        <v>533</v>
+        <v>573</v>
       </c>
     </row>
     <row r="163">
@@ -18442,10 +18442,10 @@
         <v>93</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>58</v>
+        <v>185</v>
       </c>
       <c r="C163" t="s" s="0">
-        <v>533</v>
+        <v>548</v>
       </c>
     </row>
     <row r="164">
@@ -18453,7 +18453,7 @@
         <v>93</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>178</v>
+        <v>62</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>533</v>
@@ -18464,7 +18464,7 @@
         <v>93</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>181</v>
+        <v>58</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>533</v>
@@ -18475,7 +18475,7 @@
         <v>93</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>533</v>
@@ -18486,7 +18486,7 @@
         <v>93</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>66</v>
+        <v>181</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>533</v>
@@ -18497,7 +18497,7 @@
         <v>93</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>533</v>
@@ -18508,7 +18508,7 @@
         <v>93</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>180</v>
+        <v>66</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>533</v>
@@ -18519,7 +18519,7 @@
         <v>93</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>533</v>
@@ -18530,10 +18530,10 @@
         <v>93</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="C171" t="s" s="0">
-        <v>567</v>
+        <v>533</v>
       </c>
     </row>
     <row r="172">
@@ -18541,7 +18541,7 @@
         <v>93</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>533</v>
@@ -18552,10 +18552,10 @@
         <v>93</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C173" t="s" s="0">
-        <v>587</v>
+        <v>567</v>
       </c>
     </row>
     <row r="174">
@@ -18563,7 +18563,7 @@
         <v>93</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>533</v>
@@ -18571,21 +18571,21 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="0">
-        <v>379</v>
+        <v>93</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>382</v>
+        <v>26</v>
       </c>
       <c r="C175" t="s" s="0">
-        <v>533</v>
+        <v>587</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="0">
-        <v>379</v>
+        <v>93</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>380</v>
+        <v>32</v>
       </c>
       <c r="C176" t="s" s="0">
         <v>533</v>
@@ -18596,7 +18596,7 @@
         <v>379</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C177" t="s" s="0">
         <v>533</v>
@@ -18604,24 +18604,24 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="0">
-        <v>187</v>
+        <v>379</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>188</v>
+        <v>381</v>
       </c>
       <c r="C178" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="0">
-        <v>187</v>
+        <v>379</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>194</v>
+        <v>382</v>
       </c>
       <c r="C179" t="s" s="0">
-        <v>548</v>
+        <v>533</v>
       </c>
     </row>
     <row r="180">
@@ -18629,10 +18629,10 @@
         <v>187</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C180" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="181">
@@ -18640,10 +18640,10 @@
         <v>187</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C181" t="s" s="0">
-        <v>533</v>
+        <v>548</v>
       </c>
     </row>
     <row r="182">
@@ -18651,10 +18651,10 @@
         <v>187</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C182" t="s" s="0">
-        <v>577</v>
+        <v>533</v>
       </c>
     </row>
     <row r="183">
@@ -18662,10 +18662,10 @@
         <v>187</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C183" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="184">
@@ -18673,10 +18673,10 @@
         <v>187</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C184" t="s" s="0">
-        <v>527</v>
+        <v>577</v>
       </c>
     </row>
     <row r="185">
@@ -18684,54 +18684,54 @@
         <v>187</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C185" t="s" s="0">
-        <v>527</v>
+        <v>537</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="0">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C186" t="s" s="0">
-        <v>593</v>
+        <v>527</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="0">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C187" t="s" s="0">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="0">
-        <v>383</v>
+        <v>199</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>90</v>
+        <v>201</v>
       </c>
       <c r="C188" t="s" s="0">
-        <v>588</v>
+        <v>593</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="0">
-        <v>383</v>
+        <v>199</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="C189" t="s" s="0">
-        <v>577</v>
+        <v>537</v>
       </c>
     </row>
     <row r="190">
@@ -18739,10 +18739,10 @@
         <v>383</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>386</v>
+        <v>90</v>
       </c>
       <c r="C190" t="s" s="0">
-        <v>573</v>
+        <v>588</v>
       </c>
     </row>
     <row r="191">
@@ -18750,10 +18750,10 @@
         <v>383</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C191" t="s" s="0">
-        <v>573</v>
+        <v>577</v>
       </c>
     </row>
     <row r="192">
@@ -18772,10 +18772,10 @@
         <v>383</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C193" t="s" s="0">
-        <v>594</v>
+        <v>573</v>
       </c>
     </row>
     <row r="194">
@@ -18786,7 +18786,7 @@
         <v>385</v>
       </c>
       <c r="C194" t="s" s="0">
-        <v>582</v>
+        <v>573</v>
       </c>
     </row>
     <row r="195">
@@ -18794,10 +18794,10 @@
         <v>383</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>543</v>
+        <v>94</v>
       </c>
       <c r="C195" t="s" s="0">
-        <v>527</v>
+        <v>594</v>
       </c>
     </row>
     <row r="196">
@@ -18805,18 +18805,18 @@
         <v>383</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>542</v>
+        <v>386</v>
       </c>
       <c r="C196" t="s" s="0">
-        <v>527</v>
+        <v>582</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s" s="0">
-        <v>202</v>
+        <v>383</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>205</v>
+        <v>543</v>
       </c>
       <c r="C197" t="s" s="0">
         <v>527</v>
@@ -18824,35 +18824,35 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="0">
-        <v>202</v>
+        <v>383</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>203</v>
+        <v>542</v>
       </c>
       <c r="C198" t="s" s="0">
-        <v>587</v>
+        <v>527</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s" s="0">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C199" t="s" s="0">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s" s="0">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>45</v>
+        <v>203</v>
       </c>
       <c r="C200" t="s" s="0">
-        <v>537</v>
+        <v>587</v>
       </c>
     </row>
     <row r="201">
@@ -18860,10 +18860,10 @@
         <v>206</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C201" t="s" s="0">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="202">
@@ -18871,7 +18871,7 @@
         <v>206</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>207</v>
+        <v>45</v>
       </c>
       <c r="C202" t="s" s="0">
         <v>537</v>
@@ -18882,7 +18882,7 @@
         <v>206</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C203" t="s" s="0">
         <v>537</v>
@@ -18893,10 +18893,10 @@
         <v>206</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="C204" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="205">
@@ -18904,32 +18904,32 @@
         <v>206</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="C205" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="0">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="C206" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="0">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>213</v>
+        <v>32</v>
       </c>
       <c r="C207" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="208">
@@ -18937,7 +18937,7 @@
         <v>211</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>212</v>
+        <v>96</v>
       </c>
       <c r="C208" t="s" s="0">
         <v>527</v>
@@ -18948,7 +18948,7 @@
         <v>211</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>94</v>
+        <v>213</v>
       </c>
       <c r="C209" t="s" s="0">
         <v>527</v>
@@ -18956,10 +18956,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="0">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C210" t="s" s="0">
         <v>527</v>
@@ -18967,21 +18967,21 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="0">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="C211" t="s" s="0">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s" s="0">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C212" t="s" s="0">
         <v>527</v>
@@ -18989,10 +18989,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="0">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C213" t="s" s="0">
         <v>533</v>
@@ -19003,18 +19003,18 @@
         <v>217</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C214" t="s" s="0">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="0">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C215" t="s" s="0">
         <v>533</v>
@@ -19022,10 +19022,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="0">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="C216" t="s" s="0">
         <v>533</v>
@@ -19036,10 +19036,10 @@
         <v>222</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C217" t="s" s="0">
-        <v>573</v>
+        <v>533</v>
       </c>
     </row>
     <row r="218">
@@ -19047,10 +19047,10 @@
         <v>222</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="C218" t="s" s="0">
-        <v>577</v>
+        <v>533</v>
       </c>
     </row>
     <row r="219">
@@ -19058,10 +19058,10 @@
         <v>222</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C219" t="s" s="0">
-        <v>537</v>
+        <v>573</v>
       </c>
     </row>
     <row r="220">
@@ -19069,10 +19069,10 @@
         <v>222</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C220" t="s" s="0">
-        <v>527</v>
+        <v>577</v>
       </c>
     </row>
     <row r="221">
@@ -19080,10 +19080,10 @@
         <v>222</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C221" t="s" s="0">
-        <v>527</v>
+        <v>537</v>
       </c>
     </row>
     <row r="222">
@@ -19091,7 +19091,7 @@
         <v>222</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C222" t="s" s="0">
         <v>527</v>
@@ -19102,7 +19102,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C223" t="s" s="0">
         <v>527</v>
@@ -19110,10 +19110,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="0">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C224" t="s" s="0">
         <v>527</v>
@@ -19121,13 +19121,13 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="0">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C225" t="s" s="0">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="226">
@@ -19135,32 +19135,32 @@
         <v>233</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C226" t="s" s="0">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s" s="0">
-        <v>387</v>
+        <v>233</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>388</v>
+        <v>235</v>
       </c>
       <c r="C227" t="s" s="0">
-        <v>577</v>
+        <v>533</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="0">
-        <v>387</v>
+        <v>233</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>389</v>
+        <v>236</v>
       </c>
       <c r="C228" t="s" s="0">
-        <v>582</v>
+        <v>533</v>
       </c>
     </row>
     <row r="229">
@@ -19168,10 +19168,10 @@
         <v>387</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C229" t="s" s="0">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="230">
@@ -19179,10 +19179,10 @@
         <v>387</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>94</v>
+        <v>390</v>
       </c>
       <c r="C230" t="s" s="0">
-        <v>537</v>
+        <v>582</v>
       </c>
     </row>
     <row r="231">
@@ -19193,15 +19193,15 @@
         <v>391</v>
       </c>
       <c r="C231" t="s" s="0">
-        <v>537</v>
+        <v>582</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="0">
-        <v>238</v>
+        <v>387</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>243</v>
+        <v>94</v>
       </c>
       <c r="C232" t="s" s="0">
         <v>537</v>
@@ -19209,13 +19209,13 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="0">
-        <v>238</v>
+        <v>387</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>244</v>
+        <v>388</v>
       </c>
       <c r="C233" t="s" s="0">
-        <v>587</v>
+        <v>537</v>
       </c>
     </row>
     <row r="234">
@@ -19223,10 +19223,10 @@
         <v>238</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C234" t="s" s="0">
-        <v>593</v>
+        <v>537</v>
       </c>
     </row>
     <row r="235">
@@ -19234,10 +19234,10 @@
         <v>238</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C235" t="s" s="0">
-        <v>533</v>
+        <v>587</v>
       </c>
     </row>
     <row r="236">
@@ -19245,10 +19245,10 @@
         <v>238</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C236" t="s" s="0">
-        <v>533</v>
+        <v>593</v>
       </c>
     </row>
     <row r="237">
@@ -19256,10 +19256,10 @@
         <v>238</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C237" t="s" s="0">
-        <v>582</v>
+        <v>533</v>
       </c>
     </row>
     <row r="238">
@@ -19267,7 +19267,7 @@
         <v>238</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C238" t="s" s="0">
         <v>533</v>
@@ -19275,24 +19275,24 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="0">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="C239" t="s" s="0">
-        <v>573</v>
+        <v>582</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s" s="0">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="C240" t="s" s="0">
-        <v>588</v>
+        <v>533</v>
       </c>
     </row>
     <row r="241">
@@ -19300,10 +19300,10 @@
         <v>246</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>212</v>
+        <v>96</v>
       </c>
       <c r="C241" t="s" s="0">
-        <v>588</v>
+        <v>573</v>
       </c>
     </row>
     <row r="242">
@@ -19311,10 +19311,10 @@
         <v>246</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>94</v>
+        <v>213</v>
       </c>
       <c r="C242" t="s" s="0">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="243">
@@ -19322,29 +19322,29 @@
         <v>246</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="C243" t="s" s="0">
-        <v>537</v>
+        <v>588</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s" s="0">
-        <v>63</v>
+        <v>246</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>252</v>
+        <v>94</v>
       </c>
       <c r="C244" t="s" s="0">
-        <v>528</v>
+        <v>591</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s" s="0">
-        <v>63</v>
+        <v>246</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="C245" t="s" s="0">
         <v>537</v>
@@ -19355,10 +19355,10 @@
         <v>63</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>106</v>
+        <v>252</v>
       </c>
       <c r="C246" t="s" s="0">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="247">
@@ -19366,7 +19366,7 @@
         <v>63</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>253</v>
+        <v>45</v>
       </c>
       <c r="C247" t="s" s="0">
         <v>537</v>
@@ -19377,7 +19377,7 @@
         <v>63</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>248</v>
+        <v>106</v>
       </c>
       <c r="C248" t="s" s="0">
         <v>537</v>
@@ -19388,7 +19388,7 @@
         <v>63</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C249" t="s" s="0">
         <v>537</v>
@@ -19399,7 +19399,7 @@
         <v>63</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C250" t="s" s="0">
         <v>537</v>
@@ -19410,7 +19410,7 @@
         <v>63</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C251" t="s" s="0">
         <v>537</v>
@@ -19421,7 +19421,7 @@
         <v>63</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>31</v>
+        <v>251</v>
       </c>
       <c r="C252" t="s" s="0">
         <v>537</v>
@@ -19432,7 +19432,7 @@
         <v>63</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>41</v>
+        <v>249</v>
       </c>
       <c r="C253" t="s" s="0">
         <v>537</v>
@@ -19443,7 +19443,7 @@
         <v>63</v>
       </c>
       <c r="B254" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C254" t="s" s="0">
         <v>537</v>
@@ -19454,7 +19454,7 @@
         <v>63</v>
       </c>
       <c r="B255" t="s" s="0">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C255" t="s" s="0">
         <v>537</v>
@@ -19465,10 +19465,10 @@
         <v>63</v>
       </c>
       <c r="B256" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C256" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="257">
@@ -19476,32 +19476,32 @@
         <v>63</v>
       </c>
       <c r="B257" t="s" s="0">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C257" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s" s="0">
-        <v>186</v>
+        <v>63</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>255</v>
+        <v>35</v>
       </c>
       <c r="C258" t="s" s="0">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s" s="0">
-        <v>186</v>
+        <v>63</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C259" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="260">
@@ -19509,10 +19509,10 @@
         <v>186</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>209</v>
+        <v>255</v>
       </c>
       <c r="C260" t="s" s="0">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="261">
@@ -19520,7 +19520,7 @@
         <v>186</v>
       </c>
       <c r="B261" t="s" s="0">
-        <v>254</v>
+        <v>45</v>
       </c>
       <c r="C261" t="s" s="0">
         <v>537</v>
@@ -19531,7 +19531,7 @@
         <v>186</v>
       </c>
       <c r="B262" t="s" s="0">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C262" t="s" s="0">
         <v>537</v>
@@ -19542,10 +19542,10 @@
         <v>186</v>
       </c>
       <c r="B263" t="s" s="0">
-        <v>35</v>
+        <v>254</v>
       </c>
       <c r="C263" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="264">
@@ -19553,18 +19553,18 @@
         <v>186</v>
       </c>
       <c r="B264" t="s" s="0">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="C264" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s" s="0">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="B265" t="s" s="0">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="C265" t="s" s="0">
         <v>533</v>
@@ -19572,10 +19572,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="0">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="B266" t="s" s="0">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="C266" t="s" s="0">
         <v>533</v>
@@ -19586,10 +19586,10 @@
         <v>135</v>
       </c>
       <c r="B267" t="s" s="0">
-        <v>269</v>
+        <v>119</v>
       </c>
       <c r="C267" t="s" s="0">
-        <v>577</v>
+        <v>533</v>
       </c>
     </row>
     <row r="268">
@@ -19597,7 +19597,7 @@
         <v>135</v>
       </c>
       <c r="B268" t="s" s="0">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="C268" t="s" s="0">
         <v>533</v>
@@ -19608,10 +19608,10 @@
         <v>135</v>
       </c>
       <c r="B269" t="s" s="0">
-        <v>58</v>
+        <v>269</v>
       </c>
       <c r="C269" t="s" s="0">
-        <v>533</v>
+        <v>577</v>
       </c>
     </row>
     <row r="270">
@@ -19619,7 +19619,7 @@
         <v>135</v>
       </c>
       <c r="B270" t="s" s="0">
-        <v>264</v>
+        <v>62</v>
       </c>
       <c r="C270" t="s" s="0">
         <v>533</v>
@@ -19630,7 +19630,7 @@
         <v>135</v>
       </c>
       <c r="B271" t="s" s="0">
-        <v>266</v>
+        <v>58</v>
       </c>
       <c r="C271" t="s" s="0">
         <v>533</v>
@@ -19641,7 +19641,7 @@
         <v>135</v>
       </c>
       <c r="B272" t="s" s="0">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C272" t="s" s="0">
         <v>533</v>
@@ -19652,7 +19652,7 @@
         <v>135</v>
       </c>
       <c r="B273" t="s" s="0">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C273" t="s" s="0">
         <v>533</v>
@@ -19663,7 +19663,7 @@
         <v>135</v>
       </c>
       <c r="B274" t="s" s="0">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C274" t="s" s="0">
         <v>533</v>
@@ -19674,7 +19674,7 @@
         <v>135</v>
       </c>
       <c r="B275" t="s" s="0">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="C275" t="s" s="0">
         <v>533</v>
@@ -19685,7 +19685,7 @@
         <v>135</v>
       </c>
       <c r="B276" t="s" s="0">
-        <v>122</v>
+        <v>262</v>
       </c>
       <c r="C276" t="s" s="0">
         <v>533</v>
@@ -19696,7 +19696,7 @@
         <v>135</v>
       </c>
       <c r="B277" t="s" s="0">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="C277" t="s" s="0">
         <v>533</v>
@@ -19707,7 +19707,7 @@
         <v>135</v>
       </c>
       <c r="B278" t="s" s="0">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="C278" t="s" s="0">
         <v>533</v>
@@ -19718,7 +19718,7 @@
         <v>135</v>
       </c>
       <c r="B279" t="s" s="0">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C279" t="s" s="0">
         <v>533</v>
@@ -19729,7 +19729,7 @@
         <v>135</v>
       </c>
       <c r="B280" t="s" s="0">
-        <v>260</v>
+        <v>66</v>
       </c>
       <c r="C280" t="s" s="0">
         <v>533</v>
@@ -19740,7 +19740,7 @@
         <v>135</v>
       </c>
       <c r="B281" t="s" s="0">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C281" t="s" s="0">
         <v>533</v>
@@ -19751,7 +19751,7 @@
         <v>135</v>
       </c>
       <c r="B282" t="s" s="0">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C282" t="s" s="0">
         <v>533</v>
@@ -19762,7 +19762,7 @@
         <v>135</v>
       </c>
       <c r="B283" t="s" s="0">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C283" t="s" s="0">
         <v>533</v>
@@ -19773,7 +19773,7 @@
         <v>135</v>
       </c>
       <c r="B284" t="s" s="0">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C284" t="s" s="0">
         <v>533</v>
@@ -19784,7 +19784,7 @@
         <v>135</v>
       </c>
       <c r="B285" t="s" s="0">
-        <v>117</v>
+        <v>270</v>
       </c>
       <c r="C285" t="s" s="0">
         <v>533</v>
@@ -19795,7 +19795,7 @@
         <v>135</v>
       </c>
       <c r="B286" t="s" s="0">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C286" t="s" s="0">
         <v>533</v>
@@ -19806,10 +19806,10 @@
         <v>135</v>
       </c>
       <c r="B287" t="s" s="0">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="C287" t="s" s="0">
-        <v>595</v>
+        <v>533</v>
       </c>
     </row>
     <row r="288">
@@ -19817,7 +19817,7 @@
         <v>135</v>
       </c>
       <c r="B288" t="s" s="0">
-        <v>124</v>
+        <v>268</v>
       </c>
       <c r="C288" t="s" s="0">
         <v>533</v>
@@ -19828,10 +19828,10 @@
         <v>135</v>
       </c>
       <c r="B289" t="s" s="0">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C289" t="s" s="0">
-        <v>574</v>
+        <v>595</v>
       </c>
     </row>
     <row r="290">
@@ -19839,7 +19839,7 @@
         <v>135</v>
       </c>
       <c r="B290" t="s" s="0">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="C290" t="s" s="0">
         <v>533</v>
@@ -19847,21 +19847,21 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="0">
-        <v>272</v>
+        <v>135</v>
       </c>
       <c r="B291" t="s" s="0">
-        <v>275</v>
+        <v>26</v>
       </c>
       <c r="C291" t="s" s="0">
-        <v>533</v>
+        <v>574</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s" s="0">
-        <v>272</v>
+        <v>135</v>
       </c>
       <c r="B292" t="s" s="0">
-        <v>278</v>
+        <v>32</v>
       </c>
       <c r="C292" t="s" s="0">
         <v>533</v>
@@ -19872,7 +19872,7 @@
         <v>272</v>
       </c>
       <c r="B293" t="s" s="0">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C293" t="s" s="0">
         <v>533</v>
@@ -19883,7 +19883,7 @@
         <v>272</v>
       </c>
       <c r="B294" t="s" s="0">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C294" t="s" s="0">
         <v>533</v>
@@ -19894,7 +19894,7 @@
         <v>272</v>
       </c>
       <c r="B295" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C295" t="s" s="0">
         <v>533</v>
@@ -19905,7 +19905,7 @@
         <v>272</v>
       </c>
       <c r="B296" t="s" s="0">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C296" t="s" s="0">
         <v>533</v>
@@ -19916,32 +19916,32 @@
         <v>272</v>
       </c>
       <c r="B297" t="s" s="0">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C297" t="s" s="0">
-        <v>582</v>
+        <v>533</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s" s="0">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B298" t="s" s="0">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C298" t="s" s="0">
-        <v>573</v>
+        <v>533</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s" s="0">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B299" t="s" s="0">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C299" t="s" s="0">
-        <v>548</v>
+        <v>582</v>
       </c>
     </row>
     <row r="300">
@@ -19949,10 +19949,10 @@
         <v>280</v>
       </c>
       <c r="B300" t="s" s="0">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C300" t="s" s="0">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="301">
@@ -19960,10 +19960,10 @@
         <v>280</v>
       </c>
       <c r="B301" t="s" s="0">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C301" t="s" s="0">
-        <v>533</v>
+        <v>548</v>
       </c>
     </row>
     <row r="302">
@@ -19971,29 +19971,29 @@
         <v>280</v>
       </c>
       <c r="B302" t="s" s="0">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C302" t="s" s="0">
-        <v>527</v>
+        <v>577</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s" s="0">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B303" t="s" s="0">
-        <v>96</v>
+        <v>283</v>
       </c>
       <c r="C303" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s" s="0">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B304" t="s" s="0">
-        <v>175</v>
+        <v>284</v>
       </c>
       <c r="C304" t="s" s="0">
         <v>527</v>
@@ -20004,7 +20004,7 @@
         <v>287</v>
       </c>
       <c r="B305" t="s" s="0">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="C305" t="s" s="0">
         <v>527</v>
@@ -20015,7 +20015,7 @@
         <v>287</v>
       </c>
       <c r="B306" t="s" s="0">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C306" t="s" s="0">
         <v>527</v>
@@ -20026,7 +20026,7 @@
         <v>287</v>
       </c>
       <c r="B307" t="s" s="0">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C307" t="s" s="0">
         <v>527</v>
@@ -20037,7 +20037,7 @@
         <v>287</v>
       </c>
       <c r="B308" t="s" s="0">
-        <v>94</v>
+        <v>174</v>
       </c>
       <c r="C308" t="s" s="0">
         <v>527</v>
@@ -20048,7 +20048,7 @@
         <v>287</v>
       </c>
       <c r="B309" t="s" s="0">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C309" t="s" s="0">
         <v>527</v>
@@ -20056,10 +20056,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="0">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B310" t="s" s="0">
-        <v>299</v>
+        <v>94</v>
       </c>
       <c r="C310" t="s" s="0">
         <v>527</v>
@@ -20067,13 +20067,13 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="0">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B311" t="s" s="0">
-        <v>298</v>
+        <v>173</v>
       </c>
       <c r="C311" t="s" s="0">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="312">
@@ -20081,10 +20081,10 @@
         <v>288</v>
       </c>
       <c r="B312" t="s" s="0">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C312" t="s" s="0">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="313">
@@ -20092,7 +20092,7 @@
         <v>288</v>
       </c>
       <c r="B313" t="s" s="0">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C313" t="s" s="0">
         <v>533</v>
@@ -20103,7 +20103,7 @@
         <v>288</v>
       </c>
       <c r="B314" t="s" s="0">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C314" t="s" s="0">
         <v>533</v>
@@ -20114,7 +20114,7 @@
         <v>288</v>
       </c>
       <c r="B315" t="s" s="0">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C315" t="s" s="0">
         <v>533</v>
@@ -20125,7 +20125,7 @@
         <v>288</v>
       </c>
       <c r="B316" t="s" s="0">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C316" t="s" s="0">
         <v>533</v>
@@ -20136,7 +20136,7 @@
         <v>288</v>
       </c>
       <c r="B317" t="s" s="0">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C317" t="s" s="0">
         <v>533</v>
@@ -20144,24 +20144,24 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="0">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B318" t="s" s="0">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C318" t="s" s="0">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s" s="0">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B319" t="s" s="0">
-        <v>45</v>
+        <v>295</v>
       </c>
       <c r="C319" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="320">
@@ -20169,10 +20169,10 @@
         <v>300</v>
       </c>
       <c r="B320" t="s" s="0">
-        <v>163</v>
+        <v>302</v>
       </c>
       <c r="C320" t="s" s="0">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="321">
@@ -20180,7 +20180,7 @@
         <v>300</v>
       </c>
       <c r="B321" t="s" s="0">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="C321" t="s" s="0">
         <v>537</v>
@@ -20191,7 +20191,7 @@
         <v>300</v>
       </c>
       <c r="B322" t="s" s="0">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C322" t="s" s="0">
         <v>537</v>
@@ -20202,7 +20202,7 @@
         <v>300</v>
       </c>
       <c r="B323" t="s" s="0">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C323" t="s" s="0">
         <v>537</v>
@@ -20213,7 +20213,7 @@
         <v>300</v>
       </c>
       <c r="B324" t="s" s="0">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C324" t="s" s="0">
         <v>537</v>
@@ -20224,7 +20224,7 @@
         <v>300</v>
       </c>
       <c r="B325" t="s" s="0">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C325" t="s" s="0">
         <v>537</v>
@@ -20235,7 +20235,7 @@
         <v>300</v>
       </c>
       <c r="B326" t="s" s="0">
-        <v>301</v>
+        <v>161</v>
       </c>
       <c r="C326" t="s" s="0">
         <v>537</v>
@@ -20246,7 +20246,7 @@
         <v>300</v>
       </c>
       <c r="B327" t="s" s="0">
-        <v>303</v>
+        <v>158</v>
       </c>
       <c r="C327" t="s" s="0">
         <v>537</v>
@@ -20257,10 +20257,10 @@
         <v>300</v>
       </c>
       <c r="B328" t="s" s="0">
-        <v>35</v>
+        <v>301</v>
       </c>
       <c r="C328" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="329">
@@ -20268,18 +20268,18 @@
         <v>300</v>
       </c>
       <c r="B329" t="s" s="0">
-        <v>32</v>
+        <v>303</v>
       </c>
       <c r="C329" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s" s="0">
-        <v>87</v>
+        <v>300</v>
       </c>
       <c r="B330" t="s" s="0">
-        <v>304</v>
+        <v>35</v>
       </c>
       <c r="C330" t="s" s="0">
         <v>533</v>
@@ -20287,10 +20287,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="0">
-        <v>87</v>
+        <v>300</v>
       </c>
       <c r="B331" t="s" s="0">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C331" t="s" s="0">
         <v>533</v>
@@ -20301,7 +20301,7 @@
         <v>87</v>
       </c>
       <c r="B332" t="s" s="0">
-        <v>58</v>
+        <v>304</v>
       </c>
       <c r="C332" t="s" s="0">
         <v>533</v>
@@ -20312,7 +20312,7 @@
         <v>87</v>
       </c>
       <c r="B333" t="s" s="0">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="C333" t="s" s="0">
         <v>533</v>
@@ -20323,7 +20323,7 @@
         <v>87</v>
       </c>
       <c r="B334" t="s" s="0">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="C334" t="s" s="0">
         <v>533</v>
@@ -20334,7 +20334,7 @@
         <v>87</v>
       </c>
       <c r="B335" t="s" s="0">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C335" t="s" s="0">
         <v>533</v>
@@ -20345,7 +20345,7 @@
         <v>87</v>
       </c>
       <c r="B336" t="s" s="0">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C336" t="s" s="0">
         <v>533</v>
@@ -20356,7 +20356,7 @@
         <v>87</v>
       </c>
       <c r="B337" t="s" s="0">
-        <v>309</v>
+        <v>129</v>
       </c>
       <c r="C337" t="s" s="0">
         <v>533</v>
@@ -20367,7 +20367,7 @@
         <v>87</v>
       </c>
       <c r="B338" t="s" s="0">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="C338" t="s" s="0">
         <v>533</v>
@@ -20378,7 +20378,7 @@
         <v>87</v>
       </c>
       <c r="B339" t="s" s="0">
-        <v>128</v>
+        <v>309</v>
       </c>
       <c r="C339" t="s" s="0">
         <v>533</v>
@@ -20389,7 +20389,7 @@
         <v>87</v>
       </c>
       <c r="B340" t="s" s="0">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="C340" t="s" s="0">
         <v>533</v>
@@ -20400,7 +20400,7 @@
         <v>87</v>
       </c>
       <c r="B341" t="s" s="0">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C341" t="s" s="0">
         <v>533</v>
@@ -20411,7 +20411,7 @@
         <v>87</v>
       </c>
       <c r="B342" t="s" s="0">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C342" t="s" s="0">
         <v>533</v>
@@ -20422,7 +20422,7 @@
         <v>87</v>
       </c>
       <c r="B343" t="s" s="0">
-        <v>306</v>
+        <v>127</v>
       </c>
       <c r="C343" t="s" s="0">
         <v>533</v>
@@ -20433,10 +20433,10 @@
         <v>87</v>
       </c>
       <c r="B344" t="s" s="0">
-        <v>305</v>
+        <v>130</v>
       </c>
       <c r="C344" t="s" s="0">
-        <v>588</v>
+        <v>533</v>
       </c>
     </row>
     <row r="345">
@@ -20444,54 +20444,54 @@
         <v>87</v>
       </c>
       <c r="B345" t="s" s="0">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C345" t="s" s="0">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s" s="0">
-        <v>310</v>
+        <v>87</v>
       </c>
       <c r="B346" t="s" s="0">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C346" t="s" s="0">
-        <v>527</v>
+        <v>588</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s" s="0">
-        <v>310</v>
+        <v>87</v>
       </c>
       <c r="B347" t="s" s="0">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="C347" t="s" s="0">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s" s="0">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B348" t="s" s="0">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="C348" t="s" s="0">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s" s="0">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B349" t="s" s="0">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="C349" t="s" s="0">
-        <v>590</v>
+        <v>527</v>
       </c>
     </row>
     <row r="350">
@@ -20499,10 +20499,10 @@
         <v>312</v>
       </c>
       <c r="B350" t="s" s="0">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C350" t="s" s="0">
-        <v>590</v>
+        <v>533</v>
       </c>
     </row>
     <row r="351">
@@ -20510,10 +20510,10 @@
         <v>312</v>
       </c>
       <c r="B351" t="s" s="0">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C351" t="s" s="0">
-        <v>537</v>
+        <v>590</v>
       </c>
     </row>
     <row r="352">
@@ -20521,10 +20521,10 @@
         <v>312</v>
       </c>
       <c r="B352" t="s" s="0">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="C352" t="s" s="0">
-        <v>573</v>
+        <v>590</v>
       </c>
     </row>
     <row r="353">
@@ -20532,10 +20532,10 @@
         <v>312</v>
       </c>
       <c r="B353" t="s" s="0">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C353" t="s" s="0">
-        <v>527</v>
+        <v>537</v>
       </c>
     </row>
     <row r="354">
@@ -20543,10 +20543,10 @@
         <v>312</v>
       </c>
       <c r="B354" t="s" s="0">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C354" t="s" s="0">
-        <v>527</v>
+        <v>573</v>
       </c>
     </row>
     <row r="355">
@@ -20554,7 +20554,7 @@
         <v>312</v>
       </c>
       <c r="B355" t="s" s="0">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C355" t="s" s="0">
         <v>527</v>
@@ -20565,7 +20565,7 @@
         <v>312</v>
       </c>
       <c r="B356" t="s" s="0">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C356" t="s" s="0">
         <v>527</v>
@@ -20576,7 +20576,7 @@
         <v>312</v>
       </c>
       <c r="B357" t="s" s="0">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C357" t="s" s="0">
         <v>527</v>
@@ -20584,24 +20584,24 @@
     </row>
     <row r="358">
       <c r="A358" t="s" s="0">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B358" t="s" s="0">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C358" t="s" s="0">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s" s="0">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B359" t="s" s="0">
-        <v>45</v>
+        <v>313</v>
       </c>
       <c r="C359" t="s" s="0">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="360">
@@ -20609,10 +20609,10 @@
         <v>326</v>
       </c>
       <c r="B360" t="s" s="0">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C360" t="s" s="0">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="361">
@@ -20620,7 +20620,7 @@
         <v>326</v>
       </c>
       <c r="B361" t="s" s="0">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c r="C361" t="s" s="0">
         <v>537</v>
@@ -20631,7 +20631,7 @@
         <v>326</v>
       </c>
       <c r="B362" t="s" s="0">
-        <v>209</v>
+        <v>328</v>
       </c>
       <c r="C362" t="s" s="0">
         <v>537</v>
@@ -20642,10 +20642,10 @@
         <v>326</v>
       </c>
       <c r="B363" t="s" s="0">
-        <v>35</v>
+        <v>210</v>
       </c>
       <c r="C363" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="364">
@@ -20653,32 +20653,32 @@
         <v>326</v>
       </c>
       <c r="B364" t="s" s="0">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="C364" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s" s="0">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="B365" t="s" s="0">
-        <v>330</v>
+        <v>35</v>
       </c>
       <c r="C365" t="s" s="0">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="s" s="0">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="B366" t="s" s="0">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C366" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="367">
@@ -20686,10 +20686,10 @@
         <v>307</v>
       </c>
       <c r="B367" t="s" s="0">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="C367" t="s" s="0">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="368">
@@ -20697,7 +20697,7 @@
         <v>307</v>
       </c>
       <c r="B368" t="s" s="0">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="C368" t="s" s="0">
         <v>537</v>
@@ -20708,7 +20708,7 @@
         <v>307</v>
       </c>
       <c r="B369" t="s" s="0">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C369" t="s" s="0">
         <v>537</v>
@@ -20719,7 +20719,7 @@
         <v>307</v>
       </c>
       <c r="B370" t="s" s="0">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C370" t="s" s="0">
         <v>537</v>
@@ -20730,7 +20730,7 @@
         <v>307</v>
       </c>
       <c r="B371" t="s" s="0">
-        <v>301</v>
+        <v>114</v>
       </c>
       <c r="C371" t="s" s="0">
         <v>537</v>
@@ -20741,10 +20741,10 @@
         <v>307</v>
       </c>
       <c r="B372" t="s" s="0">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="C372" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="373">
@@ -20752,29 +20752,29 @@
         <v>307</v>
       </c>
       <c r="B373" t="s" s="0">
-        <v>32</v>
+        <v>301</v>
       </c>
       <c r="C373" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="s" s="0">
-        <v>191</v>
+        <v>307</v>
       </c>
       <c r="B374" t="s" s="0">
-        <v>333</v>
+        <v>35</v>
       </c>
       <c r="C374" t="s" s="0">
-        <v>548</v>
+        <v>533</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="s" s="0">
-        <v>191</v>
+        <v>307</v>
       </c>
       <c r="B375" t="s" s="0">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C375" t="s" s="0">
         <v>533</v>
@@ -20785,10 +20785,10 @@
         <v>191</v>
       </c>
       <c r="B376" t="s" s="0">
-        <v>58</v>
+        <v>333</v>
       </c>
       <c r="C376" t="s" s="0">
-        <v>533</v>
+        <v>548</v>
       </c>
     </row>
     <row r="377">
@@ -20796,7 +20796,7 @@
         <v>191</v>
       </c>
       <c r="B377" t="s" s="0">
-        <v>178</v>
+        <v>62</v>
       </c>
       <c r="C377" t="s" s="0">
         <v>533</v>
@@ -20807,7 +20807,7 @@
         <v>191</v>
       </c>
       <c r="B378" t="s" s="0">
-        <v>331</v>
+        <v>58</v>
       </c>
       <c r="C378" t="s" s="0">
         <v>533</v>
@@ -20818,7 +20818,7 @@
         <v>191</v>
       </c>
       <c r="B379" t="s" s="0">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C379" t="s" s="0">
         <v>533</v>
@@ -20829,7 +20829,7 @@
         <v>191</v>
       </c>
       <c r="B380" t="s" s="0">
-        <v>66</v>
+        <v>331</v>
       </c>
       <c r="C380" t="s" s="0">
         <v>533</v>
@@ -20840,7 +20840,7 @@
         <v>191</v>
       </c>
       <c r="B381" t="s" s="0">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C381" t="s" s="0">
         <v>533</v>
@@ -20851,7 +20851,7 @@
         <v>191</v>
       </c>
       <c r="B382" t="s" s="0">
-        <v>332</v>
+        <v>66</v>
       </c>
       <c r="C382" t="s" s="0">
         <v>533</v>
@@ -20862,7 +20862,7 @@
         <v>191</v>
       </c>
       <c r="B383" t="s" s="0">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C383" t="s" s="0">
         <v>533</v>
@@ -20873,10 +20873,10 @@
         <v>191</v>
       </c>
       <c r="B384" t="s" s="0">
-        <v>17</v>
+        <v>332</v>
       </c>
       <c r="C384" t="s" s="0">
-        <v>567</v>
+        <v>533</v>
       </c>
     </row>
     <row r="385">
@@ -20884,7 +20884,7 @@
         <v>191</v>
       </c>
       <c r="B385" t="s" s="0">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="C385" t="s" s="0">
         <v>533</v>
@@ -20895,10 +20895,10 @@
         <v>191</v>
       </c>
       <c r="B386" t="s" s="0">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C386" t="s" s="0">
-        <v>587</v>
+        <v>567</v>
       </c>
     </row>
     <row r="387">
@@ -20906,7 +20906,7 @@
         <v>191</v>
       </c>
       <c r="B387" t="s" s="0">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="C387" t="s" s="0">
         <v>533</v>
@@ -20914,24 +20914,24 @@
     </row>
     <row r="388">
       <c r="A388" t="s" s="0">
-        <v>334</v>
+        <v>191</v>
       </c>
       <c r="B388" t="s" s="0">
-        <v>336</v>
+        <v>26</v>
       </c>
       <c r="C388" t="s" s="0">
-        <v>533</v>
+        <v>587</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="s" s="0">
-        <v>334</v>
+        <v>191</v>
       </c>
       <c r="B389" t="s" s="0">
-        <v>337</v>
+        <v>32</v>
       </c>
       <c r="C389" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="390">
@@ -20939,7 +20939,7 @@
         <v>334</v>
       </c>
       <c r="B390" t="s" s="0">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C390" t="s" s="0">
         <v>533</v>
@@ -20947,24 +20947,24 @@
     </row>
     <row r="391">
       <c r="A391" t="s" s="0">
-        <v>55</v>
+        <v>334</v>
       </c>
       <c r="B391" t="s" s="0">
-        <v>62</v>
+        <v>337</v>
       </c>
       <c r="C391" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="s" s="0">
-        <v>55</v>
+        <v>334</v>
       </c>
       <c r="B392" t="s" s="0">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C392" t="s" s="0">
-        <v>577</v>
+        <v>533</v>
       </c>
     </row>
     <row r="393">
@@ -20972,10 +20972,10 @@
         <v>55</v>
       </c>
       <c r="B393" t="s" s="0">
-        <v>339</v>
+        <v>62</v>
       </c>
       <c r="C393" t="s" s="0">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="394">
@@ -20983,10 +20983,10 @@
         <v>55</v>
       </c>
       <c r="B394" t="s" s="0">
-        <v>58</v>
+        <v>341</v>
       </c>
       <c r="C394" t="s" s="0">
-        <v>533</v>
+        <v>577</v>
       </c>
     </row>
     <row r="395">
@@ -20994,10 +20994,10 @@
         <v>55</v>
       </c>
       <c r="B395" t="s" s="0">
-        <v>266</v>
+        <v>339</v>
       </c>
       <c r="C395" t="s" s="0">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="396">
@@ -21005,7 +21005,7 @@
         <v>55</v>
       </c>
       <c r="B396" t="s" s="0">
-        <v>264</v>
+        <v>58</v>
       </c>
       <c r="C396" t="s" s="0">
         <v>533</v>
@@ -21016,7 +21016,7 @@
         <v>55</v>
       </c>
       <c r="B397" t="s" s="0">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C397" t="s" s="0">
         <v>533</v>
@@ -21027,7 +21027,7 @@
         <v>55</v>
       </c>
       <c r="B398" t="s" s="0">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C398" t="s" s="0">
         <v>533</v>
@@ -21038,7 +21038,7 @@
         <v>55</v>
       </c>
       <c r="B399" t="s" s="0">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C399" t="s" s="0">
         <v>533</v>
@@ -21049,7 +21049,7 @@
         <v>55</v>
       </c>
       <c r="B400" t="s" s="0">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="C400" t="s" s="0">
         <v>533</v>
@@ -21060,7 +21060,7 @@
         <v>55</v>
       </c>
       <c r="B401" t="s" s="0">
-        <v>309</v>
+        <v>267</v>
       </c>
       <c r="C401" t="s" s="0">
         <v>533</v>
@@ -21071,7 +21071,7 @@
         <v>55</v>
       </c>
       <c r="B402" t="s" s="0">
-        <v>340</v>
+        <v>258</v>
       </c>
       <c r="C402" t="s" s="0">
         <v>533</v>
@@ -21082,7 +21082,7 @@
         <v>55</v>
       </c>
       <c r="B403" t="s" s="0">
-        <v>66</v>
+        <v>309</v>
       </c>
       <c r="C403" t="s" s="0">
         <v>533</v>
@@ -21093,7 +21093,7 @@
         <v>55</v>
       </c>
       <c r="B404" t="s" s="0">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="C404" t="s" s="0">
         <v>533</v>
@@ -21104,7 +21104,7 @@
         <v>55</v>
       </c>
       <c r="B405" t="s" s="0">
-        <v>261</v>
+        <v>66</v>
       </c>
       <c r="C405" t="s" s="0">
         <v>533</v>
@@ -21115,7 +21115,7 @@
         <v>55</v>
       </c>
       <c r="B406" t="s" s="0">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C406" t="s" s="0">
         <v>533</v>
@@ -21126,7 +21126,7 @@
         <v>55</v>
       </c>
       <c r="B407" t="s" s="0">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C407" t="s" s="0">
         <v>533</v>
@@ -21137,7 +21137,7 @@
         <v>55</v>
       </c>
       <c r="B408" t="s" s="0">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C408" t="s" s="0">
         <v>533</v>
@@ -21148,7 +21148,7 @@
         <v>55</v>
       </c>
       <c r="B409" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C409" t="s" s="0">
         <v>533</v>
@@ -21159,7 +21159,7 @@
         <v>55</v>
       </c>
       <c r="B410" t="s" s="0">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="C410" t="s" s="0">
         <v>533</v>
@@ -21170,7 +21170,7 @@
         <v>55</v>
       </c>
       <c r="B411" t="s" s="0">
-        <v>338</v>
+        <v>259</v>
       </c>
       <c r="C411" t="s" s="0">
         <v>533</v>
@@ -21178,21 +21178,21 @@
     </row>
     <row r="412">
       <c r="A412" t="s" s="0">
-        <v>342</v>
+        <v>55</v>
       </c>
       <c r="B412" t="s" s="0">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="C412" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="s" s="0">
-        <v>342</v>
+        <v>55</v>
       </c>
       <c r="B413" t="s" s="0">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C413" t="s" s="0">
         <v>533</v>
@@ -21203,32 +21203,32 @@
         <v>342</v>
       </c>
       <c r="B414" t="s" s="0">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C414" t="s" s="0">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="s" s="0">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B415" t="s" s="0">
-        <v>96</v>
+        <v>345</v>
       </c>
       <c r="C415" t="s" s="0">
-        <v>573</v>
+        <v>533</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="s" s="0">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B416" t="s" s="0">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C416" t="s" s="0">
-        <v>588</v>
+        <v>533</v>
       </c>
     </row>
     <row r="417">
@@ -21236,10 +21236,10 @@
         <v>346</v>
       </c>
       <c r="B417" t="s" s="0">
-        <v>350</v>
+        <v>96</v>
       </c>
       <c r="C417" t="s" s="0">
-        <v>588</v>
+        <v>573</v>
       </c>
     </row>
     <row r="418">
@@ -21247,10 +21247,10 @@
         <v>346</v>
       </c>
       <c r="B418" t="s" s="0">
-        <v>94</v>
+        <v>348</v>
       </c>
       <c r="C418" t="s" s="0">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="419">
@@ -21258,10 +21258,10 @@
         <v>346</v>
       </c>
       <c r="B419" t="s" s="0">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C419" t="s" s="0">
-        <v>533</v>
+        <v>588</v>
       </c>
     </row>
     <row r="420">
@@ -21269,10 +21269,10 @@
         <v>346</v>
       </c>
       <c r="B420" t="s" s="0">
-        <v>351</v>
+        <v>94</v>
       </c>
       <c r="C420" t="s" s="0">
-        <v>559</v>
+        <v>591</v>
       </c>
     </row>
     <row r="421">
@@ -21280,10 +21280,10 @@
         <v>346</v>
       </c>
       <c r="B421" t="s" s="0">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C421" t="s" s="0">
-        <v>587</v>
+        <v>533</v>
       </c>
     </row>
     <row r="422">
@@ -21291,32 +21291,32 @@
         <v>346</v>
       </c>
       <c r="B422" t="s" s="0">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C422" t="s" s="0">
-        <v>548</v>
+        <v>559</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="s" s="0">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="B423" t="s" s="0">
-        <v>398</v>
+        <v>349</v>
       </c>
       <c r="C423" t="s" s="0">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="s" s="0">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="B424" t="s" s="0">
-        <v>96</v>
+        <v>352</v>
       </c>
       <c r="C424" t="s" s="0">
-        <v>577</v>
+        <v>548</v>
       </c>
     </row>
     <row r="425">
@@ -21324,7 +21324,7 @@
         <v>392</v>
       </c>
       <c r="B425" t="s" s="0">
-        <v>176</v>
+        <v>398</v>
       </c>
       <c r="C425" t="s" s="0">
         <v>588</v>
@@ -21335,10 +21335,10 @@
         <v>392</v>
       </c>
       <c r="B426" t="s" s="0">
-        <v>396</v>
+        <v>96</v>
       </c>
       <c r="C426" t="s" s="0">
-        <v>573</v>
+        <v>577</v>
       </c>
     </row>
     <row r="427">
@@ -21346,10 +21346,10 @@
         <v>392</v>
       </c>
       <c r="B427" t="s" s="0">
-        <v>393</v>
+        <v>176</v>
       </c>
       <c r="C427" t="s" s="0">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="428">
@@ -21357,7 +21357,7 @@
         <v>392</v>
       </c>
       <c r="B428" t="s" s="0">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C428" t="s" s="0">
         <v>573</v>
@@ -21368,10 +21368,10 @@
         <v>392</v>
       </c>
       <c r="B429" t="s" s="0">
-        <v>94</v>
+        <v>395</v>
       </c>
       <c r="C429" t="s" s="0">
-        <v>548</v>
+        <v>582</v>
       </c>
     </row>
     <row r="430">
@@ -21379,10 +21379,10 @@
         <v>392</v>
       </c>
       <c r="B430" t="s" s="0">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C430" t="s" s="0">
-        <v>582</v>
+        <v>573</v>
       </c>
     </row>
     <row r="431">
@@ -21390,7 +21390,7 @@
         <v>392</v>
       </c>
       <c r="B431" t="s" s="0">
-        <v>397</v>
+        <v>94</v>
       </c>
       <c r="C431" t="s" s="0">
         <v>548</v>
@@ -21398,10 +21398,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s" s="0">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="B432" t="s" s="0">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="C432" t="s" s="0">
         <v>582</v>
@@ -21409,13 +21409,13 @@
     </row>
     <row r="433">
       <c r="A433" t="s" s="0">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="B433" t="s" s="0">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="C433" t="s" s="0">
-        <v>533</v>
+        <v>548</v>
       </c>
     </row>
     <row r="434">
@@ -21423,29 +21423,29 @@
         <v>353</v>
       </c>
       <c r="B434" t="s" s="0">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C434" t="s" s="0">
-        <v>533</v>
+        <v>582</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="s" s="0">
-        <v>230</v>
+        <v>353</v>
       </c>
       <c r="B435" t="s" s="0">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C435" t="s" s="0">
-        <v>582</v>
+        <v>533</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="s" s="0">
-        <v>230</v>
+        <v>353</v>
       </c>
       <c r="B436" t="s" s="0">
-        <v>62</v>
+        <v>356</v>
       </c>
       <c r="C436" t="s" s="0">
         <v>533</v>
@@ -21456,10 +21456,10 @@
         <v>230</v>
       </c>
       <c r="B437" t="s" s="0">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C437" t="s" s="0">
-        <v>548</v>
+        <v>582</v>
       </c>
     </row>
     <row r="438">
@@ -21467,10 +21467,10 @@
         <v>230</v>
       </c>
       <c r="B438" t="s" s="0">
-        <v>359</v>
+        <v>62</v>
       </c>
       <c r="C438" t="s" s="0">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="439">
@@ -21478,10 +21478,10 @@
         <v>230</v>
       </c>
       <c r="B439" t="s" s="0">
-        <v>58</v>
+        <v>358</v>
       </c>
       <c r="C439" t="s" s="0">
-        <v>533</v>
+        <v>548</v>
       </c>
     </row>
     <row r="440">
@@ -21489,10 +21489,10 @@
         <v>230</v>
       </c>
       <c r="B440" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C440" t="s" s="0">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="441">
@@ -21500,7 +21500,7 @@
         <v>230</v>
       </c>
       <c r="B441" t="s" s="0">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c r="C441" t="s" s="0">
         <v>533</v>
@@ -21511,7 +21511,7 @@
         <v>230</v>
       </c>
       <c r="B442" t="s" s="0">
-        <v>178</v>
+        <v>357</v>
       </c>
       <c r="C442" t="s" s="0">
         <v>533</v>
@@ -21522,7 +21522,7 @@
         <v>230</v>
       </c>
       <c r="B443" t="s" s="0">
-        <v>66</v>
+        <v>182</v>
       </c>
       <c r="C443" t="s" s="0">
         <v>533</v>
@@ -21533,7 +21533,7 @@
         <v>230</v>
       </c>
       <c r="B444" t="s" s="0">
-        <v>360</v>
+        <v>178</v>
       </c>
       <c r="C444" t="s" s="0">
         <v>533</v>
@@ -21544,7 +21544,7 @@
         <v>230</v>
       </c>
       <c r="B445" t="s" s="0">
-        <v>184</v>
+        <v>66</v>
       </c>
       <c r="C445" t="s" s="0">
         <v>533</v>
@@ -21555,7 +21555,7 @@
         <v>230</v>
       </c>
       <c r="B446" t="s" s="0">
-        <v>183</v>
+        <v>360</v>
       </c>
       <c r="C446" t="s" s="0">
         <v>533</v>
@@ -21563,24 +21563,24 @@
     </row>
     <row r="447">
       <c r="A447" t="s" s="0">
-        <v>362</v>
+        <v>230</v>
       </c>
       <c r="B447" t="s" s="0">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="C447" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="s" s="0">
-        <v>362</v>
+        <v>230</v>
       </c>
       <c r="B448" t="s" s="0">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="C448" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="449">
@@ -21588,7 +21588,7 @@
         <v>362</v>
       </c>
       <c r="B449" t="s" s="0">
-        <v>350</v>
+        <v>96</v>
       </c>
       <c r="C449" t="s" s="0">
         <v>527</v>
@@ -21599,7 +21599,7 @@
         <v>362</v>
       </c>
       <c r="B450" t="s" s="0">
-        <v>94</v>
+        <v>348</v>
       </c>
       <c r="C450" t="s" s="0">
         <v>527</v>
@@ -21610,7 +21610,7 @@
         <v>362</v>
       </c>
       <c r="B451" t="s" s="0">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C451" t="s" s="0">
         <v>527</v>
@@ -21618,24 +21618,24 @@
     </row>
     <row r="452">
       <c r="A452" t="s" s="0">
-        <v>36</v>
+        <v>362</v>
       </c>
       <c r="B452" t="s" s="0">
-        <v>371</v>
+        <v>94</v>
       </c>
       <c r="C452" t="s" s="0">
-        <v>587</v>
+        <v>527</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="s" s="0">
-        <v>36</v>
+        <v>362</v>
       </c>
       <c r="B453" t="s" s="0">
-        <v>62</v>
+        <v>351</v>
       </c>
       <c r="C453" t="s" s="0">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="454">
@@ -21643,10 +21643,10 @@
         <v>36</v>
       </c>
       <c r="B454" t="s" s="0">
-        <v>58</v>
+        <v>371</v>
       </c>
       <c r="C454" t="s" s="0">
-        <v>533</v>
+        <v>587</v>
       </c>
     </row>
     <row r="455">
@@ -21654,7 +21654,7 @@
         <v>36</v>
       </c>
       <c r="B455" t="s" s="0">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C455" t="s" s="0">
         <v>533</v>
@@ -21665,7 +21665,7 @@
         <v>36</v>
       </c>
       <c r="B456" t="s" s="0">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C456" t="s" s="0">
         <v>533</v>
@@ -21676,7 +21676,7 @@
         <v>36</v>
       </c>
       <c r="B457" t="s" s="0">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C457" t="s" s="0">
         <v>533</v>
@@ -21687,7 +21687,7 @@
         <v>36</v>
       </c>
       <c r="B458" t="s" s="0">
-        <v>364</v>
+        <v>75</v>
       </c>
       <c r="C458" t="s" s="0">
         <v>533</v>
@@ -21698,7 +21698,7 @@
         <v>36</v>
       </c>
       <c r="B459" t="s" s="0">
-        <v>365</v>
+        <v>70</v>
       </c>
       <c r="C459" t="s" s="0">
         <v>533</v>
@@ -21709,7 +21709,7 @@
         <v>36</v>
       </c>
       <c r="B460" t="s" s="0">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C460" t="s" s="0">
         <v>533</v>
@@ -21720,7 +21720,7 @@
         <v>36</v>
       </c>
       <c r="B461" t="s" s="0">
-        <v>141</v>
+        <v>365</v>
       </c>
       <c r="C461" t="s" s="0">
         <v>533</v>
@@ -21731,7 +21731,7 @@
         <v>36</v>
       </c>
       <c r="B462" t="s" s="0">
-        <v>72</v>
+        <v>363</v>
       </c>
       <c r="C462" t="s" s="0">
         <v>533</v>
@@ -21742,7 +21742,7 @@
         <v>36</v>
       </c>
       <c r="B463" t="s" s="0">
-        <v>366</v>
+        <v>141</v>
       </c>
       <c r="C463" t="s" s="0">
         <v>533</v>
@@ -21753,7 +21753,7 @@
         <v>36</v>
       </c>
       <c r="B464" t="s" s="0">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="C464" t="s" s="0">
         <v>533</v>
@@ -21764,7 +21764,7 @@
         <v>36</v>
       </c>
       <c r="B465" t="s" s="0">
-        <v>66</v>
+        <v>366</v>
       </c>
       <c r="C465" t="s" s="0">
         <v>533</v>
@@ -21775,7 +21775,7 @@
         <v>36</v>
       </c>
       <c r="B466" t="s" s="0">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="C466" t="s" s="0">
         <v>533</v>
@@ -21786,7 +21786,7 @@
         <v>36</v>
       </c>
       <c r="B467" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C467" t="s" s="0">
         <v>533</v>
@@ -21797,7 +21797,7 @@
         <v>36</v>
       </c>
       <c r="B468" t="s" s="0">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C468" t="s" s="0">
         <v>533</v>
@@ -21808,7 +21808,7 @@
         <v>36</v>
       </c>
       <c r="B469" t="s" s="0">
-        <v>370</v>
+        <v>67</v>
       </c>
       <c r="C469" t="s" s="0">
         <v>533</v>
@@ -21819,7 +21819,7 @@
         <v>36</v>
       </c>
       <c r="B470" t="s" s="0">
-        <v>368</v>
+        <v>73</v>
       </c>
       <c r="C470" t="s" s="0">
         <v>533</v>
@@ -21830,7 +21830,7 @@
         <v>36</v>
       </c>
       <c r="B471" t="s" s="0">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C471" t="s" s="0">
         <v>533</v>
@@ -21841,7 +21841,7 @@
         <v>36</v>
       </c>
       <c r="B472" t="s" s="0">
-        <v>146</v>
+        <v>368</v>
       </c>
       <c r="C472" t="s" s="0">
         <v>533</v>
@@ -21852,7 +21852,7 @@
         <v>36</v>
       </c>
       <c r="B473" t="s" s="0">
-        <v>53</v>
+        <v>369</v>
       </c>
       <c r="C473" t="s" s="0">
         <v>533</v>
@@ -21863,7 +21863,7 @@
         <v>36</v>
       </c>
       <c r="B474" t="s" s="0">
-        <v>367</v>
+        <v>146</v>
       </c>
       <c r="C474" t="s" s="0">
         <v>533</v>
@@ -21874,7 +21874,7 @@
         <v>36</v>
       </c>
       <c r="B475" t="s" s="0">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="C475" t="s" s="0">
         <v>533</v>
@@ -21885,10 +21885,10 @@
         <v>36</v>
       </c>
       <c r="B476" t="s" s="0">
-        <v>17</v>
+        <v>367</v>
       </c>
       <c r="C476" t="s" s="0">
-        <v>596</v>
+        <v>533</v>
       </c>
     </row>
     <row r="477">
@@ -21896,7 +21896,7 @@
         <v>36</v>
       </c>
       <c r="B477" t="s" s="0">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="C477" t="s" s="0">
         <v>533</v>
@@ -21907,10 +21907,10 @@
         <v>36</v>
       </c>
       <c r="B478" t="s" s="0">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C478" t="s" s="0">
-        <v>571</v>
+        <v>596</v>
       </c>
     </row>
     <row r="479">
@@ -21918,7 +21918,7 @@
         <v>36</v>
       </c>
       <c r="B479" t="s" s="0">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="C479" t="s" s="0">
         <v>533</v>
@@ -21926,24 +21926,24 @@
     </row>
     <row r="480">
       <c r="A480" t="s" s="0">
-        <v>399</v>
+        <v>36</v>
       </c>
       <c r="B480" t="s" s="0">
-        <v>388</v>
+        <v>26</v>
       </c>
       <c r="C480" t="s" s="0">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="s" s="0">
-        <v>399</v>
+        <v>36</v>
       </c>
       <c r="B481" t="s" s="0">
-        <v>402</v>
+        <v>32</v>
       </c>
       <c r="C481" t="s" s="0">
-        <v>582</v>
+        <v>533</v>
       </c>
     </row>
     <row r="482">
@@ -21951,10 +21951,10 @@
         <v>399</v>
       </c>
       <c r="B482" t="s" s="0">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="C482" t="s" s="0">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="483">
@@ -21962,10 +21962,10 @@
         <v>399</v>
       </c>
       <c r="B483" t="s" s="0">
-        <v>94</v>
+        <v>401</v>
       </c>
       <c r="C483" t="s" s="0">
-        <v>573</v>
+        <v>582</v>
       </c>
     </row>
     <row r="484">
@@ -21973,7 +21973,7 @@
         <v>399</v>
       </c>
       <c r="B484" t="s" s="0">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C484" t="s" s="0">
         <v>582</v>
@@ -21984,32 +21984,32 @@
         <v>399</v>
       </c>
       <c r="B485" t="s" s="0">
-        <v>400</v>
+        <v>94</v>
       </c>
       <c r="C485" t="s" s="0">
-        <v>537</v>
+        <v>573</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="s" s="0">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="B486" t="s" s="0">
-        <v>96</v>
+        <v>403</v>
       </c>
       <c r="C486" t="s" s="0">
-        <v>573</v>
+        <v>582</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="s" s="0">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="B487" t="s" s="0">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="C487" t="s" s="0">
-        <v>573</v>
+        <v>537</v>
       </c>
     </row>
     <row r="488">
@@ -22017,10 +22017,10 @@
         <v>372</v>
       </c>
       <c r="B488" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C488" t="s" s="0">
-        <v>559</v>
+        <v>573</v>
       </c>
     </row>
     <row r="489">
@@ -22028,10 +22028,10 @@
         <v>372</v>
       </c>
       <c r="B489" t="s" s="0">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C489" t="s" s="0">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="490">
@@ -22039,10 +22039,10 @@
         <v>372</v>
       </c>
       <c r="B490" t="s" s="0">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C490" t="s" s="0">
-        <v>591</v>
+        <v>559</v>
       </c>
     </row>
     <row r="491">
@@ -22050,7 +22050,7 @@
         <v>372</v>
       </c>
       <c r="B491" t="s" s="0">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C491" t="s" s="0">
         <v>577</v>
@@ -22061,10 +22061,10 @@
         <v>372</v>
       </c>
       <c r="B492" t="s" s="0">
-        <v>375</v>
+        <v>97</v>
       </c>
       <c r="C492" t="s" s="0">
-        <v>537</v>
+        <v>591</v>
       </c>
     </row>
     <row r="493">
@@ -22072,10 +22072,10 @@
         <v>372</v>
       </c>
       <c r="B493" t="s" s="0">
-        <v>373</v>
+        <v>94</v>
       </c>
       <c r="C493" t="s" s="0">
-        <v>548</v>
+        <v>577</v>
       </c>
     </row>
     <row r="494">
@@ -22083,9 +22083,31 @@
         <v>372</v>
       </c>
       <c r="B494" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="C494" t="s" s="0">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="B495" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="C495" t="s" s="0">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="B496" t="s" s="0">
         <v>374</v>
       </c>
-      <c r="C494" t="s" s="0">
+      <c r="C496" t="s" s="0">
         <v>527</v>
       </c>
     </row>
@@ -22096,7 +22118,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -22121,13 +22143,13 @@
         <v>379</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>380</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -22135,13 +22157,13 @@
         <v>379</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>381</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -22149,21 +22171,21 @@
         <v>379</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>382</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>6</v>
@@ -22174,10 +22196,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>385</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>6</v>
@@ -22188,52 +22210,52 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>386</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>94</v>
+        <v>381</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>6</v>
@@ -22244,108 +22266,108 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>96</v>
+        <v>382</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>388</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>389</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>390</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>391</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>393</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>6</v>
@@ -22356,80 +22378,80 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>395</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>396</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>94</v>
+        <v>386</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>398</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>6</v>
@@ -22440,24 +22462,24 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>400</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>6</v>
@@ -22468,24 +22490,24 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>401</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>388</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>6</v>
@@ -22496,10 +22518,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>402</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>6</v>
@@ -22510,29 +22532,659 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>403</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
         <v>399</v>
       </c>
-      <c r="B31" t="s" s="0">
+      <c r="B62" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D62" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D64" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D74" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="B76" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="C31" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D31" t="s" s="0">
+      <c r="C76" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D76" t="s" s="0">
         <v>7</v>
       </c>
     </row>
@@ -35703,7 +36355,7 @@
         <v>383</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>272</v>
@@ -35754,7 +36406,7 @@
         <v>392</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>353</v>
@@ -35771,7 +36423,7 @@
         <v>392</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>272</v>
@@ -35788,7 +36440,7 @@
         <v>383</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>187</v>
@@ -35822,7 +36474,7 @@
         <v>399</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>135</v>
@@ -35839,7 +36491,7 @@
         <v>387</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>211</v>
@@ -35856,7 +36508,7 @@
         <v>379</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>238</v>
@@ -35873,7 +36525,7 @@
         <v>399</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>362</v>
@@ -35924,7 +36576,7 @@
         <v>387</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>233</v>
@@ -35941,7 +36593,7 @@
         <v>392</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>353</v>
@@ -35958,7 +36610,7 @@
         <v>383</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>272</v>
@@ -35992,7 +36644,7 @@
         <v>379</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>238</v>
@@ -36009,7 +36661,7 @@
         <v>383</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>187</v>
@@ -36026,7 +36678,7 @@
         <v>392</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>199</v>
@@ -36043,7 +36695,7 @@
         <v>392</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>353</v>
@@ -36060,7 +36712,7 @@
         <v>383</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>187</v>
@@ -36094,7 +36746,7 @@
         <v>392</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>353</v>
@@ -36111,7 +36763,7 @@
         <v>399</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>342</v>
@@ -36145,7 +36797,7 @@
         <v>383</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>89</v>
@@ -36162,7 +36814,7 @@
         <v>383</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>89</v>
@@ -36179,7 +36831,7 @@
         <v>392</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>287</v>
@@ -36196,7 +36848,7 @@
         <v>392</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>287</v>
@@ -36213,7 +36865,7 @@
         <v>399</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>342</v>
@@ -36230,7 +36882,7 @@
         <v>392</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>105</v>
@@ -36281,7 +36933,7 @@
         <v>383</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>93</v>
@@ -36315,7 +36967,7 @@
         <v>392</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>272</v>
@@ -36332,7 +36984,7 @@
         <v>392</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>287</v>
@@ -36349,7 +37001,7 @@
         <v>387</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>211</v>
@@ -36366,7 +37018,7 @@
         <v>387</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>112</v>
@@ -36383,7 +37035,7 @@
         <v>383</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>187</v>
@@ -36434,7 +37086,7 @@
         <v>387</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>211</v>
@@ -36451,7 +37103,7 @@
         <v>399</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>135</v>
@@ -36468,7 +37120,7 @@
         <v>392</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>287</v>
@@ -36502,7 +37154,7 @@
         <v>399</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>362</v>
@@ -36536,7 +37188,7 @@
         <v>399</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>362</v>
@@ -36553,7 +37205,7 @@
         <v>387</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>233</v>
@@ -36570,7 +37222,7 @@
         <v>399</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>362</v>

--- a/data/backend/order-service_structure.xlsx
+++ b/data/backend/order-service_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10220" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10229" uniqueCount="598">
   <si>
     <t>Class Name</t>
   </si>
@@ -1690,6 +1690,9 @@
   </si>
   <si>
     <t>308</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>53</t>
@@ -16271,7 +16274,7 @@
         <v>150</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>527</v>
+        <v>556</v>
       </c>
     </row>
     <row r="14">
@@ -16279,7 +16282,7 @@
         <v>151</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="15">
@@ -16295,7 +16298,7 @@
         <v>155</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="17">
@@ -16303,7 +16306,7 @@
         <v>164</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="18">
@@ -16311,7 +16314,7 @@
         <v>93</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="19">
@@ -16319,7 +16322,7 @@
         <v>379</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="20">
@@ -16327,7 +16330,7 @@
         <v>187</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="21">
@@ -16335,7 +16338,7 @@
         <v>199</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="22">
@@ -16343,7 +16346,7 @@
         <v>383</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="23">
@@ -16351,7 +16354,7 @@
         <v>202</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="24">
@@ -16359,7 +16362,7 @@
         <v>206</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="25">
@@ -16391,7 +16394,7 @@
         <v>222</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="29">
@@ -16407,7 +16410,7 @@
         <v>387</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="31">
@@ -16415,7 +16418,7 @@
         <v>237</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>527</v>
+        <v>556</v>
       </c>
     </row>
     <row r="32">
@@ -16423,7 +16426,7 @@
         <v>238</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="33">
@@ -16431,7 +16434,7 @@
         <v>246</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="34">
@@ -16439,7 +16442,7 @@
         <v>63</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="35">
@@ -16447,7 +16450,7 @@
         <v>186</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="36">
@@ -16455,7 +16458,7 @@
         <v>135</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="37">
@@ -16463,7 +16466,7 @@
         <v>272</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="38">
@@ -16471,7 +16474,7 @@
         <v>280</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="39">
@@ -16479,7 +16482,7 @@
         <v>287</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="40">
@@ -16487,7 +16490,7 @@
         <v>288</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="41">
@@ -16495,7 +16498,7 @@
         <v>300</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="42">
@@ -16503,7 +16506,7 @@
         <v>87</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="43">
@@ -16519,7 +16522,7 @@
         <v>312</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="45">
@@ -16527,7 +16530,7 @@
         <v>326</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="46">
@@ -16535,7 +16538,7 @@
         <v>329</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="47">
@@ -16551,7 +16554,7 @@
         <v>191</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="49">
@@ -16559,7 +16562,7 @@
         <v>334</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="50">
@@ -16567,7 +16570,7 @@
         <v>55</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="51">
@@ -16583,7 +16586,7 @@
         <v>346</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="53">
@@ -16591,7 +16594,7 @@
         <v>392</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="54">
@@ -16607,7 +16610,7 @@
         <v>230</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="56">
@@ -16615,7 +16618,7 @@
         <v>362</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="57">
@@ -16623,7 +16626,7 @@
         <v>36</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="58">
@@ -16631,7 +16634,7 @@
         <v>399</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="59">
@@ -16639,7 +16642,7 @@
         <v>372</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -16649,7 +16652,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C496"/>
+  <dimension ref="A1:C499"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16748,10 +16751,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>533</v>
+        <v>556</v>
       </c>
     </row>
     <row r="10">
@@ -16759,7 +16762,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>533</v>
@@ -16770,7 +16773,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>533</v>
@@ -16778,13 +16781,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="13">
@@ -16792,10 +16795,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>527</v>
+        <v>556</v>
       </c>
     </row>
     <row r="14">
@@ -16803,7 +16806,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>527</v>
@@ -16814,10 +16817,10 @@
         <v>21</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="16">
@@ -16825,7 +16828,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>537</v>
@@ -16836,7 +16839,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>537</v>
@@ -16847,7 +16850,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>537</v>
@@ -16858,7 +16861,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>537</v>
@@ -16869,7 +16872,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>537</v>
@@ -16880,7 +16883,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>537</v>
@@ -16891,7 +16894,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>537</v>
@@ -16902,7 +16905,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>537</v>
@@ -16913,7 +16916,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>537</v>
@@ -16924,7 +16927,7 @@
         <v>21</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>537</v>
@@ -16935,21 +16938,21 @@
         <v>21</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>586</v>
+        <v>533</v>
       </c>
     </row>
     <row r="28">
@@ -16957,10 +16960,10 @@
         <v>51</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>533</v>
+        <v>587</v>
       </c>
     </row>
     <row r="29">
@@ -16968,10 +16971,10 @@
         <v>51</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>587</v>
+        <v>533</v>
       </c>
     </row>
     <row r="30">
@@ -16979,10 +16982,10 @@
         <v>51</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>528</v>
+        <v>588</v>
       </c>
     </row>
     <row r="31">
@@ -16990,10 +16993,10 @@
         <v>51</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="32">
@@ -17001,7 +17004,7 @@
         <v>51</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>533</v>
@@ -17012,7 +17015,7 @@
         <v>51</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>533</v>
@@ -17023,7 +17026,7 @@
         <v>51</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>533</v>
@@ -17034,7 +17037,7 @@
         <v>51</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>533</v>
@@ -17045,7 +17048,7 @@
         <v>51</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>533</v>
@@ -17056,7 +17059,7 @@
         <v>51</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>533</v>
@@ -17067,7 +17070,7 @@
         <v>51</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>533</v>
@@ -17078,7 +17081,7 @@
         <v>51</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>533</v>
@@ -17089,7 +17092,7 @@
         <v>51</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>533</v>
@@ -17100,7 +17103,7 @@
         <v>51</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>533</v>
@@ -17111,7 +17114,7 @@
         <v>51</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>533</v>
@@ -17122,7 +17125,7 @@
         <v>51</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>533</v>
@@ -17133,7 +17136,7 @@
         <v>51</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>533</v>
@@ -17144,7 +17147,7 @@
         <v>51</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>533</v>
@@ -17155,7 +17158,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>533</v>
@@ -17166,7 +17169,7 @@
         <v>51</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>533</v>
@@ -17177,7 +17180,7 @@
         <v>51</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>533</v>
@@ -17188,7 +17191,7 @@
         <v>51</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>533</v>
@@ -17199,7 +17202,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>533</v>
@@ -17210,7 +17213,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>533</v>
@@ -17221,7 +17224,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>533</v>
@@ -17232,21 +17235,21 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>527</v>
+        <v>556</v>
       </c>
     </row>
     <row r="55">
@@ -17254,7 +17257,7 @@
         <v>89</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>527</v>
@@ -17265,7 +17268,7 @@
         <v>89</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>527</v>
@@ -17276,7 +17279,7 @@
         <v>89</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>527</v>
@@ -17287,7 +17290,7 @@
         <v>89</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>527</v>
@@ -17298,7 +17301,7 @@
         <v>89</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>527</v>
@@ -17306,10 +17309,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>527</v>
@@ -17317,13 +17320,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="62">
@@ -17331,10 +17334,10 @@
         <v>100</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="63">
@@ -17342,7 +17345,7 @@
         <v>100</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>537</v>
@@ -17353,7 +17356,7 @@
         <v>100</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>537</v>
@@ -17364,7 +17367,7 @@
         <v>100</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>537</v>
@@ -17375,7 +17378,7 @@
         <v>100</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>537</v>
@@ -17386,7 +17389,7 @@
         <v>100</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>537</v>
@@ -17397,7 +17400,7 @@
         <v>100</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>537</v>
@@ -17408,7 +17411,7 @@
         <v>100</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>537</v>
@@ -17419,7 +17422,7 @@
         <v>100</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>537</v>
@@ -17430,7 +17433,7 @@
         <v>100</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>537</v>
@@ -17441,7 +17444,7 @@
         <v>100</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>537</v>
@@ -17452,7 +17455,7 @@
         <v>100</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>537</v>
@@ -17463,10 +17466,10 @@
         <v>100</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="75">
@@ -17474,7 +17477,7 @@
         <v>100</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>533</v>
@@ -17482,13 +17485,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="77">
@@ -17496,10 +17499,10 @@
         <v>109</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="78">
@@ -17507,7 +17510,7 @@
         <v>109</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>537</v>
@@ -17518,7 +17521,7 @@
         <v>109</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>537</v>
@@ -17529,7 +17532,7 @@
         <v>109</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>537</v>
@@ -17540,7 +17543,7 @@
         <v>109</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>537</v>
@@ -17551,10 +17554,10 @@
         <v>109</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="83">
@@ -17562,18 +17565,18 @@
         <v>109</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>533</v>
@@ -17581,10 +17584,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>533</v>
@@ -17595,10 +17598,10 @@
         <v>112</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>588</v>
+        <v>533</v>
       </c>
     </row>
     <row r="87">
@@ -17606,7 +17609,7 @@
         <v>112</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>533</v>
@@ -17617,10 +17620,10 @@
         <v>112</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>533</v>
+        <v>589</v>
       </c>
     </row>
     <row r="89">
@@ -17628,7 +17631,7 @@
         <v>112</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>533</v>
@@ -17639,7 +17642,7 @@
         <v>112</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>533</v>
@@ -17650,7 +17653,7 @@
         <v>112</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>533</v>
@@ -17661,7 +17664,7 @@
         <v>112</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>533</v>
@@ -17672,7 +17675,7 @@
         <v>112</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>533</v>
@@ -17683,7 +17686,7 @@
         <v>112</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>533</v>
@@ -17694,7 +17697,7 @@
         <v>112</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>533</v>
@@ -17705,7 +17708,7 @@
         <v>112</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>533</v>
@@ -17716,7 +17719,7 @@
         <v>112</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>533</v>
@@ -17727,7 +17730,7 @@
         <v>112</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>533</v>
@@ -17738,7 +17741,7 @@
         <v>112</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>533</v>
@@ -17749,10 +17752,10 @@
         <v>112</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>589</v>
+        <v>533</v>
       </c>
     </row>
     <row r="101">
@@ -17760,7 +17763,7 @@
         <v>112</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>533</v>
@@ -17771,7 +17774,7 @@
         <v>112</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>590</v>
@@ -17782,7 +17785,7 @@
         <v>112</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>533</v>
@@ -17790,24 +17793,24 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>533</v>
+        <v>591</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>582</v>
+        <v>533</v>
       </c>
     </row>
     <row r="106">
@@ -17815,7 +17818,7 @@
         <v>132</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>533</v>
@@ -17823,21 +17826,21 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>533</v>
+        <v>583</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>533</v>
@@ -17848,10 +17851,10 @@
         <v>105</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>591</v>
+        <v>533</v>
       </c>
     </row>
     <row r="110">
@@ -17859,7 +17862,7 @@
         <v>105</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>533</v>
@@ -17870,10 +17873,10 @@
         <v>105</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>533</v>
+        <v>592</v>
       </c>
     </row>
     <row r="112">
@@ -17881,7 +17884,7 @@
         <v>105</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>533</v>
@@ -17892,7 +17895,7 @@
         <v>105</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>533</v>
@@ -17903,7 +17906,7 @@
         <v>105</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>533</v>
@@ -17914,7 +17917,7 @@
         <v>105</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>533</v>
@@ -17925,7 +17928,7 @@
         <v>105</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>533</v>
@@ -17936,7 +17939,7 @@
         <v>105</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>533</v>
@@ -17947,7 +17950,7 @@
         <v>105</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>533</v>
@@ -17958,7 +17961,7 @@
         <v>105</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>141</v>
+        <v>54</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>533</v>
@@ -17969,7 +17972,7 @@
         <v>105</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>533</v>
@@ -17980,7 +17983,7 @@
         <v>105</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>533</v>
@@ -17991,7 +17994,7 @@
         <v>105</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>533</v>
@@ -18002,7 +18005,7 @@
         <v>105</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>533</v>
@@ -18013,7 +18016,7 @@
         <v>105</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>52</v>
+        <v>147</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>533</v>
@@ -18024,7 +18027,7 @@
         <v>105</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>533</v>
@@ -18035,7 +18038,7 @@
         <v>105</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>533</v>
@@ -18046,7 +18049,7 @@
         <v>105</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>533</v>
@@ -18057,7 +18060,7 @@
         <v>105</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>533</v>
@@ -18068,7 +18071,7 @@
         <v>105</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>533</v>
@@ -18079,7 +18082,7 @@
         <v>105</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>533</v>
@@ -18090,7 +18093,7 @@
         <v>105</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>533</v>
@@ -18101,7 +18104,7 @@
         <v>105</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>533</v>
@@ -18112,7 +18115,7 @@
         <v>105</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>533</v>
@@ -18123,7 +18126,7 @@
         <v>105</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>533</v>
@@ -18134,10 +18137,10 @@
         <v>105</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="C135" t="s" s="0">
-        <v>592</v>
+        <v>533</v>
       </c>
     </row>
     <row r="136">
@@ -18145,7 +18148,7 @@
         <v>105</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>533</v>
@@ -18156,10 +18159,10 @@
         <v>105</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C137" t="s" s="0">
-        <v>572</v>
+        <v>593</v>
       </c>
     </row>
     <row r="138">
@@ -18167,7 +18170,7 @@
         <v>105</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>533</v>
@@ -18175,35 +18178,35 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="0">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>527</v>
+        <v>573</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="0">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C140" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="0">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C141" t="s" s="0">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="142">
@@ -18211,10 +18214,10 @@
         <v>155</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C142" t="s" s="0">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="143">
@@ -18222,7 +18225,7 @@
         <v>155</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>537</v>
@@ -18233,7 +18236,7 @@
         <v>155</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>537</v>
@@ -18244,7 +18247,7 @@
         <v>155</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>537</v>
@@ -18255,7 +18258,7 @@
         <v>155</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>537</v>
@@ -18266,7 +18269,7 @@
         <v>155</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>537</v>
@@ -18277,7 +18280,7 @@
         <v>155</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>537</v>
@@ -18288,10 +18291,10 @@
         <v>155</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="C149" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="150">
@@ -18299,43 +18302,43 @@
         <v>155</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="C150" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="0">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="C151" t="s" s="0">
-        <v>573</v>
+        <v>537</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="0">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="C152" t="s" s="0">
-        <v>573</v>
+        <v>533</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="0">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="C153" t="s" s="0">
-        <v>588</v>
+        <v>533</v>
       </c>
     </row>
     <row r="154">
@@ -18343,10 +18346,10 @@
         <v>164</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>174</v>
+        <v>96</v>
       </c>
       <c r="C154" t="s" s="0">
-        <v>588</v>
+        <v>574</v>
       </c>
     </row>
     <row r="155">
@@ -18354,10 +18357,10 @@
         <v>164</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C155" t="s" s="0">
-        <v>588</v>
+        <v>574</v>
       </c>
     </row>
     <row r="156">
@@ -18365,10 +18368,10 @@
         <v>164</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>94</v>
+        <v>176</v>
       </c>
       <c r="C156" t="s" s="0">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="157">
@@ -18376,10 +18379,10 @@
         <v>164</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C157" t="s" s="0">
-        <v>573</v>
+        <v>589</v>
       </c>
     </row>
     <row r="158">
@@ -18387,10 +18390,10 @@
         <v>164</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C158" t="s" s="0">
-        <v>533</v>
+        <v>589</v>
       </c>
     </row>
     <row r="159">
@@ -18398,10 +18401,10 @@
         <v>164</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="C159" t="s" s="0">
-        <v>533</v>
+        <v>589</v>
       </c>
     </row>
     <row r="160">
@@ -18409,10 +18412,10 @@
         <v>164</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C160" t="s" s="0">
-        <v>559</v>
+        <v>574</v>
       </c>
     </row>
     <row r="161">
@@ -18420,10 +18423,10 @@
         <v>164</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C161" t="s" s="0">
-        <v>587</v>
+        <v>533</v>
       </c>
     </row>
     <row r="162">
@@ -18431,43 +18434,43 @@
         <v>164</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C162" t="s" s="0">
-        <v>573</v>
+        <v>533</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="0">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C163" t="s" s="0">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="0">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>62</v>
+        <v>165</v>
       </c>
       <c r="C164" t="s" s="0">
-        <v>533</v>
+        <v>588</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="0">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>58</v>
+        <v>172</v>
       </c>
       <c r="C165" t="s" s="0">
-        <v>533</v>
+        <v>574</v>
       </c>
     </row>
     <row r="166">
@@ -18475,10 +18478,10 @@
         <v>93</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C166" t="s" s="0">
-        <v>533</v>
+        <v>548</v>
       </c>
     </row>
     <row r="167">
@@ -18486,7 +18489,7 @@
         <v>93</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>181</v>
+        <v>62</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>533</v>
@@ -18497,7 +18500,7 @@
         <v>93</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>533</v>
@@ -18508,7 +18511,7 @@
         <v>93</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>533</v>
@@ -18519,7 +18522,7 @@
         <v>93</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>533</v>
@@ -18530,7 +18533,7 @@
         <v>93</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>533</v>
@@ -18541,7 +18544,7 @@
         <v>93</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>184</v>
+        <v>66</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>533</v>
@@ -18552,10 +18555,10 @@
         <v>93</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>17</v>
+        <v>183</v>
       </c>
       <c r="C173" t="s" s="0">
-        <v>567</v>
+        <v>533</v>
       </c>
     </row>
     <row r="174">
@@ -18563,7 +18566,7 @@
         <v>93</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>533</v>
@@ -18574,10 +18577,10 @@
         <v>93</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>26</v>
+        <v>184</v>
       </c>
       <c r="C175" t="s" s="0">
-        <v>587</v>
+        <v>533</v>
       </c>
     </row>
     <row r="176">
@@ -18585,18 +18588,18 @@
         <v>93</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>533</v>
+        <v>568</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="0">
-        <v>379</v>
+        <v>93</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>380</v>
+        <v>124</v>
       </c>
       <c r="C177" t="s" s="0">
         <v>533</v>
@@ -18604,21 +18607,21 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="0">
-        <v>379</v>
+        <v>93</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>381</v>
+        <v>26</v>
       </c>
       <c r="C178" t="s" s="0">
-        <v>533</v>
+        <v>588</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="0">
-        <v>379</v>
+        <v>93</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>382</v>
+        <v>32</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>533</v>
@@ -18626,32 +18629,32 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="0">
-        <v>187</v>
+        <v>379</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>188</v>
+        <v>380</v>
       </c>
       <c r="C180" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="0">
-        <v>187</v>
+        <v>379</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>194</v>
+        <v>381</v>
       </c>
       <c r="C181" t="s" s="0">
-        <v>548</v>
+        <v>533</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="0">
-        <v>187</v>
+        <v>379</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>198</v>
+        <v>382</v>
       </c>
       <c r="C182" t="s" s="0">
         <v>533</v>
@@ -18662,10 +18665,10 @@
         <v>187</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C183" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="184">
@@ -18673,10 +18676,10 @@
         <v>187</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C184" t="s" s="0">
-        <v>577</v>
+        <v>548</v>
       </c>
     </row>
     <row r="185">
@@ -18684,10 +18687,10 @@
         <v>187</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C185" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="186">
@@ -18695,10 +18698,10 @@
         <v>187</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C186" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="187">
@@ -18706,65 +18709,65 @@
         <v>187</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C187" t="s" s="0">
-        <v>527</v>
+        <v>578</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="0">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C188" t="s" s="0">
-        <v>593</v>
+        <v>537</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="0">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C189" t="s" s="0">
-        <v>537</v>
+        <v>556</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="0">
-        <v>383</v>
+        <v>187</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>90</v>
+        <v>192</v>
       </c>
       <c r="C190" t="s" s="0">
-        <v>588</v>
+        <v>556</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="0">
-        <v>383</v>
+        <v>199</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>96</v>
+        <v>201</v>
       </c>
       <c r="C191" t="s" s="0">
-        <v>577</v>
+        <v>594</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="0">
-        <v>383</v>
+        <v>199</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>384</v>
+        <v>200</v>
       </c>
       <c r="C192" t="s" s="0">
-        <v>573</v>
+        <v>537</v>
       </c>
     </row>
     <row r="193">
@@ -18772,10 +18775,10 @@
         <v>383</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C193" t="s" s="0">
-        <v>573</v>
+        <v>589</v>
       </c>
     </row>
     <row r="194">
@@ -18783,10 +18786,10 @@
         <v>383</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>385</v>
+        <v>96</v>
       </c>
       <c r="C194" t="s" s="0">
-        <v>573</v>
+        <v>578</v>
       </c>
     </row>
     <row r="195">
@@ -18794,10 +18797,10 @@
         <v>383</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>94</v>
+        <v>384</v>
       </c>
       <c r="C195" t="s" s="0">
-        <v>594</v>
+        <v>574</v>
       </c>
     </row>
     <row r="196">
@@ -18805,10 +18808,10 @@
         <v>383</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>386</v>
+        <v>91</v>
       </c>
       <c r="C196" t="s" s="0">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="197">
@@ -18816,10 +18819,10 @@
         <v>383</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>543</v>
+        <v>385</v>
       </c>
       <c r="C197" t="s" s="0">
-        <v>527</v>
+        <v>574</v>
       </c>
     </row>
     <row r="198">
@@ -18827,65 +18830,65 @@
         <v>383</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>542</v>
+        <v>94</v>
       </c>
       <c r="C198" t="s" s="0">
-        <v>527</v>
+        <v>595</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s" s="0">
-        <v>202</v>
+        <v>383</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>205</v>
+        <v>386</v>
       </c>
       <c r="C199" t="s" s="0">
-        <v>527</v>
+        <v>583</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s" s="0">
-        <v>202</v>
+        <v>383</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>203</v>
+        <v>543</v>
       </c>
       <c r="C200" t="s" s="0">
-        <v>587</v>
+        <v>556</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="0">
-        <v>206</v>
+        <v>383</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>208</v>
+        <v>542</v>
       </c>
       <c r="C201" t="s" s="0">
-        <v>528</v>
+        <v>556</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s" s="0">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c r="C202" t="s" s="0">
-        <v>537</v>
+        <v>556</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="0">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C203" t="s" s="0">
-        <v>537</v>
+        <v>588</v>
       </c>
     </row>
     <row r="204">
@@ -18893,10 +18896,10 @@
         <v>206</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C204" t="s" s="0">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="205">
@@ -18904,7 +18907,7 @@
         <v>206</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c r="C205" t="s" s="0">
         <v>537</v>
@@ -18915,10 +18918,10 @@
         <v>206</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>35</v>
+        <v>209</v>
       </c>
       <c r="C206" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="207">
@@ -18926,43 +18929,43 @@
         <v>206</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="C207" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="0">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>96</v>
+        <v>210</v>
       </c>
       <c r="C208" t="s" s="0">
-        <v>527</v>
+        <v>537</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s" s="0">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>213</v>
+        <v>35</v>
       </c>
       <c r="C209" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="0">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="C210" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="211">
@@ -18970,7 +18973,7 @@
         <v>211</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C211" t="s" s="0">
         <v>527</v>
@@ -18978,10 +18981,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="0">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C212" t="s" s="0">
         <v>527</v>
@@ -18989,21 +18992,21 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="0">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C213" t="s" s="0">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s" s="0">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="C214" t="s" s="0">
         <v>527</v>
@@ -19011,21 +19014,21 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="0">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C215" t="s" s="0">
-        <v>533</v>
+        <v>556</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s" s="0">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C216" t="s" s="0">
         <v>533</v>
@@ -19033,21 +19036,21 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="0">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C217" t="s" s="0">
-        <v>533</v>
+        <v>556</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s" s="0">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="C218" t="s" s="0">
         <v>533</v>
@@ -19055,13 +19058,13 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="0">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C219" t="s" s="0">
-        <v>573</v>
+        <v>533</v>
       </c>
     </row>
     <row r="220">
@@ -19069,10 +19072,10 @@
         <v>222</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C220" t="s" s="0">
-        <v>577</v>
+        <v>533</v>
       </c>
     </row>
     <row r="221">
@@ -19080,10 +19083,10 @@
         <v>222</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="C221" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="222">
@@ -19091,10 +19094,10 @@
         <v>222</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C222" t="s" s="0">
-        <v>527</v>
+        <v>574</v>
       </c>
     </row>
     <row r="223">
@@ -19102,10 +19105,10 @@
         <v>222</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C223" t="s" s="0">
-        <v>527</v>
+        <v>578</v>
       </c>
     </row>
     <row r="224">
@@ -19113,10 +19116,10 @@
         <v>222</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C224" t="s" s="0">
-        <v>527</v>
+        <v>537</v>
       </c>
     </row>
     <row r="225">
@@ -19124,76 +19127,76 @@
         <v>222</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C225" t="s" s="0">
-        <v>527</v>
+        <v>556</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s" s="0">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C226" t="s" s="0">
-        <v>527</v>
+        <v>556</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s" s="0">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C227" t="s" s="0">
-        <v>533</v>
+        <v>556</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="0">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C228" t="s" s="0">
-        <v>533</v>
+        <v>556</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s" s="0">
-        <v>387</v>
+        <v>233</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>389</v>
+        <v>234</v>
       </c>
       <c r="C229" t="s" s="0">
-        <v>577</v>
+        <v>556</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s" s="0">
-        <v>387</v>
+        <v>233</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>390</v>
+        <v>235</v>
       </c>
       <c r="C230" t="s" s="0">
-        <v>582</v>
+        <v>533</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="0">
-        <v>387</v>
+        <v>233</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>391</v>
+        <v>236</v>
       </c>
       <c r="C231" t="s" s="0">
-        <v>582</v>
+        <v>533</v>
       </c>
     </row>
     <row r="232">
@@ -19201,10 +19204,10 @@
         <v>387</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>94</v>
+        <v>389</v>
       </c>
       <c r="C232" t="s" s="0">
-        <v>537</v>
+        <v>578</v>
       </c>
     </row>
     <row r="233">
@@ -19212,43 +19215,43 @@
         <v>387</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C233" t="s" s="0">
-        <v>537</v>
+        <v>583</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s" s="0">
-        <v>238</v>
+        <v>387</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>243</v>
+        <v>391</v>
       </c>
       <c r="C234" t="s" s="0">
-        <v>537</v>
+        <v>583</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="0">
-        <v>238</v>
+        <v>387</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>244</v>
+        <v>94</v>
       </c>
       <c r="C235" t="s" s="0">
-        <v>587</v>
+        <v>537</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s" s="0">
-        <v>238</v>
+        <v>387</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>239</v>
+        <v>388</v>
       </c>
       <c r="C236" t="s" s="0">
-        <v>593</v>
+        <v>537</v>
       </c>
     </row>
     <row r="237">
@@ -19256,10 +19259,10 @@
         <v>238</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C237" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="238">
@@ -19267,10 +19270,10 @@
         <v>238</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C238" t="s" s="0">
-        <v>533</v>
+        <v>588</v>
       </c>
     </row>
     <row r="239">
@@ -19278,10 +19281,10 @@
         <v>238</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C239" t="s" s="0">
-        <v>582</v>
+        <v>594</v>
       </c>
     </row>
     <row r="240">
@@ -19289,7 +19292,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C240" t="s" s="0">
         <v>533</v>
@@ -19297,35 +19300,35 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="0">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>96</v>
+        <v>242</v>
       </c>
       <c r="C241" t="s" s="0">
-        <v>573</v>
+        <v>533</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s" s="0">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="C242" t="s" s="0">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s" s="0">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="C243" t="s" s="0">
-        <v>588</v>
+        <v>533</v>
       </c>
     </row>
     <row r="244">
@@ -19333,10 +19336,10 @@
         <v>246</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C244" t="s" s="0">
-        <v>591</v>
+        <v>574</v>
       </c>
     </row>
     <row r="245">
@@ -19344,40 +19347,40 @@
         <v>246</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="C245" t="s" s="0">
-        <v>537</v>
+        <v>589</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s" s="0">
-        <v>63</v>
+        <v>246</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="C246" t="s" s="0">
-        <v>528</v>
+        <v>589</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s" s="0">
-        <v>63</v>
+        <v>246</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="C247" t="s" s="0">
-        <v>537</v>
+        <v>592</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s" s="0">
-        <v>63</v>
+        <v>246</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>106</v>
+        <v>247</v>
       </c>
       <c r="C248" t="s" s="0">
         <v>537</v>
@@ -19388,10 +19391,10 @@
         <v>63</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C249" t="s" s="0">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="250">
@@ -19399,7 +19402,7 @@
         <v>63</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="C250" t="s" s="0">
         <v>537</v>
@@ -19410,7 +19413,7 @@
         <v>63</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="C251" t="s" s="0">
         <v>537</v>
@@ -19421,7 +19424,7 @@
         <v>63</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C252" t="s" s="0">
         <v>537</v>
@@ -19432,7 +19435,7 @@
         <v>63</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C253" t="s" s="0">
         <v>537</v>
@@ -19443,7 +19446,7 @@
         <v>63</v>
       </c>
       <c r="B254" t="s" s="0">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="C254" t="s" s="0">
         <v>537</v>
@@ -19454,7 +19457,7 @@
         <v>63</v>
       </c>
       <c r="B255" t="s" s="0">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="C255" t="s" s="0">
         <v>537</v>
@@ -19465,7 +19468,7 @@
         <v>63</v>
       </c>
       <c r="B256" t="s" s="0">
-        <v>30</v>
+        <v>249</v>
       </c>
       <c r="C256" t="s" s="0">
         <v>537</v>
@@ -19476,7 +19479,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s" s="0">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C257" t="s" s="0">
         <v>537</v>
@@ -19487,10 +19490,10 @@
         <v>63</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C258" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="259">
@@ -19498,43 +19501,43 @@
         <v>63</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C259" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s" s="0">
-        <v>186</v>
+        <v>63</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>255</v>
+        <v>28</v>
       </c>
       <c r="C260" t="s" s="0">
-        <v>528</v>
+        <v>537</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s" s="0">
-        <v>186</v>
+        <v>63</v>
       </c>
       <c r="B261" t="s" s="0">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C261" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s" s="0">
-        <v>186</v>
+        <v>63</v>
       </c>
       <c r="B262" t="s" s="0">
-        <v>209</v>
+        <v>32</v>
       </c>
       <c r="C262" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="263">
@@ -19542,10 +19545,10 @@
         <v>186</v>
       </c>
       <c r="B263" t="s" s="0">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C263" t="s" s="0">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="264">
@@ -19553,7 +19556,7 @@
         <v>186</v>
       </c>
       <c r="B264" t="s" s="0">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c r="C264" t="s" s="0">
         <v>537</v>
@@ -19564,10 +19567,10 @@
         <v>186</v>
       </c>
       <c r="B265" t="s" s="0">
-        <v>35</v>
+        <v>209</v>
       </c>
       <c r="C265" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="266">
@@ -19575,29 +19578,29 @@
         <v>186</v>
       </c>
       <c r="B266" t="s" s="0">
-        <v>32</v>
+        <v>254</v>
       </c>
       <c r="C266" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s" s="0">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="B267" t="s" s="0">
-        <v>119</v>
+        <v>210</v>
       </c>
       <c r="C267" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s" s="0">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="B268" t="s" s="0">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="C268" t="s" s="0">
         <v>533</v>
@@ -19605,13 +19608,13 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="0">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="B269" t="s" s="0">
-        <v>269</v>
+        <v>32</v>
       </c>
       <c r="C269" t="s" s="0">
-        <v>577</v>
+        <v>533</v>
       </c>
     </row>
     <row r="270">
@@ -19619,7 +19622,7 @@
         <v>135</v>
       </c>
       <c r="B270" t="s" s="0">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="C270" t="s" s="0">
         <v>533</v>
@@ -19630,7 +19633,7 @@
         <v>135</v>
       </c>
       <c r="B271" t="s" s="0">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="C271" t="s" s="0">
         <v>533</v>
@@ -19641,10 +19644,10 @@
         <v>135</v>
       </c>
       <c r="B272" t="s" s="0">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C272" t="s" s="0">
-        <v>533</v>
+        <v>578</v>
       </c>
     </row>
     <row r="273">
@@ -19652,7 +19655,7 @@
         <v>135</v>
       </c>
       <c r="B273" t="s" s="0">
-        <v>266</v>
+        <v>62</v>
       </c>
       <c r="C273" t="s" s="0">
         <v>533</v>
@@ -19663,7 +19666,7 @@
         <v>135</v>
       </c>
       <c r="B274" t="s" s="0">
-        <v>267</v>
+        <v>58</v>
       </c>
       <c r="C274" t="s" s="0">
         <v>533</v>
@@ -19674,7 +19677,7 @@
         <v>135</v>
       </c>
       <c r="B275" t="s" s="0">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C275" t="s" s="0">
         <v>533</v>
@@ -19685,7 +19688,7 @@
         <v>135</v>
       </c>
       <c r="B276" t="s" s="0">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C276" t="s" s="0">
         <v>533</v>
@@ -19696,7 +19699,7 @@
         <v>135</v>
       </c>
       <c r="B277" t="s" s="0">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C277" t="s" s="0">
         <v>533</v>
@@ -19707,7 +19710,7 @@
         <v>135</v>
       </c>
       <c r="B278" t="s" s="0">
-        <v>122</v>
+        <v>258</v>
       </c>
       <c r="C278" t="s" s="0">
         <v>533</v>
@@ -19718,7 +19721,7 @@
         <v>135</v>
       </c>
       <c r="B279" t="s" s="0">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C279" t="s" s="0">
         <v>533</v>
@@ -19729,7 +19732,7 @@
         <v>135</v>
       </c>
       <c r="B280" t="s" s="0">
-        <v>66</v>
+        <v>271</v>
       </c>
       <c r="C280" t="s" s="0">
         <v>533</v>
@@ -19740,7 +19743,7 @@
         <v>135</v>
       </c>
       <c r="B281" t="s" s="0">
-        <v>261</v>
+        <v>122</v>
       </c>
       <c r="C281" t="s" s="0">
         <v>533</v>
@@ -19751,7 +19754,7 @@
         <v>135</v>
       </c>
       <c r="B282" t="s" s="0">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C282" t="s" s="0">
         <v>533</v>
@@ -19762,7 +19765,7 @@
         <v>135</v>
       </c>
       <c r="B283" t="s" s="0">
-        <v>265</v>
+        <v>66</v>
       </c>
       <c r="C283" t="s" s="0">
         <v>533</v>
@@ -19773,7 +19776,7 @@
         <v>135</v>
       </c>
       <c r="B284" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C284" t="s" s="0">
         <v>533</v>
@@ -19784,7 +19787,7 @@
         <v>135</v>
       </c>
       <c r="B285" t="s" s="0">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C285" t="s" s="0">
         <v>533</v>
@@ -19795,7 +19798,7 @@
         <v>135</v>
       </c>
       <c r="B286" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C286" t="s" s="0">
         <v>533</v>
@@ -19806,7 +19809,7 @@
         <v>135</v>
       </c>
       <c r="B287" t="s" s="0">
-        <v>117</v>
+        <v>259</v>
       </c>
       <c r="C287" t="s" s="0">
         <v>533</v>
@@ -19817,7 +19820,7 @@
         <v>135</v>
       </c>
       <c r="B288" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C288" t="s" s="0">
         <v>533</v>
@@ -19828,10 +19831,10 @@
         <v>135</v>
       </c>
       <c r="B289" t="s" s="0">
-        <v>17</v>
+        <v>263</v>
       </c>
       <c r="C289" t="s" s="0">
-        <v>595</v>
+        <v>533</v>
       </c>
     </row>
     <row r="290">
@@ -19839,7 +19842,7 @@
         <v>135</v>
       </c>
       <c r="B290" t="s" s="0">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C290" t="s" s="0">
         <v>533</v>
@@ -19850,10 +19853,10 @@
         <v>135</v>
       </c>
       <c r="B291" t="s" s="0">
-        <v>26</v>
+        <v>268</v>
       </c>
       <c r="C291" t="s" s="0">
-        <v>574</v>
+        <v>533</v>
       </c>
     </row>
     <row r="292">
@@ -19861,18 +19864,18 @@
         <v>135</v>
       </c>
       <c r="B292" t="s" s="0">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C292" t="s" s="0">
-        <v>533</v>
+        <v>596</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s" s="0">
-        <v>272</v>
+        <v>135</v>
       </c>
       <c r="B293" t="s" s="0">
-        <v>275</v>
+        <v>124</v>
       </c>
       <c r="C293" t="s" s="0">
         <v>533</v>
@@ -19880,21 +19883,21 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="0">
-        <v>272</v>
+        <v>135</v>
       </c>
       <c r="B294" t="s" s="0">
-        <v>278</v>
+        <v>26</v>
       </c>
       <c r="C294" t="s" s="0">
-        <v>533</v>
+        <v>575</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s" s="0">
-        <v>272</v>
+        <v>135</v>
       </c>
       <c r="B295" t="s" s="0">
-        <v>279</v>
+        <v>32</v>
       </c>
       <c r="C295" t="s" s="0">
         <v>533</v>
@@ -19905,7 +19908,7 @@
         <v>272</v>
       </c>
       <c r="B296" t="s" s="0">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C296" t="s" s="0">
         <v>533</v>
@@ -19916,7 +19919,7 @@
         <v>272</v>
       </c>
       <c r="B297" t="s" s="0">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C297" t="s" s="0">
         <v>533</v>
@@ -19927,7 +19930,7 @@
         <v>272</v>
       </c>
       <c r="B298" t="s" s="0">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C298" t="s" s="0">
         <v>533</v>
@@ -19938,43 +19941,43 @@
         <v>272</v>
       </c>
       <c r="B299" t="s" s="0">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C299" t="s" s="0">
-        <v>582</v>
+        <v>533</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s" s="0">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B300" t="s" s="0">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C300" t="s" s="0">
-        <v>573</v>
+        <v>533</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s" s="0">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B301" t="s" s="0">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="C301" t="s" s="0">
-        <v>548</v>
+        <v>533</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s" s="0">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B302" t="s" s="0">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C302" t="s" s="0">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="303">
@@ -19982,10 +19985,10 @@
         <v>280</v>
       </c>
       <c r="B303" t="s" s="0">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C303" t="s" s="0">
-        <v>533</v>
+        <v>574</v>
       </c>
     </row>
     <row r="304">
@@ -19993,43 +19996,43 @@
         <v>280</v>
       </c>
       <c r="B304" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C304" t="s" s="0">
-        <v>527</v>
+        <v>548</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s" s="0">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B305" t="s" s="0">
-        <v>96</v>
+        <v>282</v>
       </c>
       <c r="C305" t="s" s="0">
-        <v>527</v>
+        <v>578</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s" s="0">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B306" t="s" s="0">
-        <v>175</v>
+        <v>283</v>
       </c>
       <c r="C306" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s" s="0">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B307" t="s" s="0">
-        <v>176</v>
+        <v>284</v>
       </c>
       <c r="C307" t="s" s="0">
-        <v>527</v>
+        <v>556</v>
       </c>
     </row>
     <row r="308">
@@ -20037,7 +20040,7 @@
         <v>287</v>
       </c>
       <c r="B308" t="s" s="0">
-        <v>174</v>
+        <v>96</v>
       </c>
       <c r="C308" t="s" s="0">
         <v>527</v>
@@ -20048,7 +20051,7 @@
         <v>287</v>
       </c>
       <c r="B309" t="s" s="0">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C309" t="s" s="0">
         <v>527</v>
@@ -20059,7 +20062,7 @@
         <v>287</v>
       </c>
       <c r="B310" t="s" s="0">
-        <v>94</v>
+        <v>176</v>
       </c>
       <c r="C310" t="s" s="0">
         <v>527</v>
@@ -20070,7 +20073,7 @@
         <v>287</v>
       </c>
       <c r="B311" t="s" s="0">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C311" t="s" s="0">
         <v>527</v>
@@ -20078,10 +20081,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="0">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B312" t="s" s="0">
-        <v>299</v>
+        <v>169</v>
       </c>
       <c r="C312" t="s" s="0">
         <v>527</v>
@@ -20089,24 +20092,24 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="0">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B313" t="s" s="0">
-        <v>298</v>
+        <v>94</v>
       </c>
       <c r="C313" t="s" s="0">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s" s="0">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B314" t="s" s="0">
-        <v>291</v>
+        <v>173</v>
       </c>
       <c r="C314" t="s" s="0">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="315">
@@ -20114,10 +20117,10 @@
         <v>288</v>
       </c>
       <c r="B315" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C315" t="s" s="0">
-        <v>533</v>
+        <v>556</v>
       </c>
     </row>
     <row r="316">
@@ -20125,7 +20128,7 @@
         <v>288</v>
       </c>
       <c r="B316" t="s" s="0">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C316" t="s" s="0">
         <v>533</v>
@@ -20136,7 +20139,7 @@
         <v>288</v>
       </c>
       <c r="B317" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C317" t="s" s="0">
         <v>533</v>
@@ -20147,7 +20150,7 @@
         <v>288</v>
       </c>
       <c r="B318" t="s" s="0">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C318" t="s" s="0">
         <v>533</v>
@@ -20158,7 +20161,7 @@
         <v>288</v>
       </c>
       <c r="B319" t="s" s="0">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C319" t="s" s="0">
         <v>533</v>
@@ -20166,35 +20169,35 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="0">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B320" t="s" s="0">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C320" t="s" s="0">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s" s="0">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B321" t="s" s="0">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="C321" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s" s="0">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B322" t="s" s="0">
-        <v>163</v>
+        <v>295</v>
       </c>
       <c r="C322" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="323">
@@ -20202,10 +20205,10 @@
         <v>300</v>
       </c>
       <c r="B323" t="s" s="0">
-        <v>157</v>
+        <v>302</v>
       </c>
       <c r="C323" t="s" s="0">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="324">
@@ -20213,7 +20216,7 @@
         <v>300</v>
       </c>
       <c r="B324" t="s" s="0">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="C324" t="s" s="0">
         <v>537</v>
@@ -20224,7 +20227,7 @@
         <v>300</v>
       </c>
       <c r="B325" t="s" s="0">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C325" t="s" s="0">
         <v>537</v>
@@ -20235,7 +20238,7 @@
         <v>300</v>
       </c>
       <c r="B326" t="s" s="0">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C326" t="s" s="0">
         <v>537</v>
@@ -20246,7 +20249,7 @@
         <v>300</v>
       </c>
       <c r="B327" t="s" s="0">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C327" t="s" s="0">
         <v>537</v>
@@ -20257,7 +20260,7 @@
         <v>300</v>
       </c>
       <c r="B328" t="s" s="0">
-        <v>301</v>
+        <v>159</v>
       </c>
       <c r="C328" t="s" s="0">
         <v>537</v>
@@ -20268,7 +20271,7 @@
         <v>300</v>
       </c>
       <c r="B329" t="s" s="0">
-        <v>303</v>
+        <v>161</v>
       </c>
       <c r="C329" t="s" s="0">
         <v>537</v>
@@ -20279,10 +20282,10 @@
         <v>300</v>
       </c>
       <c r="B330" t="s" s="0">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="C330" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="331">
@@ -20290,29 +20293,29 @@
         <v>300</v>
       </c>
       <c r="B331" t="s" s="0">
-        <v>32</v>
+        <v>301</v>
       </c>
       <c r="C331" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s" s="0">
-        <v>87</v>
+        <v>300</v>
       </c>
       <c r="B332" t="s" s="0">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C332" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s" s="0">
-        <v>87</v>
+        <v>300</v>
       </c>
       <c r="B333" t="s" s="0">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C333" t="s" s="0">
         <v>533</v>
@@ -20320,10 +20323,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="0">
-        <v>87</v>
+        <v>300</v>
       </c>
       <c r="B334" t="s" s="0">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C334" t="s" s="0">
         <v>533</v>
@@ -20334,7 +20337,7 @@
         <v>87</v>
       </c>
       <c r="B335" t="s" s="0">
-        <v>126</v>
+        <v>304</v>
       </c>
       <c r="C335" t="s" s="0">
         <v>533</v>
@@ -20345,7 +20348,7 @@
         <v>87</v>
       </c>
       <c r="B336" t="s" s="0">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="C336" t="s" s="0">
         <v>533</v>
@@ -20356,7 +20359,7 @@
         <v>87</v>
       </c>
       <c r="B337" t="s" s="0">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="C337" t="s" s="0">
         <v>533</v>
@@ -20367,7 +20370,7 @@
         <v>87</v>
       </c>
       <c r="B338" t="s" s="0">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C338" t="s" s="0">
         <v>533</v>
@@ -20378,7 +20381,7 @@
         <v>87</v>
       </c>
       <c r="B339" t="s" s="0">
-        <v>309</v>
+        <v>121</v>
       </c>
       <c r="C339" t="s" s="0">
         <v>533</v>
@@ -20389,7 +20392,7 @@
         <v>87</v>
       </c>
       <c r="B340" t="s" s="0">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="C340" t="s" s="0">
         <v>533</v>
@@ -20400,7 +20403,7 @@
         <v>87</v>
       </c>
       <c r="B341" t="s" s="0">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C341" t="s" s="0">
         <v>533</v>
@@ -20411,7 +20414,7 @@
         <v>87</v>
       </c>
       <c r="B342" t="s" s="0">
-        <v>125</v>
+        <v>309</v>
       </c>
       <c r="C342" t="s" s="0">
         <v>533</v>
@@ -20422,7 +20425,7 @@
         <v>87</v>
       </c>
       <c r="B343" t="s" s="0">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="C343" t="s" s="0">
         <v>533</v>
@@ -20433,7 +20436,7 @@
         <v>87</v>
       </c>
       <c r="B344" t="s" s="0">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C344" t="s" s="0">
         <v>533</v>
@@ -20444,7 +20447,7 @@
         <v>87</v>
       </c>
       <c r="B345" t="s" s="0">
-        <v>306</v>
+        <v>125</v>
       </c>
       <c r="C345" t="s" s="0">
         <v>533</v>
@@ -20455,10 +20458,10 @@
         <v>87</v>
       </c>
       <c r="B346" t="s" s="0">
-        <v>305</v>
+        <v>127</v>
       </c>
       <c r="C346" t="s" s="0">
-        <v>588</v>
+        <v>533</v>
       </c>
     </row>
     <row r="347">
@@ -20466,65 +20469,65 @@
         <v>87</v>
       </c>
       <c r="B347" t="s" s="0">
-        <v>308</v>
+        <v>130</v>
       </c>
       <c r="C347" t="s" s="0">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s" s="0">
-        <v>310</v>
+        <v>87</v>
       </c>
       <c r="B348" t="s" s="0">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C348" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s" s="0">
-        <v>310</v>
+        <v>87</v>
       </c>
       <c r="B349" t="s" s="0">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="C349" t="s" s="0">
-        <v>527</v>
+        <v>589</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s" s="0">
-        <v>312</v>
+        <v>87</v>
       </c>
       <c r="B350" t="s" s="0">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="C350" t="s" s="0">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s" s="0">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B351" t="s" s="0">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C351" t="s" s="0">
-        <v>590</v>
+        <v>527</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s" s="0">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B352" t="s" s="0">
-        <v>315</v>
+        <v>281</v>
       </c>
       <c r="C352" t="s" s="0">
-        <v>590</v>
+        <v>527</v>
       </c>
     </row>
     <row r="353">
@@ -20532,10 +20535,10 @@
         <v>312</v>
       </c>
       <c r="B353" t="s" s="0">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C353" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="354">
@@ -20543,10 +20546,10 @@
         <v>312</v>
       </c>
       <c r="B354" t="s" s="0">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C354" t="s" s="0">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="355">
@@ -20554,10 +20557,10 @@
         <v>312</v>
       </c>
       <c r="B355" t="s" s="0">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C355" t="s" s="0">
-        <v>527</v>
+        <v>591</v>
       </c>
     </row>
     <row r="356">
@@ -20565,10 +20568,10 @@
         <v>312</v>
       </c>
       <c r="B356" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C356" t="s" s="0">
-        <v>527</v>
+        <v>537</v>
       </c>
     </row>
     <row r="357">
@@ -20576,10 +20579,10 @@
         <v>312</v>
       </c>
       <c r="B357" t="s" s="0">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C357" t="s" s="0">
-        <v>527</v>
+        <v>574</v>
       </c>
     </row>
     <row r="358">
@@ -20587,10 +20590,10 @@
         <v>312</v>
       </c>
       <c r="B358" t="s" s="0">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C358" t="s" s="0">
-        <v>527</v>
+        <v>556</v>
       </c>
     </row>
     <row r="359">
@@ -20598,43 +20601,43 @@
         <v>312</v>
       </c>
       <c r="B359" t="s" s="0">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C359" t="s" s="0">
-        <v>527</v>
+        <v>556</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s" s="0">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B360" t="s" s="0">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C360" t="s" s="0">
-        <v>528</v>
+        <v>556</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s" s="0">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B361" t="s" s="0">
-        <v>45</v>
+        <v>316</v>
       </c>
       <c r="C361" t="s" s="0">
-        <v>537</v>
+        <v>556</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="s" s="0">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B362" t="s" s="0">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="C362" t="s" s="0">
-        <v>537</v>
+        <v>556</v>
       </c>
     </row>
     <row r="363">
@@ -20642,10 +20645,10 @@
         <v>326</v>
       </c>
       <c r="B363" t="s" s="0">
-        <v>210</v>
+        <v>327</v>
       </c>
       <c r="C363" t="s" s="0">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="364">
@@ -20653,7 +20656,7 @@
         <v>326</v>
       </c>
       <c r="B364" t="s" s="0">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="C364" t="s" s="0">
         <v>537</v>
@@ -20664,10 +20667,10 @@
         <v>326</v>
       </c>
       <c r="B365" t="s" s="0">
-        <v>35</v>
+        <v>328</v>
       </c>
       <c r="C365" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="366">
@@ -20675,43 +20678,43 @@
         <v>326</v>
       </c>
       <c r="B366" t="s" s="0">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="C366" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="s" s="0">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="B367" t="s" s="0">
-        <v>330</v>
+        <v>209</v>
       </c>
       <c r="C367" t="s" s="0">
-        <v>528</v>
+        <v>537</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="s" s="0">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="B368" t="s" s="0">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C368" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s" s="0">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="B369" t="s" s="0">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="C369" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="370">
@@ -20719,10 +20722,10 @@
         <v>307</v>
       </c>
       <c r="B370" t="s" s="0">
-        <v>111</v>
+        <v>330</v>
       </c>
       <c r="C370" t="s" s="0">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="371">
@@ -20730,7 +20733,7 @@
         <v>307</v>
       </c>
       <c r="B371" t="s" s="0">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="C371" t="s" s="0">
         <v>537</v>
@@ -20741,7 +20744,7 @@
         <v>307</v>
       </c>
       <c r="B372" t="s" s="0">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C372" t="s" s="0">
         <v>537</v>
@@ -20752,7 +20755,7 @@
         <v>307</v>
       </c>
       <c r="B373" t="s" s="0">
-        <v>301</v>
+        <v>111</v>
       </c>
       <c r="C373" t="s" s="0">
         <v>537</v>
@@ -20763,10 +20766,10 @@
         <v>307</v>
       </c>
       <c r="B374" t="s" s="0">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="C374" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="375">
@@ -20774,29 +20777,29 @@
         <v>307</v>
       </c>
       <c r="B375" t="s" s="0">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="C375" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="s" s="0">
-        <v>191</v>
+        <v>307</v>
       </c>
       <c r="B376" t="s" s="0">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="C376" t="s" s="0">
-        <v>548</v>
+        <v>537</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="s" s="0">
-        <v>191</v>
+        <v>307</v>
       </c>
       <c r="B377" t="s" s="0">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C377" t="s" s="0">
         <v>533</v>
@@ -20804,10 +20807,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s" s="0">
-        <v>191</v>
+        <v>307</v>
       </c>
       <c r="B378" t="s" s="0">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C378" t="s" s="0">
         <v>533</v>
@@ -20818,10 +20821,10 @@
         <v>191</v>
       </c>
       <c r="B379" t="s" s="0">
-        <v>178</v>
+        <v>333</v>
       </c>
       <c r="C379" t="s" s="0">
-        <v>533</v>
+        <v>548</v>
       </c>
     </row>
     <row r="380">
@@ -20829,7 +20832,7 @@
         <v>191</v>
       </c>
       <c r="B380" t="s" s="0">
-        <v>331</v>
+        <v>62</v>
       </c>
       <c r="C380" t="s" s="0">
         <v>533</v>
@@ -20840,7 +20843,7 @@
         <v>191</v>
       </c>
       <c r="B381" t="s" s="0">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c r="C381" t="s" s="0">
         <v>533</v>
@@ -20851,7 +20854,7 @@
         <v>191</v>
       </c>
       <c r="B382" t="s" s="0">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="C382" t="s" s="0">
         <v>533</v>
@@ -20862,7 +20865,7 @@
         <v>191</v>
       </c>
       <c r="B383" t="s" s="0">
-        <v>183</v>
+        <v>331</v>
       </c>
       <c r="C383" t="s" s="0">
         <v>533</v>
@@ -20873,7 +20876,7 @@
         <v>191</v>
       </c>
       <c r="B384" t="s" s="0">
-        <v>332</v>
+        <v>182</v>
       </c>
       <c r="C384" t="s" s="0">
         <v>533</v>
@@ -20884,7 +20887,7 @@
         <v>191</v>
       </c>
       <c r="B385" t="s" s="0">
-        <v>184</v>
+        <v>66</v>
       </c>
       <c r="C385" t="s" s="0">
         <v>533</v>
@@ -20895,10 +20898,10 @@
         <v>191</v>
       </c>
       <c r="B386" t="s" s="0">
-        <v>17</v>
+        <v>183</v>
       </c>
       <c r="C386" t="s" s="0">
-        <v>567</v>
+        <v>533</v>
       </c>
     </row>
     <row r="387">
@@ -20906,7 +20909,7 @@
         <v>191</v>
       </c>
       <c r="B387" t="s" s="0">
-        <v>124</v>
+        <v>332</v>
       </c>
       <c r="C387" t="s" s="0">
         <v>533</v>
@@ -20917,10 +20920,10 @@
         <v>191</v>
       </c>
       <c r="B388" t="s" s="0">
-        <v>26</v>
+        <v>184</v>
       </c>
       <c r="C388" t="s" s="0">
-        <v>587</v>
+        <v>533</v>
       </c>
     </row>
     <row r="389">
@@ -20928,18 +20931,18 @@
         <v>191</v>
       </c>
       <c r="B389" t="s" s="0">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C389" t="s" s="0">
-        <v>533</v>
+        <v>568</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="s" s="0">
-        <v>334</v>
+        <v>191</v>
       </c>
       <c r="B390" t="s" s="0">
-        <v>336</v>
+        <v>124</v>
       </c>
       <c r="C390" t="s" s="0">
         <v>533</v>
@@ -20947,21 +20950,21 @@
     </row>
     <row r="391">
       <c r="A391" t="s" s="0">
-        <v>334</v>
+        <v>191</v>
       </c>
       <c r="B391" t="s" s="0">
-        <v>337</v>
+        <v>26</v>
       </c>
       <c r="C391" t="s" s="0">
-        <v>537</v>
+        <v>588</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="s" s="0">
-        <v>334</v>
+        <v>191</v>
       </c>
       <c r="B392" t="s" s="0">
-        <v>335</v>
+        <v>32</v>
       </c>
       <c r="C392" t="s" s="0">
         <v>533</v>
@@ -20969,10 +20972,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s" s="0">
-        <v>55</v>
+        <v>334</v>
       </c>
       <c r="B393" t="s" s="0">
-        <v>62</v>
+        <v>336</v>
       </c>
       <c r="C393" t="s" s="0">
         <v>533</v>
@@ -20980,24 +20983,24 @@
     </row>
     <row r="394">
       <c r="A394" t="s" s="0">
-        <v>55</v>
+        <v>334</v>
       </c>
       <c r="B394" t="s" s="0">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C394" t="s" s="0">
-        <v>577</v>
+        <v>537</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="s" s="0">
-        <v>55</v>
+        <v>334</v>
       </c>
       <c r="B395" t="s" s="0">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C395" t="s" s="0">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="396">
@@ -21005,7 +21008,7 @@
         <v>55</v>
       </c>
       <c r="B396" t="s" s="0">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C396" t="s" s="0">
         <v>533</v>
@@ -21016,10 +21019,10 @@
         <v>55</v>
       </c>
       <c r="B397" t="s" s="0">
-        <v>266</v>
+        <v>341</v>
       </c>
       <c r="C397" t="s" s="0">
-        <v>533</v>
+        <v>578</v>
       </c>
     </row>
     <row r="398">
@@ -21027,10 +21030,10 @@
         <v>55</v>
       </c>
       <c r="B398" t="s" s="0">
-        <v>264</v>
+        <v>339</v>
       </c>
       <c r="C398" t="s" s="0">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="399">
@@ -21038,7 +21041,7 @@
         <v>55</v>
       </c>
       <c r="B399" t="s" s="0">
-        <v>262</v>
+        <v>58</v>
       </c>
       <c r="C399" t="s" s="0">
         <v>533</v>
@@ -21049,7 +21052,7 @@
         <v>55</v>
       </c>
       <c r="B400" t="s" s="0">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C400" t="s" s="0">
         <v>533</v>
@@ -21060,7 +21063,7 @@
         <v>55</v>
       </c>
       <c r="B401" t="s" s="0">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C401" t="s" s="0">
         <v>533</v>
@@ -21071,7 +21074,7 @@
         <v>55</v>
       </c>
       <c r="B402" t="s" s="0">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C402" t="s" s="0">
         <v>533</v>
@@ -21082,7 +21085,7 @@
         <v>55</v>
       </c>
       <c r="B403" t="s" s="0">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="C403" t="s" s="0">
         <v>533</v>
@@ -21093,7 +21096,7 @@
         <v>55</v>
       </c>
       <c r="B404" t="s" s="0">
-        <v>340</v>
+        <v>267</v>
       </c>
       <c r="C404" t="s" s="0">
         <v>533</v>
@@ -21104,7 +21107,7 @@
         <v>55</v>
       </c>
       <c r="B405" t="s" s="0">
-        <v>66</v>
+        <v>258</v>
       </c>
       <c r="C405" t="s" s="0">
         <v>533</v>
@@ -21115,7 +21118,7 @@
         <v>55</v>
       </c>
       <c r="B406" t="s" s="0">
-        <v>260</v>
+        <v>309</v>
       </c>
       <c r="C406" t="s" s="0">
         <v>533</v>
@@ -21126,7 +21129,7 @@
         <v>55</v>
       </c>
       <c r="B407" t="s" s="0">
-        <v>261</v>
+        <v>340</v>
       </c>
       <c r="C407" t="s" s="0">
         <v>533</v>
@@ -21137,7 +21140,7 @@
         <v>55</v>
       </c>
       <c r="B408" t="s" s="0">
-        <v>270</v>
+        <v>66</v>
       </c>
       <c r="C408" t="s" s="0">
         <v>533</v>
@@ -21148,7 +21151,7 @@
         <v>55</v>
       </c>
       <c r="B409" t="s" s="0">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C409" t="s" s="0">
         <v>533</v>
@@ -21159,7 +21162,7 @@
         <v>55</v>
       </c>
       <c r="B410" t="s" s="0">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C410" t="s" s="0">
         <v>533</v>
@@ -21170,7 +21173,7 @@
         <v>55</v>
       </c>
       <c r="B411" t="s" s="0">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="C411" t="s" s="0">
         <v>533</v>
@@ -21181,7 +21184,7 @@
         <v>55</v>
       </c>
       <c r="B412" t="s" s="0">
-        <v>306</v>
+        <v>263</v>
       </c>
       <c r="C412" t="s" s="0">
         <v>533</v>
@@ -21192,7 +21195,7 @@
         <v>55</v>
       </c>
       <c r="B413" t="s" s="0">
-        <v>338</v>
+        <v>265</v>
       </c>
       <c r="C413" t="s" s="0">
         <v>533</v>
@@ -21200,21 +21203,21 @@
     </row>
     <row r="414">
       <c r="A414" t="s" s="0">
-        <v>342</v>
+        <v>55</v>
       </c>
       <c r="B414" t="s" s="0">
-        <v>344</v>
+        <v>259</v>
       </c>
       <c r="C414" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="s" s="0">
-        <v>342</v>
+        <v>55</v>
       </c>
       <c r="B415" t="s" s="0">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="C415" t="s" s="0">
         <v>533</v>
@@ -21222,10 +21225,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s" s="0">
-        <v>342</v>
+        <v>55</v>
       </c>
       <c r="B416" t="s" s="0">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C416" t="s" s="0">
         <v>533</v>
@@ -21233,35 +21236,35 @@
     </row>
     <row r="417">
       <c r="A417" t="s" s="0">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B417" t="s" s="0">
-        <v>96</v>
+        <v>344</v>
       </c>
       <c r="C417" t="s" s="0">
-        <v>573</v>
+        <v>556</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="s" s="0">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B418" t="s" s="0">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C418" t="s" s="0">
-        <v>588</v>
+        <v>533</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="s" s="0">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B419" t="s" s="0">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C419" t="s" s="0">
-        <v>588</v>
+        <v>533</v>
       </c>
     </row>
     <row r="420">
@@ -21269,10 +21272,10 @@
         <v>346</v>
       </c>
       <c r="B420" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C420" t="s" s="0">
-        <v>591</v>
+        <v>574</v>
       </c>
     </row>
     <row r="421">
@@ -21280,10 +21283,10 @@
         <v>346</v>
       </c>
       <c r="B421" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C421" t="s" s="0">
-        <v>533</v>
+        <v>589</v>
       </c>
     </row>
     <row r="422">
@@ -21291,10 +21294,10 @@
         <v>346</v>
       </c>
       <c r="B422" t="s" s="0">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C422" t="s" s="0">
-        <v>559</v>
+        <v>589</v>
       </c>
     </row>
     <row r="423">
@@ -21302,10 +21305,10 @@
         <v>346</v>
       </c>
       <c r="B423" t="s" s="0">
-        <v>349</v>
+        <v>94</v>
       </c>
       <c r="C423" t="s" s="0">
-        <v>587</v>
+        <v>592</v>
       </c>
     </row>
     <row r="424">
@@ -21313,43 +21316,43 @@
         <v>346</v>
       </c>
       <c r="B424" t="s" s="0">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C424" t="s" s="0">
-        <v>548</v>
+        <v>533</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="s" s="0">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="B425" t="s" s="0">
-        <v>398</v>
+        <v>351</v>
       </c>
       <c r="C425" t="s" s="0">
-        <v>588</v>
+        <v>560</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="s" s="0">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="B426" t="s" s="0">
-        <v>96</v>
+        <v>349</v>
       </c>
       <c r="C426" t="s" s="0">
-        <v>577</v>
+        <v>588</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="s" s="0">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="B427" t="s" s="0">
-        <v>176</v>
+        <v>352</v>
       </c>
       <c r="C427" t="s" s="0">
-        <v>588</v>
+        <v>548</v>
       </c>
     </row>
     <row r="428">
@@ -21357,10 +21360,10 @@
         <v>392</v>
       </c>
       <c r="B428" t="s" s="0">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="C428" t="s" s="0">
-        <v>573</v>
+        <v>589</v>
       </c>
     </row>
     <row r="429">
@@ -21368,10 +21371,10 @@
         <v>392</v>
       </c>
       <c r="B429" t="s" s="0">
-        <v>395</v>
+        <v>96</v>
       </c>
       <c r="C429" t="s" s="0">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="430">
@@ -21379,10 +21382,10 @@
         <v>392</v>
       </c>
       <c r="B430" t="s" s="0">
-        <v>397</v>
+        <v>176</v>
       </c>
       <c r="C430" t="s" s="0">
-        <v>573</v>
+        <v>589</v>
       </c>
     </row>
     <row r="431">
@@ -21390,10 +21393,10 @@
         <v>392</v>
       </c>
       <c r="B431" t="s" s="0">
-        <v>94</v>
+        <v>393</v>
       </c>
       <c r="C431" t="s" s="0">
-        <v>548</v>
+        <v>574</v>
       </c>
     </row>
     <row r="432">
@@ -21401,10 +21404,10 @@
         <v>392</v>
       </c>
       <c r="B432" t="s" s="0">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C432" t="s" s="0">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="433">
@@ -21412,62 +21415,62 @@
         <v>392</v>
       </c>
       <c r="B433" t="s" s="0">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C433" t="s" s="0">
-        <v>548</v>
+        <v>574</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="s" s="0">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="B434" t="s" s="0">
-        <v>354</v>
+        <v>94</v>
       </c>
       <c r="C434" t="s" s="0">
-        <v>582</v>
+        <v>548</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="s" s="0">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="B435" t="s" s="0">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="C435" t="s" s="0">
-        <v>533</v>
+        <v>583</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="s" s="0">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="B436" t="s" s="0">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="C436" t="s" s="0">
-        <v>533</v>
+        <v>548</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="s" s="0">
-        <v>230</v>
+        <v>353</v>
       </c>
       <c r="B437" t="s" s="0">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C437" t="s" s="0">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="s" s="0">
-        <v>230</v>
+        <v>353</v>
       </c>
       <c r="B438" t="s" s="0">
-        <v>62</v>
+        <v>355</v>
       </c>
       <c r="C438" t="s" s="0">
         <v>533</v>
@@ -21475,13 +21478,13 @@
     </row>
     <row r="439">
       <c r="A439" t="s" s="0">
-        <v>230</v>
+        <v>353</v>
       </c>
       <c r="B439" t="s" s="0">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C439" t="s" s="0">
-        <v>548</v>
+        <v>533</v>
       </c>
     </row>
     <row r="440">
@@ -21489,10 +21492,10 @@
         <v>230</v>
       </c>
       <c r="B440" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C440" t="s" s="0">
-        <v>528</v>
+        <v>583</v>
       </c>
     </row>
     <row r="441">
@@ -21500,7 +21503,7 @@
         <v>230</v>
       </c>
       <c r="B441" t="s" s="0">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C441" t="s" s="0">
         <v>533</v>
@@ -21511,10 +21514,10 @@
         <v>230</v>
       </c>
       <c r="B442" t="s" s="0">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C442" t="s" s="0">
-        <v>533</v>
+        <v>548</v>
       </c>
     </row>
     <row r="443">
@@ -21522,10 +21525,10 @@
         <v>230</v>
       </c>
       <c r="B443" t="s" s="0">
-        <v>182</v>
+        <v>359</v>
       </c>
       <c r="C443" t="s" s="0">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="444">
@@ -21533,7 +21536,7 @@
         <v>230</v>
       </c>
       <c r="B444" t="s" s="0">
-        <v>178</v>
+        <v>58</v>
       </c>
       <c r="C444" t="s" s="0">
         <v>533</v>
@@ -21544,7 +21547,7 @@
         <v>230</v>
       </c>
       <c r="B445" t="s" s="0">
-        <v>66</v>
+        <v>357</v>
       </c>
       <c r="C445" t="s" s="0">
         <v>533</v>
@@ -21555,7 +21558,7 @@
         <v>230</v>
       </c>
       <c r="B446" t="s" s="0">
-        <v>360</v>
+        <v>182</v>
       </c>
       <c r="C446" t="s" s="0">
         <v>533</v>
@@ -21566,7 +21569,7 @@
         <v>230</v>
       </c>
       <c r="B447" t="s" s="0">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C447" t="s" s="0">
         <v>533</v>
@@ -21577,7 +21580,7 @@
         <v>230</v>
       </c>
       <c r="B448" t="s" s="0">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="C448" t="s" s="0">
         <v>533</v>
@@ -21585,35 +21588,35 @@
     </row>
     <row r="449">
       <c r="A449" t="s" s="0">
-        <v>362</v>
+        <v>230</v>
       </c>
       <c r="B449" t="s" s="0">
-        <v>96</v>
+        <v>360</v>
       </c>
       <c r="C449" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="s" s="0">
-        <v>362</v>
+        <v>230</v>
       </c>
       <c r="B450" t="s" s="0">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="C450" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="s" s="0">
-        <v>362</v>
+        <v>230</v>
       </c>
       <c r="B451" t="s" s="0">
-        <v>350</v>
+        <v>183</v>
       </c>
       <c r="C451" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="452">
@@ -21621,7 +21624,7 @@
         <v>362</v>
       </c>
       <c r="B452" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C452" t="s" s="0">
         <v>527</v>
@@ -21632,7 +21635,7 @@
         <v>362</v>
       </c>
       <c r="B453" t="s" s="0">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C453" t="s" s="0">
         <v>527</v>
@@ -21640,35 +21643,35 @@
     </row>
     <row r="454">
       <c r="A454" t="s" s="0">
-        <v>36</v>
+        <v>362</v>
       </c>
       <c r="B454" t="s" s="0">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="C454" t="s" s="0">
-        <v>587</v>
+        <v>527</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="s" s="0">
-        <v>36</v>
+        <v>362</v>
       </c>
       <c r="B455" t="s" s="0">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="C455" t="s" s="0">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="s" s="0">
-        <v>36</v>
+        <v>362</v>
       </c>
       <c r="B456" t="s" s="0">
-        <v>58</v>
+        <v>351</v>
       </c>
       <c r="C456" t="s" s="0">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="457">
@@ -21676,10 +21679,10 @@
         <v>36</v>
       </c>
       <c r="B457" t="s" s="0">
-        <v>64</v>
+        <v>371</v>
       </c>
       <c r="C457" t="s" s="0">
-        <v>533</v>
+        <v>588</v>
       </c>
     </row>
     <row r="458">
@@ -21687,7 +21690,7 @@
         <v>36</v>
       </c>
       <c r="B458" t="s" s="0">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C458" t="s" s="0">
         <v>533</v>
@@ -21698,7 +21701,7 @@
         <v>36</v>
       </c>
       <c r="B459" t="s" s="0">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C459" t="s" s="0">
         <v>533</v>
@@ -21709,7 +21712,7 @@
         <v>36</v>
       </c>
       <c r="B460" t="s" s="0">
-        <v>364</v>
+        <v>64</v>
       </c>
       <c r="C460" t="s" s="0">
         <v>533</v>
@@ -21720,7 +21723,7 @@
         <v>36</v>
       </c>
       <c r="B461" t="s" s="0">
-        <v>365</v>
+        <v>75</v>
       </c>
       <c r="C461" t="s" s="0">
         <v>533</v>
@@ -21731,7 +21734,7 @@
         <v>36</v>
       </c>
       <c r="B462" t="s" s="0">
-        <v>363</v>
+        <v>70</v>
       </c>
       <c r="C462" t="s" s="0">
         <v>533</v>
@@ -21742,7 +21745,7 @@
         <v>36</v>
       </c>
       <c r="B463" t="s" s="0">
-        <v>141</v>
+        <v>364</v>
       </c>
       <c r="C463" t="s" s="0">
         <v>533</v>
@@ -21753,7 +21756,7 @@
         <v>36</v>
       </c>
       <c r="B464" t="s" s="0">
-        <v>72</v>
+        <v>365</v>
       </c>
       <c r="C464" t="s" s="0">
         <v>533</v>
@@ -21764,7 +21767,7 @@
         <v>36</v>
       </c>
       <c r="B465" t="s" s="0">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C465" t="s" s="0">
         <v>533</v>
@@ -21775,7 +21778,7 @@
         <v>36</v>
       </c>
       <c r="B466" t="s" s="0">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C466" t="s" s="0">
         <v>533</v>
@@ -21786,7 +21789,7 @@
         <v>36</v>
       </c>
       <c r="B467" t="s" s="0">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C467" t="s" s="0">
         <v>533</v>
@@ -21797,7 +21800,7 @@
         <v>36</v>
       </c>
       <c r="B468" t="s" s="0">
-        <v>61</v>
+        <v>366</v>
       </c>
       <c r="C468" t="s" s="0">
         <v>533</v>
@@ -21808,7 +21811,7 @@
         <v>36</v>
       </c>
       <c r="B469" t="s" s="0">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="C469" t="s" s="0">
         <v>533</v>
@@ -21819,7 +21822,7 @@
         <v>36</v>
       </c>
       <c r="B470" t="s" s="0">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C470" t="s" s="0">
         <v>533</v>
@@ -21830,7 +21833,7 @@
         <v>36</v>
       </c>
       <c r="B471" t="s" s="0">
-        <v>370</v>
+        <v>61</v>
       </c>
       <c r="C471" t="s" s="0">
         <v>533</v>
@@ -21841,7 +21844,7 @@
         <v>36</v>
       </c>
       <c r="B472" t="s" s="0">
-        <v>368</v>
+        <v>67</v>
       </c>
       <c r="C472" t="s" s="0">
         <v>533</v>
@@ -21852,7 +21855,7 @@
         <v>36</v>
       </c>
       <c r="B473" t="s" s="0">
-        <v>369</v>
+        <v>73</v>
       </c>
       <c r="C473" t="s" s="0">
         <v>533</v>
@@ -21863,7 +21866,7 @@
         <v>36</v>
       </c>
       <c r="B474" t="s" s="0">
-        <v>146</v>
+        <v>370</v>
       </c>
       <c r="C474" t="s" s="0">
         <v>533</v>
@@ -21874,7 +21877,7 @@
         <v>36</v>
       </c>
       <c r="B475" t="s" s="0">
-        <v>53</v>
+        <v>368</v>
       </c>
       <c r="C475" t="s" s="0">
         <v>533</v>
@@ -21885,7 +21888,7 @@
         <v>36</v>
       </c>
       <c r="B476" t="s" s="0">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C476" t="s" s="0">
         <v>533</v>
@@ -21896,7 +21899,7 @@
         <v>36</v>
       </c>
       <c r="B477" t="s" s="0">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C477" t="s" s="0">
         <v>533</v>
@@ -21907,10 +21910,10 @@
         <v>36</v>
       </c>
       <c r="B478" t="s" s="0">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C478" t="s" s="0">
-        <v>596</v>
+        <v>533</v>
       </c>
     </row>
     <row r="479">
@@ -21918,7 +21921,7 @@
         <v>36</v>
       </c>
       <c r="B479" t="s" s="0">
-        <v>124</v>
+        <v>367</v>
       </c>
       <c r="C479" t="s" s="0">
         <v>533</v>
@@ -21929,10 +21932,10 @@
         <v>36</v>
       </c>
       <c r="B480" t="s" s="0">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="C480" t="s" s="0">
-        <v>571</v>
+        <v>533</v>
       </c>
     </row>
     <row r="481">
@@ -21940,43 +21943,43 @@
         <v>36</v>
       </c>
       <c r="B481" t="s" s="0">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C481" t="s" s="0">
-        <v>533</v>
+        <v>597</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="s" s="0">
-        <v>399</v>
+        <v>36</v>
       </c>
       <c r="B482" t="s" s="0">
-        <v>389</v>
+        <v>124</v>
       </c>
       <c r="C482" t="s" s="0">
-        <v>577</v>
+        <v>533</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="s" s="0">
-        <v>399</v>
+        <v>36</v>
       </c>
       <c r="B483" t="s" s="0">
-        <v>401</v>
+        <v>26</v>
       </c>
       <c r="C483" t="s" s="0">
-        <v>582</v>
+        <v>572</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="s" s="0">
-        <v>399</v>
+        <v>36</v>
       </c>
       <c r="B484" t="s" s="0">
-        <v>402</v>
+        <v>32</v>
       </c>
       <c r="C484" t="s" s="0">
-        <v>582</v>
+        <v>533</v>
       </c>
     </row>
     <row r="485">
@@ -21984,10 +21987,10 @@
         <v>399</v>
       </c>
       <c r="B485" t="s" s="0">
-        <v>94</v>
+        <v>389</v>
       </c>
       <c r="C485" t="s" s="0">
-        <v>573</v>
+        <v>578</v>
       </c>
     </row>
     <row r="486">
@@ -21995,10 +21998,10 @@
         <v>399</v>
       </c>
       <c r="B486" t="s" s="0">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C486" t="s" s="0">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="487">
@@ -22006,43 +22009,43 @@
         <v>399</v>
       </c>
       <c r="B487" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C487" t="s" s="0">
-        <v>537</v>
+        <v>583</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="s" s="0">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="B488" t="s" s="0">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C488" t="s" s="0">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="s" s="0">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="B489" t="s" s="0">
-        <v>90</v>
+        <v>403</v>
       </c>
       <c r="C489" t="s" s="0">
-        <v>573</v>
+        <v>583</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="s" s="0">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="B490" t="s" s="0">
-        <v>92</v>
+        <v>400</v>
       </c>
       <c r="C490" t="s" s="0">
-        <v>559</v>
+        <v>537</v>
       </c>
     </row>
     <row r="491">
@@ -22050,10 +22053,10 @@
         <v>372</v>
       </c>
       <c r="B491" t="s" s="0">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C491" t="s" s="0">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="492">
@@ -22061,10 +22064,10 @@
         <v>372</v>
       </c>
       <c r="B492" t="s" s="0">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C492" t="s" s="0">
-        <v>591</v>
+        <v>574</v>
       </c>
     </row>
     <row r="493">
@@ -22072,10 +22075,10 @@
         <v>372</v>
       </c>
       <c r="B493" t="s" s="0">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C493" t="s" s="0">
-        <v>577</v>
+        <v>560</v>
       </c>
     </row>
     <row r="494">
@@ -22083,10 +22086,10 @@
         <v>372</v>
       </c>
       <c r="B494" t="s" s="0">
-        <v>375</v>
+        <v>91</v>
       </c>
       <c r="C494" t="s" s="0">
-        <v>537</v>
+        <v>578</v>
       </c>
     </row>
     <row r="495">
@@ -22094,10 +22097,10 @@
         <v>372</v>
       </c>
       <c r="B495" t="s" s="0">
-        <v>373</v>
+        <v>97</v>
       </c>
       <c r="C495" t="s" s="0">
-        <v>548</v>
+        <v>592</v>
       </c>
     </row>
     <row r="496">
@@ -22105,10 +22108,43 @@
         <v>372</v>
       </c>
       <c r="B496" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C496" t="s" s="0">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="B497" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="C497" t="s" s="0">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="B498" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="C498" t="s" s="0">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="B499" t="s" s="0">
         <v>374</v>
       </c>
-      <c r="C496" t="s" s="0">
-        <v>527</v>
+      <c r="C499" t="s" s="0">
+        <v>556</v>
       </c>
     </row>
   </sheetData>
